--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="714" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="714"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="176">
   <si>
     <t>ObjectName</t>
   </si>
@@ -354,22 +354,10 @@
     <t>Numbers</t>
   </si>
   <si>
-    <t>//div[@class='siebui-nav-tab siebui-subview-navs']//div[2]//ul[1]//li[2]//a</t>
-  </si>
-  <si>
     <t>Num_Manage</t>
   </si>
   <si>
-    <t>//div[@class='siebui-nav-tab siebui-subview-navs']//div[3]//ul[1]//li[1]/a</t>
-  </si>
-  <si>
-    <t>//div[@class='siebui-nav-tab siebui-subview-navs']//div[2]//ul[1]//li[3]//a</t>
-  </si>
-  <si>
     <t>LI_Totals</t>
-  </si>
-  <si>
-    <t>//div[@class='siebui-nav-tab siebui-subview-navs']//div[3]//ul[1]//li[5]//a</t>
   </si>
   <si>
     <t>Number_Query</t>
@@ -551,6 +539,24 @@
   <si>
     <t>//div[starts-with(@class,'siebui-invisible-el siebui-nav-tabView ui-tabs-panel ui-widget-content ui-corner-bottom')]</t>
   </si>
+  <si>
+    <t>Number_Go</t>
+  </si>
+  <si>
+    <t>//button[@title='Numbers:Go']</t>
+  </si>
+  <si>
+    <t>//div[@class='siebui-nav-tab siebui-subview-navs']//a[text()='Numbers']</t>
+  </si>
+  <si>
+    <t>//div[@class='siebui-nav-tab siebui-subview-navs']//a[text()='Line Items']</t>
+  </si>
+  <si>
+    <t>//div[@class='siebui-nav-tab siebui-subview-navs']//a[text()='Totals']</t>
+  </si>
+  <si>
+    <t>//div[@class='siebui-nav-tab siebui-subview-navs']//a[text()='Manage Numbers']</t>
+  </si>
 </sst>
 </file>
 
@@ -695,7 +701,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
+  <dxfs count="153">
     <dxf>
       <fill>
         <patternFill>
@@ -1441,6 +1447,43 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1677,6 +1720,23 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2214,9 +2274,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,11 +2445,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>108</v>
+      <c r="B10" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2401,11 +2461,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>110</v>
+      <c r="A11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2417,11 +2477,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>111</v>
+      <c r="B12" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2433,11 +2493,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>113</v>
+      <c r="A13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -7835,82 +7895,88 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A14:A1048576">
-    <cfRule type="duplicateValues" dxfId="146" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A14:A1048576">
-    <cfRule type="duplicateValues" dxfId="145" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="144" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="143" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="142" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="141" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="140" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="139" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="138" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="137" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="136" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="135" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="134" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="133" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="132" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="131" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="130" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="129" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="128" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="127" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="126" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="125" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="124" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="123" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="122" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="121" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A13">
+    <cfRule type="duplicateValues" dxfId="126" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A13">
+    <cfRule type="duplicateValues" dxfId="125" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7968,8 +8034,8 @@
   <dimension ref="A1:G989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8264,10 +8330,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -8280,10 +8346,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -8296,10 +8362,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -8312,10 +8378,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -8328,10 +8394,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -8344,10 +8410,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -8360,10 +8426,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -8376,10 +8442,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -8392,10 +8458,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -8408,10 +8474,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="11"/>
@@ -8424,10 +8490,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -8440,10 +8506,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -8472,10 +8538,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -8488,10 +8554,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -8504,26 +8570,26 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="str">
-        <f t="shared" ref="G33:G39" si="1">IF(A33&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A33&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G33:G40" si="1">IF(A33&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A33&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("Suspend");</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -8536,10 +8602,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -8552,10 +8618,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -8568,10 +8634,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -8584,10 +8650,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -8600,10 +8666,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -8615,13 +8681,20 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("Number_Go");</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
@@ -14045,131 +14118,143 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A40:A50 A1:A2 A53:A69 A71:A1048576 A16">
-    <cfRule type="duplicateValues" dxfId="120" priority="61"/>
+  <conditionalFormatting sqref="A41:A50 A1:A2 A53:A69 A71:A1048576 A16">
+    <cfRule type="duplicateValues" dxfId="124" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="119" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="118" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="117" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="116" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="115" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="118" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="117" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="116" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A9">
+    <cfRule type="duplicateValues" dxfId="115" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="114" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="113" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="112" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
+  <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="111" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="110" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="109" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="108" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="107" priority="44"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="106" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="105" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="104" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="103" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="102" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="101" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="100" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="99" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="98" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="97" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="96" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="95" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="94" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="93" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="92" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="91" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="90" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A30">
-    <cfRule type="duplicateValues" dxfId="89" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B30">
-    <cfRule type="duplicateValues" dxfId="88" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="87" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="86" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B32">
-    <cfRule type="duplicateValues" dxfId="85" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:B1048576 A1:B32">
-    <cfRule type="duplicateValues" dxfId="84" priority="17"/>
+  <conditionalFormatting sqref="A41:B1048576 A1:B32">
+    <cfRule type="duplicateValues" dxfId="88" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B1048576 B1:B32">
-    <cfRule type="duplicateValues" dxfId="83" priority="8"/>
+  <conditionalFormatting sqref="B41:B1048576 B1:B32">
+    <cfRule type="duplicateValues" dxfId="87" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A39">
-    <cfRule type="duplicateValues" dxfId="82" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B39">
-    <cfRule type="duplicateValues" dxfId="81" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B39">
-    <cfRule type="duplicateValues" dxfId="80" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="79" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="82" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="81" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:B40">
+    <cfRule type="duplicateValues" dxfId="80" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="79" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14414,10 +14499,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -14430,10 +14515,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -14446,10 +14531,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -14462,10 +14547,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -14478,10 +14563,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -38468,9 +38553,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38554,7 +38639,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>94</v>
@@ -38570,10 +38655,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -38586,10 +38671,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -38618,10 +38703,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -38637,7 +38722,7 @@
         <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -38852,7 +38937,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="190">
   <si>
     <t>ObjectName</t>
   </si>
@@ -557,6 +557,48 @@
   <si>
     <t>//div[@class='siebui-nav-tab siebui-subview-navs']//a[text()='Manage Numbers']</t>
   </si>
+  <si>
+    <t>VQ_Account</t>
+  </si>
+  <si>
+    <t>//a[@title='Accounts']</t>
+  </si>
+  <si>
+    <t>//a[.='My Accounts']</t>
+  </si>
+  <si>
+    <t>My_Account</t>
+  </si>
+  <si>
+    <t>New_Account</t>
+  </si>
+  <si>
+    <t>//button[@aria-label='Account:New']</t>
+  </si>
+  <si>
+    <t>Acc_Name</t>
+  </si>
+  <si>
+    <t>//input[@aria-label='Account Name']</t>
+  </si>
+  <si>
+    <t>Customer_Segment</t>
+  </si>
+  <si>
+    <t>//input[@aria-label='Customer Segment']</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>//input[@aria-label='Tier']</t>
+  </si>
+  <si>
+    <t>Acc_Contacts</t>
+  </si>
+  <si>
+    <t>//div[@id='s_vctrl_div_tabScreen']//a[text()='Contacts']</t>
+  </si>
 </sst>
 </file>
 
@@ -701,7 +743,660 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="153">
+  <dxfs count="202">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1730,247 +2425,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2509,8 +2963,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2518,8 +2976,12 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2527,8 +2989,12 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -7894,89 +8360,104 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A2 A14:A1048576">
-    <cfRule type="duplicateValues" dxfId="152" priority="32"/>
+  <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
+    <cfRule type="duplicateValues" dxfId="68" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A14:A1048576">
-    <cfRule type="duplicateValues" dxfId="151" priority="31"/>
+  <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
+    <cfRule type="duplicateValues" dxfId="67" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="150" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="149" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="148" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="147" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="146" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="145" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="144" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="143" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="142" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="141" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="140" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="139" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="138" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="137" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="136" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="135" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="134" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="133" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="132" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="131" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="130" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="129" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="128" priority="8"/>
+  <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
+    <cfRule type="duplicateValues" dxfId="44" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="127" priority="3"/>
+  <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
+    <cfRule type="duplicateValues" dxfId="43" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="126" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="125" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B15 B17:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8022,7 +8503,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8035,7 +8516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8697,8 +9178,12 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -14118,143 +14603,146 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A41:A50 A1:A2 A53:A69 A71:A1048576 A16">
-    <cfRule type="duplicateValues" dxfId="124" priority="66"/>
+  <conditionalFormatting sqref="A42:A50 A1:A2 A53:A69 A71:A1048576 A16">
+    <cfRule type="duplicateValues" dxfId="201" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="123" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="122" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="121" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="120" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="119" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="118" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="117" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="116" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="115" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="114" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="113" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="112" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="111" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="110" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="109" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="108" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="107" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="106" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="105" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="104" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="103" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="102" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="101" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="100" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="99" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="98" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="97" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="96" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="95" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="94" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A30">
-    <cfRule type="duplicateValues" dxfId="93" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B30">
-    <cfRule type="duplicateValues" dxfId="92" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="91" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="90" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B32">
-    <cfRule type="duplicateValues" dxfId="89" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:B1048576 A1:B32">
-    <cfRule type="duplicateValues" dxfId="88" priority="22"/>
+  <conditionalFormatting sqref="A42:B1048576 A1:B32">
+    <cfRule type="duplicateValues" dxfId="165" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B1048576 B1:B32">
-    <cfRule type="duplicateValues" dxfId="87" priority="13"/>
+  <conditionalFormatting sqref="B42:B1048576 B1:B32">
+    <cfRule type="duplicateValues" dxfId="164" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A39">
-    <cfRule type="duplicateValues" dxfId="86" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B39">
-    <cfRule type="duplicateValues" dxfId="85" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B39">
-    <cfRule type="duplicateValues" dxfId="84" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="83" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="82" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="81" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="duplicateValues" dxfId="80" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="79" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14269,7 +14757,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14578,27 +15066,35 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Acc_Name", getdata("Acc_Name"));</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Tier", getdata("Tier"));</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -20694,76 +21190,79 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A65:A68 A1 A70:A71 A73:A78 A80:A87 A89:A92 A94:A98 A100:A1048576 A21:A23 A30:A33 A55:A59 A35:A53 A61:A63">
-    <cfRule type="duplicateValues" dxfId="78" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="77" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="76" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="75" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="74" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="73" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 A24:A25">
-    <cfRule type="duplicateValues" dxfId="72" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="71" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="70" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54 B55:B59 B62:B63">
-    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="68" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="67" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="142" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12">
+    <cfRule type="duplicateValues" dxfId="141" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="140" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="139" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="138" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17 A1:B14 A21:B1048576">
+    <cfRule type="duplicateValues" dxfId="137" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B17 A21:B1048576">
+    <cfRule type="duplicateValues" dxfId="136" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="duplicateValues" dxfId="135" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B16">
+    <cfRule type="duplicateValues" dxfId="134" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="133" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="132" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="66" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="65" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="64" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="63" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="62" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="61" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17 A1:B14 A19:B1048576">
-    <cfRule type="duplicateValues" dxfId="60" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B17 A19:B1048576">
-    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="duplicateValues" dxfId="58" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B16">
-    <cfRule type="duplicateValues" dxfId="57" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+  <conditionalFormatting sqref="A20:B20">
+    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20852,7 +21351,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="54" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20865,7 +21364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21043,8 +21542,12 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -26408,40 +26911,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:A30 A1 A32:A45 A47:A51 A53:A111 B15:B18 A113:A1048576">
-    <cfRule type="duplicateValues" dxfId="53" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="52" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="51" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="50" priority="9"/>
+  <conditionalFormatting sqref="A12:A14">
+    <cfRule type="duplicateValues" dxfId="127" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
-    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A24">
-    <cfRule type="duplicateValues" dxfId="48" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="47" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="46" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="duplicateValues" dxfId="45" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="44" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B9 A11:B1048576">
-    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
+  <conditionalFormatting sqref="A1:B9 A12:B1048576">
+    <cfRule type="duplicateValues" dxfId="120" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10">
-    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -32495,16 +33001,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -38542,7 +39048,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38843,87 +39349,87 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="36" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A1048576 A1 A16:A22 A11:A14">
-    <cfRule type="duplicateValues" dxfId="35" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B1048576 B1 B16:B22 B11:B14">
-    <cfRule type="duplicateValues" dxfId="33" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="32" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="30" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="27" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="26" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="24" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="23" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="21" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="20" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="18" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="17" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44886,7 +45392,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="192">
   <si>
     <t>ObjectName</t>
   </si>
@@ -599,6 +599,12 @@
   <si>
     <t>//div[@id='s_vctrl_div_tabScreen']//a[text()='Contacts']</t>
   </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>//a[text()='</t>
+  </si>
 </sst>
 </file>
 
@@ -743,92 +749,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="202">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="164">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -866,548 +791,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1801,6 +1184,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1831,6 +1221,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2425,6 +1829,291 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2730,7 +2419,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,7 +2535,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="str">
-        <f t="shared" ref="G6:G13" si="0">IF(A6&lt;&gt;"","Browser.WebLink.click("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G6:G16" si="0">IF(A6&lt;&gt;"","Browser.WebLink.click("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebLink.click("VQ_Assert");</v>
       </c>
     </row>
@@ -2973,7 +2662,10 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebLink.click("VQ_Account");</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -2986,7 +2678,10 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebLink.click("My_Account");</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -2999,7 +2694,10 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebLink.click("Acc_Contacts");</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -8361,103 +8059,103 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="68" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="66" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="65" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="64" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="63" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="62" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="61" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="60" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="59" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="58" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="57" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="56" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="55" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="54" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="53" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="52" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="51" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="50" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="49" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="48" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="47" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="46" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="45" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="43" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="42" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="41" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8503,7 +8201,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14604,145 +14302,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A42:A50 A1:A2 A53:A69 A71:A1048576 A16">
-    <cfRule type="duplicateValues" dxfId="201" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="200" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="199" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="198" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="197" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="196" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="195" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="194" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="193" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="192" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="191" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="190" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="189" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="188" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="187" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="186" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="185" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="184" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="183" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="182" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="181" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="180" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="179" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="178" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="177" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="176" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="175" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="174" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="173" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="172" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="171" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A30">
-    <cfRule type="duplicateValues" dxfId="170" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B30">
-    <cfRule type="duplicateValues" dxfId="169" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="168" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="167" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B32">
-    <cfRule type="duplicateValues" dxfId="166" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B1048576 A1:B32">
-    <cfRule type="duplicateValues" dxfId="165" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B1048576 B1:B32">
-    <cfRule type="duplicateValues" dxfId="164" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A39">
-    <cfRule type="duplicateValues" dxfId="163" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B39">
-    <cfRule type="duplicateValues" dxfId="162" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B39">
-    <cfRule type="duplicateValues" dxfId="161" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="160" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="159" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="158" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="duplicateValues" dxfId="157" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="156" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21190,79 +20888,79 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A65:A68 A1 A70:A71 A73:A78 A80:A87 A89:A92 A94:A98 A100:A1048576 A21:A23 A30:A33 A55:A59 A35:A53 A61:A63">
-    <cfRule type="duplicateValues" dxfId="155" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="154" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="153" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="152" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="151" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="150" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 A24:A25">
-    <cfRule type="duplicateValues" dxfId="149" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="148" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="147" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54 B55:B59 B62:B63">
-    <cfRule type="duplicateValues" dxfId="146" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="145" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="144" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="142" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="141" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="140" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="139" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="138" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 A1:B14 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="137" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B17 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="136" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="duplicateValues" dxfId="135" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="duplicateValues" dxfId="134" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="133" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="132" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21351,7 +21049,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="131" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26911,43 +26609,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:A30 A1 A32:A45 A47:A51 A53:A111 B15:B18 A113:A1048576">
-    <cfRule type="duplicateValues" dxfId="130" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="129" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="128" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A14">
-    <cfRule type="duplicateValues" dxfId="127" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
-    <cfRule type="duplicateValues" dxfId="126" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A24">
-    <cfRule type="duplicateValues" dxfId="125" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="124" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="123" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="duplicateValues" dxfId="122" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="121" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B9 A12:B1048576">
-    <cfRule type="duplicateValues" dxfId="120" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10">
-    <cfRule type="duplicateValues" dxfId="119" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -33001,16 +32699,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="118" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="117" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="116" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="115" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -39048,7 +38746,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="114" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39061,7 +38759,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39171,7 +38869,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="str">
-        <f t="shared" ref="G6:G10" si="0">IF(A6&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G6:G11" si="0">IF(A6&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebTable.getRowCount("Installed_Assert");</v>
       </c>
     </row>
@@ -39240,13 +38938,20 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebTable.getRowCount("Link");</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -39349,87 +39054,94 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="113" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A1048576 A1 A16:A22 A11:A14">
-    <cfRule type="duplicateValues" dxfId="112" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="55"/>
+  <conditionalFormatting sqref="A24:A1048576 A1 A16:A22 A12:A14">
+    <cfRule type="duplicateValues" dxfId="38" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B1048576 B1 B16:B22 B11:B14">
-    <cfRule type="duplicateValues" dxfId="110" priority="53"/>
+  <conditionalFormatting sqref="B24:B1048576 B1 B16:B22 B12:B14">
+    <cfRule type="duplicateValues" dxfId="36" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="109" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="107" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="106" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="104" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="103" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="101" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="100" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="98" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="97" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="95" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="94" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="92" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="91" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="89" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="88" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="86" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="85" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="83" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="82" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="80" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="79" priority="13"/>
+  <conditionalFormatting sqref="A1:B10 A12:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45392,7 +45104,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="714"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="714" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="200">
   <si>
     <t>ObjectName</t>
   </si>
@@ -605,6 +605,30 @@
   <si>
     <t>//a[text()='</t>
   </si>
+  <si>
+    <t>VQ_Catalog</t>
+  </si>
+  <si>
+    <t>//div[@class='siebui-nav-tab siebui-subview-navs']//a[text()='Catalog']</t>
+  </si>
+  <si>
+    <t>VQ_Plan</t>
+  </si>
+  <si>
+    <t>//div[@data-scroll-direction="Vertical"]//div</t>
+  </si>
+  <si>
+    <t>VQ_Roll_Down</t>
+  </si>
+  <si>
+    <t>//div[@class='siebui-tile-down-scroll']/a</t>
+  </si>
+  <si>
+    <t>Category_Plan</t>
+  </si>
+  <si>
+    <t>//ul//li//ul//li//ul//li</t>
+  </si>
 </sst>
 </file>
 
@@ -749,7 +773,141 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="164">
+  <dxfs count="178">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2417,9 +2575,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,7 +2693,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="str">
-        <f t="shared" ref="G6:G16" si="0">IF(A6&lt;&gt;"","Browser.WebLink.click("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G6:G18" si="0">IF(A6&lt;&gt;"","Browser.WebLink.click("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebLink.click("VQ_Assert");</v>
       </c>
     </row>
@@ -2700,22 +2858,36 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebLink.click("VQ_Catalog");</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebLink.click("VQ_Plan");</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -8059,103 +8231,103 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="163" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="162" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="161" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="160" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="159" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="158" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="157" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="156" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="155" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="154" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="153" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="152" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="151" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="150" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="149" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="148" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="147" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="146" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="145" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="144" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="143" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="142" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="141" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="140" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="139" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="138" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="137" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="136" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="135" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="134" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B1048576">
-    <cfRule type="duplicateValues" dxfId="133" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="132" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="131" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8201,7 +8373,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8214,7 +8386,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8889,8 +9061,12 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -14301,146 +14477,155 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A42:A50 A1:A2 A53:A69 A71:A1048576 A16">
-    <cfRule type="duplicateValues" dxfId="130" priority="67"/>
+  <conditionalFormatting sqref="A43:A50 A1:A2 A53:A69 A71:A1048576 A16">
+    <cfRule type="duplicateValues" dxfId="144" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="129" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="128" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="127" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="126" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="125" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="124" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="123" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="122" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="121" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="120" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="119" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="118" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="117" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="116" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="115" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="114" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="113" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="112" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="111" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="110" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="109" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="108" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="107" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="106" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="105" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="104" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="103" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="102" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="101" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="100" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A30">
-    <cfRule type="duplicateValues" dxfId="99" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B30">
-    <cfRule type="duplicateValues" dxfId="98" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="97" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="96" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B32">
-    <cfRule type="duplicateValues" dxfId="95" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:B1048576 A1:B32">
-    <cfRule type="duplicateValues" dxfId="94" priority="23"/>
+  <conditionalFormatting sqref="A43:B1048576 A1:B32">
+    <cfRule type="duplicateValues" dxfId="108" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B1048576 B1:B32">
-    <cfRule type="duplicateValues" dxfId="93" priority="14"/>
+  <conditionalFormatting sqref="B43:B1048576 B1:B32">
+    <cfRule type="duplicateValues" dxfId="107" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A39">
-    <cfRule type="duplicateValues" dxfId="92" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B39">
-    <cfRule type="duplicateValues" dxfId="91" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B39">
-    <cfRule type="duplicateValues" dxfId="90" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="89" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="88" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="87" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="duplicateValues" dxfId="86" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="85" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20888,79 +21073,79 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A65:A68 A1 A70:A71 A73:A78 A80:A87 A89:A92 A94:A98 A100:A1048576 A21:A23 A30:A33 A55:A59 A35:A53 A61:A63">
-    <cfRule type="duplicateValues" dxfId="83" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="82" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="81" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="80" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="79" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="78" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 A24:A25">
-    <cfRule type="duplicateValues" dxfId="77" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="76" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="75" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54 B55:B59 B62:B63">
-    <cfRule type="duplicateValues" dxfId="74" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="73" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="72" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="71" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="70" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="69" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="68" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="67" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 A1:B14 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="66" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B17 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="65" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="duplicateValues" dxfId="64" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="duplicateValues" dxfId="63" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21049,7 +21234,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="58" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26609,43 +26794,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:A30 A1 A32:A45 A47:A51 A53:A111 B15:B18 A113:A1048576">
-    <cfRule type="duplicateValues" dxfId="57" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="56" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="55" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A14">
-    <cfRule type="duplicateValues" dxfId="54" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
-    <cfRule type="duplicateValues" dxfId="53" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A24">
-    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="51" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B9 A12:B1048576">
-    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -32699,16 +32884,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -38746,7 +38931,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38757,9 +38942,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38954,8 +39139,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -39054,94 +39243,104 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="39" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A1048576 A1 A16:A22 A12:A14">
-    <cfRule type="duplicateValues" dxfId="38" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="58"/>
+  <conditionalFormatting sqref="A24:A1048576 A1 A16:A22 A13:A14">
+    <cfRule type="duplicateValues" dxfId="52" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B1048576 B1 B16:B22 B12:B14">
-    <cfRule type="duplicateValues" dxfId="36" priority="56"/>
+  <conditionalFormatting sqref="B24:B1048576 B1 B16:B22 B13:B14">
+    <cfRule type="duplicateValues" dxfId="50" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="35" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="33" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="32" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="30" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="27" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="26" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="24" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="23" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="21" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="20" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="18" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="17" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B10 A12:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
+  <conditionalFormatting sqref="A1:B10 A13:B1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45104,7 +45303,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="714" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="WebTable" sheetId="9" r:id="rId8"/>
     <sheet name="CheckBox" sheetId="8" r:id="rId9"/>
     <sheet name="Mobile" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="206">
   <si>
     <t>ObjectName</t>
   </si>
@@ -629,6 +630,24 @@
   <si>
     <t>//ul//li//ul//li//ul//li</t>
   </si>
+  <si>
+    <t>Acc_Contact</t>
+  </si>
+  <si>
+    <t>//table[@summary='Admin Account Automatic Debit Details']</t>
+  </si>
+  <si>
+    <t>Acc_Add_Contact</t>
+  </si>
+  <si>
+    <t>//button[@title='Contacts:New']</t>
+  </si>
+  <si>
+    <t>Account360</t>
+  </si>
+  <si>
+    <t>//button[@title='Account:Account 360 View']</t>
+  </si>
 </sst>
 </file>
 
@@ -773,7 +792,308 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="178">
+  <dxfs count="326">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -902,6 +1222,40 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -919,6 +1273,913 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1342,13 +2603,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1612,6 +2866,50 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2577,7 +3875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8231,103 +9529,103 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="177" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="176" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="175" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="174" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="173" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="172" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="171" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="170" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="169" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="168" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="167" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="166" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="165" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="164" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="163" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="162" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="161" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="160" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="159" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="158" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="157" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="156" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="155" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="154" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="153" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="152" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="151" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="150" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="149" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="148" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B1048576">
-    <cfRule type="duplicateValues" dxfId="147" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="146" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="145" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8373,7 +9671,1240 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B92 B62 B1 B19 B82 B105:B1048576">
+    <cfRule type="duplicateValues" dxfId="147" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92 A62 A1 A19 A82 A105:A1048576">
+    <cfRule type="duplicateValues" dxfId="146" priority="338"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:B92 A62:B62 A1:B1 A19:B19 A82:B82 A105:B1048576">
+    <cfRule type="duplicateValues" dxfId="145" priority="341"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="duplicateValues" dxfId="144" priority="344"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2 A15 A17:A18">
+    <cfRule type="duplicateValues" dxfId="143" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2 A15 A17:A18">
+    <cfRule type="duplicateValues" dxfId="142" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="141" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="140" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="139" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="138" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="137" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="136" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="135" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="134" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="133" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="132" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="131" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="130" priority="131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="129" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="128" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="127" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="126" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="125" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="124" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="123" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="122" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="121" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="120" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B13 A15:B15 A17:B18">
+    <cfRule type="duplicateValues" dxfId="119" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B13 A15:B15 A17:B18">
+    <cfRule type="duplicateValues" dxfId="118" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A13">
+    <cfRule type="duplicateValues" dxfId="117" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A13">
+    <cfRule type="duplicateValues" dxfId="116" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="115" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="114" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B15 B17:B18">
+    <cfRule type="duplicateValues" dxfId="113" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="112" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="111" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20 A34">
+    <cfRule type="duplicateValues" dxfId="110" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="109" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="108" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="107" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="106" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="105" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A27">
+    <cfRule type="duplicateValues" dxfId="104" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="103" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="102" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="101" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="100" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="99" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="98" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="97" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="96" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="95" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="94" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="93" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="duplicateValues" dxfId="92" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="91" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="duplicateValues" dxfId="90" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="duplicateValues" dxfId="89" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="88" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="duplicateValues" dxfId="87" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="86" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="85" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="83" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:A48">
+    <cfRule type="duplicateValues" dxfId="82" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B48">
+    <cfRule type="duplicateValues" dxfId="81" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="80" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="79" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B50">
+    <cfRule type="duplicateValues" dxfId="78" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B50">
+    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B50">
+    <cfRule type="duplicateValues" dxfId="76" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A57">
+    <cfRule type="duplicateValues" dxfId="75" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:B57">
+    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:B57">
+    <cfRule type="duplicateValues" dxfId="73" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="duplicateValues" dxfId="72" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="duplicateValues" dxfId="71" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="duplicateValues" dxfId="70" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58">
+    <cfRule type="duplicateValues" dxfId="69" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="duplicateValues" dxfId="68" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="duplicateValues" dxfId="67" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="66" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B60">
+    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="duplicateValues" dxfId="64" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="duplicateValues" dxfId="63" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71 A65:A66 A68:A69">
+    <cfRule type="duplicateValues" dxfId="62" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:B73">
+    <cfRule type="duplicateValues" dxfId="60" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="duplicateValues" dxfId="59" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="duplicateValues" dxfId="58" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="duplicateValues" dxfId="57" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:B78 A63:B75">
+    <cfRule type="duplicateValues" dxfId="56" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B78">
+    <cfRule type="duplicateValues" dxfId="55" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:A77">
+    <cfRule type="duplicateValues" dxfId="54" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:B77">
+    <cfRule type="duplicateValues" dxfId="53" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="duplicateValues" dxfId="52" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="duplicateValues" dxfId="51" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="duplicateValues" dxfId="50" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:B81">
+    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89:B89">
+    <cfRule type="duplicateValues" dxfId="46" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B90">
+    <cfRule type="duplicateValues" dxfId="44" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="42" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="duplicateValues" dxfId="39" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="duplicateValues" dxfId="36" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="duplicateValues" dxfId="34" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="duplicateValues" dxfId="33" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="duplicateValues" dxfId="30" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97">
+    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:B101">
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102">
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:B103">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B60 B62:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8382,11 +10913,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G989"/>
+  <dimension ref="A1:G988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8931,7 +11462,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="str">
-        <f t="shared" ref="G33:G40" si="1">IF(A33&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A33&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G33:G44" si="1">IF(A33&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A33&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("Suspend");</v>
       </c>
     </row>
@@ -9058,7 +11589,10 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("New_Account");</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -9071,25 +11605,42 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("VQ_Roll_Down");</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("Acc_Add_Contact");</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("Account360");</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -9138,7 +11689,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -9146,7 +11697,7 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -9155,7 +11706,7 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -9164,7 +11715,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -9173,8 +11724,8 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -9224,7 +11775,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -9233,7 +11784,7 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="12"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
@@ -9277,7 +11828,7 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="F65" s="12"/>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -9290,8 +11841,8 @@
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -9299,8 +11850,8 @@
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -9309,7 +11860,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -9327,7 +11878,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -9336,21 +11887,21 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="15"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
@@ -9390,25 +11941,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G144" t="str">
+        <f t="shared" ref="G144:G183" si="2">IF(A144&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A144&amp;CHAR(34)&amp;");","")</f>
+        <v/>
+      </c>
     </row>
     <row r="145" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G145" t="str">
-        <f t="shared" ref="G145:G184" si="2">IF(A145&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A145&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9642,13 +12190,13 @@
     </row>
     <row r="184" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G184" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G184:G247" si="3">IF(A184&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A184&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G185" t="str">
-        <f t="shared" ref="G185:G248" si="3">IF(A185&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A185&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -10026,13 +12574,13 @@
     </row>
     <row r="248" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G248" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G248:G311" si="4">IF(A248&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A248&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G249" t="str">
-        <f t="shared" ref="G249:G312" si="4">IF(A249&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A249&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -10410,13 +12958,13 @@
     </row>
     <row r="312" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G312" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G312:G375" si="5">IF(A312&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A312&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="313" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G313" t="str">
-        <f t="shared" ref="G313:G376" si="5">IF(A313&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A313&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10794,13 +13342,13 @@
     </row>
     <row r="376" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G376" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G376:G439" si="6">IF(A376&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A376&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="377" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G377" t="str">
-        <f t="shared" ref="G377:G440" si="6">IF(A377&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A377&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -11178,13 +13726,13 @@
     </row>
     <row r="440" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G440" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G440:G503" si="7">IF(A440&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A440&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="441" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G441" t="str">
-        <f t="shared" ref="G441:G504" si="7">IF(A441&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A441&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11562,13 +14110,13 @@
     </row>
     <row r="504" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G504" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G504:G567" si="8">IF(A504&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A504&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="505" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G505" t="str">
-        <f t="shared" ref="G505:G568" si="8">IF(A505&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A505&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11946,13 +14494,13 @@
     </row>
     <row r="568" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G568" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G568:G631" si="9">IF(A568&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A568&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="569" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G569" t="str">
-        <f t="shared" ref="G569:G632" si="9">IF(A569&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A569&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12330,13 +14878,13 @@
     </row>
     <row r="632" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G632" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G632:G695" si="10">IF(A632&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A632&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="633" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G633" t="str">
-        <f t="shared" ref="G633:G696" si="10">IF(A633&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A633&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12714,13 +15262,13 @@
     </row>
     <row r="696" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G696" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G696:G759" si="11">IF(A696&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A696&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="697" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G697" t="str">
-        <f t="shared" ref="G697:G760" si="11">IF(A697&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A697&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13098,13 +15646,13 @@
     </row>
     <row r="760" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G760" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G760:G823" si="12">IF(A760&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A760&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="761" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G761" t="str">
-        <f t="shared" ref="G761:G824" si="12">IF(A761&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A761&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13482,13 +16030,13 @@
     </row>
     <row r="824" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G824" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G824:G887" si="13">IF(A824&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A824&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="825" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G825" t="str">
-        <f t="shared" ref="G825:G888" si="13">IF(A825&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A825&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13866,13 +16414,13 @@
     </row>
     <row r="888" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G888" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G888:G951" si="14">IF(A888&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A888&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="889" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G889" t="str">
-        <f t="shared" ref="G889:G952" si="14">IF(A889&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A889&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -14250,13 +16798,13 @@
     </row>
     <row r="952" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G952" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G952:G988" si="15">IF(A952&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A952&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="953" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G953" t="str">
-        <f t="shared" ref="G953:G989" si="15">IF(A953&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A953&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -14470,162 +17018,165 @@
         <v/>
       </c>
     </row>
-    <row r="989" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G989" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A43:A50 A1:A2 A53:A69 A71:A1048576 A16">
-    <cfRule type="duplicateValues" dxfId="144" priority="70"/>
+  <conditionalFormatting sqref="A45:A49 A1:A2 A52:A68 A70:A1048576 A16">
+    <cfRule type="duplicateValues" dxfId="292" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="291" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="143" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="142" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="141" priority="64"/>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="289" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="140" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="139" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="138" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="137" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="136" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="135" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="134" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="133" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="132" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="131" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="130" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="129" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="128" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="127" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="126" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="125" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="124" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="123" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="122" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="121" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="120" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="119" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="118" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="117" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="116" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="115" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="114" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A30">
-    <cfRule type="duplicateValues" dxfId="113" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B30">
-    <cfRule type="duplicateValues" dxfId="112" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="111" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="110" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B32">
-    <cfRule type="duplicateValues" dxfId="109" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:B1048576 A1:B32">
-    <cfRule type="duplicateValues" dxfId="108" priority="26"/>
+  <conditionalFormatting sqref="A45:B1048576 A1:B32">
+    <cfRule type="duplicateValues" dxfId="256" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B1048576 B1:B32">
-    <cfRule type="duplicateValues" dxfId="107" priority="17"/>
+  <conditionalFormatting sqref="B45:B1048576 B1:B32">
+    <cfRule type="duplicateValues" dxfId="255" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A39">
-    <cfRule type="duplicateValues" dxfId="106" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B39">
-    <cfRule type="duplicateValues" dxfId="105" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B39">
-    <cfRule type="duplicateValues" dxfId="104" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="103" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="102" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="101" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="duplicateValues" dxfId="100" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="99" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="98" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="242" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B43 B45:B1048576">
+    <cfRule type="duplicateValues" dxfId="241" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14640,7 +17191,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21073,79 +23624,79 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A65:A68 A1 A70:A71 A73:A78 A80:A87 A89:A92 A94:A98 A100:A1048576 A21:A23 A30:A33 A55:A59 A35:A53 A61:A63">
-    <cfRule type="duplicateValues" dxfId="97" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="96" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="95" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="94" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="93" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="92" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 A24:A25">
-    <cfRule type="duplicateValues" dxfId="91" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="90" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="89" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54 B55:B59 B62:B63">
-    <cfRule type="duplicateValues" dxfId="88" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="87" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="86" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="85" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="84" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="83" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="82" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="81" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 A1:B14 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="80" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B17 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="79" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="duplicateValues" dxfId="78" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="duplicateValues" dxfId="77" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="76" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21234,7 +23785,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="72" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21243,11 +23794,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G999"/>
+  <dimension ref="A1:G998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21295,7 +23846,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="str">
-        <f t="shared" ref="G2:G9" si="0">IF(A2&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G2:G10" si="0">IF(A2&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;"));","")</f>
         <v>Browser.ListBox.select("Mr/Ms", getdata("Mr/Ms"));</v>
       </c>
     </row>
@@ -21413,24 +23964,23 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.ListBox.select("Customer_Segment", getdata("Customer_Segment"));</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>185</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -21492,7 +24042,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -21519,7 +24069,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -21572,21 +24122,18 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G193" si="1">IF(A131&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A131&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A131&amp;CHAR(34)&amp;"));","")</f>
+        <v/>
+      </c>
     </row>
     <row r="132" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G132" t="str">
-        <f t="shared" ref="G132:G194" si="1">IF(A132&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A132&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A132&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -21958,13 +24505,13 @@
     </row>
     <row r="194" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G194" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G194:G257" si="2">IF(A194&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A194&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A194&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G195" t="str">
-        <f t="shared" ref="G195:G258" si="2">IF(A195&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A195&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A195&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -22342,13 +24889,13 @@
     </row>
     <row r="258" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G258" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G258:G321" si="3">IF(A258&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A258&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A258&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G259" t="str">
-        <f t="shared" ref="G259:G322" si="3">IF(A259&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A259&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A259&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -22726,13 +25273,13 @@
     </row>
     <row r="322" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G322" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G322:G385" si="4">IF(A322&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A322&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A322&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="323" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G323" t="str">
-        <f t="shared" ref="G323:G386" si="4">IF(A323&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A323&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A323&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -23110,13 +25657,13 @@
     </row>
     <row r="386" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G386" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G386:G449" si="5">IF(A386&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A386&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A386&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="387" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G450" si="5">IF(A387&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A387&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A387&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -23494,13 +26041,13 @@
     </row>
     <row r="450" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G450" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G450:G513" si="6">IF(A450&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A450&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A450&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="451" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G451" t="str">
-        <f t="shared" ref="G451:G514" si="6">IF(A451&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A451&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A451&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -23878,13 +26425,13 @@
     </row>
     <row r="514" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G514" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G514:G577" si="7">IF(A514&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A514&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A514&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="515" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G515" t="str">
-        <f t="shared" ref="G515:G578" si="7">IF(A515&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A515&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A515&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -24262,13 +26809,13 @@
     </row>
     <row r="578" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G578" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G578:G641" si="8">IF(A578&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A578&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A578&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="579" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G579" t="str">
-        <f t="shared" ref="G579:G642" si="8">IF(A579&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A579&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A579&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -24646,13 +27193,13 @@
     </row>
     <row r="642" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G642" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G642:G705" si="9">IF(A642&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A642&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A642&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="643" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G706" si="9">IF(A643&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A643&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A643&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -25030,13 +27577,13 @@
     </row>
     <row r="706" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G706" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G706:G769" si="10">IF(A706&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A706&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A706&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="707" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G707" t="str">
-        <f t="shared" ref="G707:G770" si="10">IF(A707&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A707&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A707&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -25414,13 +27961,13 @@
     </row>
     <row r="770" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G770" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G770:G833" si="11">IF(A770&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A770&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A770&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" t="str">
-        <f t="shared" ref="G771:G834" si="11">IF(A771&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A771&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A771&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -25798,13 +28345,13 @@
     </row>
     <row r="834" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G834" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G834:G897" si="12">IF(A834&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A834&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A834&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="835" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G835" t="str">
-        <f t="shared" ref="G835:G898" si="12">IF(A835&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A835&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A835&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -26182,13 +28729,13 @@
     </row>
     <row r="898" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G898" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G898:G961" si="13">IF(A898&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A898&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A898&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="899" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G899" t="str">
-        <f t="shared" ref="G899:G962" si="13">IF(A899&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A899&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A899&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -26566,13 +29113,13 @@
     </row>
     <row r="962" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G962" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G962:G998" si="14">IF(A962&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A962&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A962&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="963" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G963" t="str">
-        <f t="shared" ref="G963:G999" si="14">IF(A963&lt;&gt;"","Browser.ListBox.select("&amp;CHAR(34)&amp;A963&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A963&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -26786,51 +29333,42 @@
         <v/>
       </c>
     </row>
-    <row r="999" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G999" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:A30 A1 A32:A45 A47:A51 A53:A111 B15:B18 A113:A1048576">
-    <cfRule type="duplicateValues" dxfId="71" priority="16"/>
+  <conditionalFormatting sqref="A14:A29 A1 A31:A44 A46:A50 A52:A110 B14:B17 A112:A1048576">
+    <cfRule type="duplicateValues" dxfId="214" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="70" priority="12"/>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="213" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="69" priority="11"/>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="212" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A14">
-    <cfRule type="duplicateValues" dxfId="68" priority="10"/>
+  <conditionalFormatting sqref="A11:A13">
+    <cfRule type="duplicateValues" dxfId="211" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="duplicateValues" dxfId="67" priority="9"/>
+  <conditionalFormatting sqref="B22:B23">
+    <cfRule type="duplicateValues" dxfId="210" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A24">
-    <cfRule type="duplicateValues" dxfId="66" priority="8"/>
+  <conditionalFormatting sqref="A19:A23">
+    <cfRule type="duplicateValues" dxfId="209" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="65" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="64" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="duplicateValues" dxfId="63" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B9 A12:B1048576">
-    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
+  <conditionalFormatting sqref="A11:B1048576 A1:B9">
+    <cfRule type="duplicateValues" dxfId="204" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10">
-    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="203" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -26851,7 +29389,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
@@ -32884,16 +35422,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -38931,7 +41469,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38942,9 +41480,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39054,7 +41592,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="str">
-        <f t="shared" ref="G6:G11" si="0">IF(A6&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G6:G13" si="0">IF(A6&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebTable.getRowCount("Installed_Assert");</v>
       </c>
     </row>
@@ -39149,20 +41687,30 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebTable.getRowCount("Category_Plan");</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebTable.getRowCount("Acc_Contact");</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -39243,104 +41791,118 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="53" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A1048576 A1 A16:A22 A13:A14">
-    <cfRule type="duplicateValues" dxfId="52" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="62"/>
+  <conditionalFormatting sqref="A24:A1048576 A1 A16:A22">
+    <cfRule type="duplicateValues" dxfId="196" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B1048576 B1 B16:B22 B13:B14">
-    <cfRule type="duplicateValues" dxfId="50" priority="60"/>
+  <conditionalFormatting sqref="B24:B1048576 B1 B16:B22">
+    <cfRule type="duplicateValues" dxfId="194" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="49" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="47" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="46" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="44" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="43" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="41" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="40" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="38" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B10 A13:B1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+  <conditionalFormatting sqref="A1:B10 A15:B1048576">
+    <cfRule type="duplicateValues" dxfId="163" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="155" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="duplicateValues" dxfId="153" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="152" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="150" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45303,7 +47865,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -792,21 +792,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="326">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="325">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2877,6 +2863,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -9529,103 +9522,103 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="325" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="324" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="323" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="322" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="321" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="320" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="319" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="318" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="317" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="316" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="315" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="314" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="313" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="312" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="311" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="310" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="309" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="308" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="307" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="306" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="305" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="304" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="303" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="302" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="301" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="300" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="299" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="298" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="297" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="296" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B1048576">
-    <cfRule type="duplicateValues" dxfId="295" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="294" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="293" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9671,7 +9664,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="148" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10493,418 +10486,418 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B92 B62 B1 B19 B82 B105:B1048576">
-    <cfRule type="duplicateValues" dxfId="147" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92 A62 A1 A19 A82 A105:A1048576">
-    <cfRule type="duplicateValues" dxfId="146" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92 A62:B62 A1:B1 A19:B19 A82:B82 A105:B1048576">
-    <cfRule type="duplicateValues" dxfId="145" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="144" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A15 A17:A18">
-    <cfRule type="duplicateValues" dxfId="143" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A15 A17:A18">
-    <cfRule type="duplicateValues" dxfId="142" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="141" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="140" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="139" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="138" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="137" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="136" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="135" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="134" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="133" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="132" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="131" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="130" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="129" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="128" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="127" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="126" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="125" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="124" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="123" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="122" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="121" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="120" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B13 A15:B15 A17:B18">
-    <cfRule type="duplicateValues" dxfId="119" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B13 A15:B15 A17:B18">
-    <cfRule type="duplicateValues" dxfId="118" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="117" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="116" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="115" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="114" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15 B17:B18">
-    <cfRule type="duplicateValues" dxfId="113" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="112" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="111" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A34">
-    <cfRule type="duplicateValues" dxfId="110" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="109" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="108" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="107" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="106" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="105" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A27">
-    <cfRule type="duplicateValues" dxfId="104" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="103" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="102" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="101" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="100" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="99" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="98" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="97" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="96" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="95" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="94" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="93" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="92" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="91" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="90" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="89" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="88" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="87" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="86" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="85" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="83" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A48">
-    <cfRule type="duplicateValues" dxfId="82" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B48">
-    <cfRule type="duplicateValues" dxfId="81" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="80" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="79" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B50">
-    <cfRule type="duplicateValues" dxfId="78" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B50">
-    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B50">
-    <cfRule type="duplicateValues" dxfId="76" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A57">
-    <cfRule type="duplicateValues" dxfId="75" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B57">
-    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B57">
-    <cfRule type="duplicateValues" dxfId="73" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="duplicateValues" dxfId="72" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="71" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="duplicateValues" dxfId="70" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B58">
-    <cfRule type="duplicateValues" dxfId="69" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="duplicateValues" dxfId="68" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="67" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="66" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B60">
-    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="duplicateValues" dxfId="64" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="63" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71 A65:A66 A68:A69">
-    <cfRule type="duplicateValues" dxfId="62" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B73">
-    <cfRule type="duplicateValues" dxfId="60" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="59" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="duplicateValues" dxfId="58" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="duplicateValues" dxfId="57" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:B78 A63:B75">
-    <cfRule type="duplicateValues" dxfId="56" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B78">
-    <cfRule type="duplicateValues" dxfId="55" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A77">
-    <cfRule type="duplicateValues" dxfId="54" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B77">
-    <cfRule type="duplicateValues" dxfId="53" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="duplicateValues" dxfId="52" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="duplicateValues" dxfId="51" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="50" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B81">
-    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:B89">
-    <cfRule type="duplicateValues" dxfId="46" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:B90">
-    <cfRule type="duplicateValues" dxfId="44" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="42" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="39" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="36" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="duplicateValues" dxfId="34" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="33" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="30" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B101">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B60 B62:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10915,7 +10908,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
@@ -17020,163 +17013,163 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A45:A49 A1:A2 A52:A68 A70:A1048576 A16">
-    <cfRule type="duplicateValues" dxfId="292" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="291" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="290" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="289" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="288" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="287" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="286" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="285" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="284" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="283" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="282" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="281" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="280" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="279" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="278" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="277" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="276" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="275" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="274" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="273" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="272" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="271" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="270" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="269" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="268" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="267" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="266" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="265" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="264" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="263" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="262" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A30">
-    <cfRule type="duplicateValues" dxfId="261" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B30">
-    <cfRule type="duplicateValues" dxfId="260" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="259" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="258" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B32">
-    <cfRule type="duplicateValues" dxfId="257" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B1048576 A1:B32">
-    <cfRule type="duplicateValues" dxfId="256" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B1048576 B1:B32">
-    <cfRule type="duplicateValues" dxfId="255" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A39">
-    <cfRule type="duplicateValues" dxfId="254" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B39">
-    <cfRule type="duplicateValues" dxfId="253" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B39">
-    <cfRule type="duplicateValues" dxfId="252" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="251" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="250" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="249" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="duplicateValues" dxfId="248" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="247" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="246" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="245" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="duplicateValues" dxfId="244" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="243" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="242" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B43 B45:B1048576">
-    <cfRule type="duplicateValues" dxfId="241" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17188,7 +17181,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
@@ -17399,7 +17392,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="str">
-        <f t="shared" ref="G12:G75" si="1">IF(A12&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A12&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A12&amp;CHAR(34)&amp;"));","")</f>
+        <f>IF(A12&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A12&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A12&amp;CHAR(34)&amp;"));","")</f>
         <v>Browser.WebEdit.Set("CR_Number", getdata("CR_Number"));</v>
       </c>
     </row>
@@ -17415,7 +17408,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G12:G75" si="1">IF(A13&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A13&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A13&amp;CHAR(34)&amp;"));","")</f>
         <v>Browser.WebEdit.Set("Acc_Add_Address", getdata("Acc_Add_Address"));</v>
       </c>
     </row>
@@ -23624,79 +23617,79 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A65:A68 A1 A70:A71 A73:A78 A80:A87 A89:A92 A94:A98 A100:A1048576 A21:A23 A30:A33 A55:A59 A35:A53 A61:A63">
-    <cfRule type="duplicateValues" dxfId="240" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="239" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="238" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="237" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="236" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="235" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 A24:A25">
-    <cfRule type="duplicateValues" dxfId="234" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="233" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="232" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54 B55:B59 B62:B63">
-    <cfRule type="duplicateValues" dxfId="231" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="230" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="229" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="228" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="227" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="226" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="225" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="224" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 A1:B14 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="223" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B17 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="222" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="duplicateValues" dxfId="221" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="duplicateValues" dxfId="220" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="219" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="218" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="217" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="duplicateValues" dxfId="216" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23785,7 +23778,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="215" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29335,40 +29328,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A14:A29 A1 A31:A44 A46:A50 A52:A110 B14:B17 A112:A1048576">
-    <cfRule type="duplicateValues" dxfId="214" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="213" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="212" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="211" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="210" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A23">
-    <cfRule type="duplicateValues" dxfId="209" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="208" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="207" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="duplicateValues" dxfId="206" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="205" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B1048576 A1:B9">
-    <cfRule type="duplicateValues" dxfId="204" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="203" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -35422,16 +35415,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="202" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="201" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="200" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="199" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -41469,7 +41462,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="198" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41791,118 +41784,118 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="197" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A1048576 A1 A16:A22">
-    <cfRule type="duplicateValues" dxfId="196" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B1048576 B1 B16:B22">
-    <cfRule type="duplicateValues" dxfId="194" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="193" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="191" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="190" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="188" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="187" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="185" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="184" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="182" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="181" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="179" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="178" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="176" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="175" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="173" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="172" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="170" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="169" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="167" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="166" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="164" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B10 A15:B1048576">
-    <cfRule type="duplicateValues" dxfId="163" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="162" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="160" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="159" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="157" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="156" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="155" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="153" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="152" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="150" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47865,7 +47858,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="149" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="225">
   <si>
     <t>ObjectName</t>
   </si>
@@ -648,12 +648,69 @@
   <si>
     <t>//button[@title='Account:Account 360 View']</t>
   </si>
+  <si>
+    <t>WebLink</t>
+  </si>
+  <si>
+    <t>WebButton</t>
+  </si>
+  <si>
+    <t>WebEdit</t>
+  </si>
+  <si>
+    <t>ListBox</t>
+  </si>
+  <si>
+    <t>WebTable</t>
+  </si>
+  <si>
+    <t>//button[@title='Promotion Upgrades:OK']</t>
+  </si>
+  <si>
+    <t>//span[text()='Disconnect']</t>
+  </si>
+  <si>
+    <t>Upgrade_OK</t>
+  </si>
+  <si>
+    <t>VFQ_Disconnect</t>
+  </si>
+  <si>
+    <t>//input[@aria-labelledby='PopupQuerySrchspec_Label']</t>
+  </si>
+  <si>
+    <t>Promotion_Upgrade</t>
+  </si>
+  <si>
+    <t>//div[text()='Service Id']</t>
+  </si>
+  <si>
+    <t>//table[@summary='Promotion Upgrades']</t>
+  </si>
+  <si>
+    <t>Service_Id</t>
+  </si>
+  <si>
+    <t>Promotion_Upgrades</t>
+  </si>
+  <si>
+    <t>VFQ_LeftScroll</t>
+  </si>
+  <si>
+    <t>//div[@class="siebui-nav-scroll siebui-tile-left-scroll"]</t>
+  </si>
+  <si>
+    <t>Order_id</t>
+  </si>
+  <si>
+    <t>//span[@class='siebui-ctrl-text siebui-input-align-left']//label</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,8 +732,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,12 +757,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +836,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -788,11 +846,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="325">
+  <dxfs count="624">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -804,13 +863,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -881,6 +933,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -921,6 +980,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -931,6 +997,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -961,6 +1034,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -971,6 +1058,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1101,6 +1195,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1121,6 +1222,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1201,13 +1309,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1218,20 +1319,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1242,41 +1329,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1287,13 +1339,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1314,55 +1359,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1383,20 +1379,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1427,13 +1409,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1464,13 +1439,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1501,20 +1469,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1535,104 +1489,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1643,97 +1499,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1744,13 +1509,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1771,13 +1529,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1788,13 +1539,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1825,13 +1569,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1842,13 +1579,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1859,13 +1589,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1876,13 +1599,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1893,13 +1609,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1934,6 +1643,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1951,6 +1667,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1978,13 +1722,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2002,6 +1739,48 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2012,13 +1791,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2029,6 +1801,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2039,13 +1825,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2056,20 +1835,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2080,6 +1845,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2110,6 +1882,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2140,6 +1919,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2160,6 +1953,104 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2170,6 +2061,97 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2180,6 +2162,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2200,6 +2189,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2210,6 +2206,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2240,6 +2243,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2250,6 +2260,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2260,6 +2277,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2270,6 +2294,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2280,6 +2311,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2290,6 +2328,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2300,6 +2345,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2310,6 +2362,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2320,6 +2379,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2330,6 +2396,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2340,6 +2413,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2350,6 +2430,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2370,6 +2457,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2450,6 +2544,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2490,6 +2591,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2500,6 +2608,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2530,6 +2645,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2547,48 +2676,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2599,20 +2686,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2623,90 +2696,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2717,13 +2706,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2744,132 +2726,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2880,13 +2736,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2907,20 +2756,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2951,13 +2786,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2978,6 +2806,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2988,13 +2823,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3005,6 +2833,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3025,20 +2860,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3059,104 +2880,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3167,118 +2890,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3289,13 +2900,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3316,13 +2920,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3333,13 +2930,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3370,13 +2960,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3387,13 +2970,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3404,13 +2980,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3421,13 +2990,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3438,13 +3000,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3455,13 +3010,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3472,13 +3020,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3489,13 +3030,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3506,13 +3040,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3523,13 +3050,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3540,13 +3060,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3557,9 +3070,3281 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3868,7 +6653,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B18"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9522,103 +12307,103 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="324" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="323" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="322" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="321" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="320" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="319" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="613" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="318" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="317" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="316" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="315" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="314" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="608" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="313" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="607" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="312" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="311" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="605" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="310" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="604" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="309" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="308" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="602" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="307" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="306" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="305" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="599" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="304" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="598" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="303" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="597" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="302" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="301" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="300" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="299" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="298" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="297" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="296" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="295" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B1048576">
-    <cfRule type="duplicateValues" dxfId="294" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="293" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="292" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9664,7 +12449,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="146" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9672,10 +12457,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9693,1213 +12478,1415 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
+      <c r="A2" s="16" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
+      <c r="A21" s="16" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>127</v>
+      <c r="A36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>130</v>
+      <c r="A38" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>135</v>
+      <c r="A40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>139</v>
+      <c r="A42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>147</v>
+      <c r="A46" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>96</v>
+      <c r="A48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>111</v>
+        <v>148</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>113</v>
+      <c r="A50" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>181</v>
+        <v>168</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>54</v>
+      <c r="A64" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>61</v>
+      <c r="A65" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>21</v>
+      <c r="A66" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>22</v>
+      <c r="A67" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>35</v>
+      <c r="A69" s="16" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>185</v>
+      <c r="A90" s="5"/>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="16" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>123</v>
+      <c r="A97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>125</v>
+      <c r="A98" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>97</v>
+      <c r="A99" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>119</v>
+        <v>69</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>199</v>
+      <c r="A103" s="16" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>201</v>
       </c>
     </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B92 B62 B1 B19 B82 B105:B1048576">
-    <cfRule type="duplicateValues" dxfId="145" priority="145"/>
+  <conditionalFormatting sqref="B119:B1048576 B102:B103 B68:B69 B1 B20:B21 B91:B92">
+    <cfRule type="duplicateValues" dxfId="366" priority="184"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92 A62 A1 A19 A82 A105:A1048576">
-    <cfRule type="duplicateValues" dxfId="144" priority="338"/>
+  <conditionalFormatting sqref="A119:A1048576 A102:A103 A68:A69 A1 A20:A21 A91:A92">
+    <cfRule type="duplicateValues" dxfId="365" priority="377"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92:B92 A62:B62 A1:B1 A19:B19 A82:B82 A105:B1048576">
-    <cfRule type="duplicateValues" dxfId="143" priority="341"/>
+  <conditionalFormatting sqref="A119:B1048576 A102:B103 A68:B69 A1:B1 A20:B21 A91:B92">
+    <cfRule type="duplicateValues" dxfId="364" priority="380"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B69">
+    <cfRule type="duplicateValues" dxfId="363" priority="383"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3 A16 A18:A19">
+    <cfRule type="duplicateValues" dxfId="362" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3 A16 A18:A19">
+    <cfRule type="duplicateValues" dxfId="361" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="360" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="359" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="358" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="357" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="356" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="355" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="354" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="353" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="352" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="351" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="350" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="349" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="348" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="347" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="346" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="345" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="344" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="343" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="342" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="341" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="340" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="339" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
+    <cfRule type="duplicateValues" dxfId="338" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B14">
+    <cfRule type="duplicateValues" dxfId="337" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:A14">
+    <cfRule type="duplicateValues" dxfId="336" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:A14">
+    <cfRule type="duplicateValues" dxfId="335" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="334" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="333" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B16 B18:B19">
+    <cfRule type="duplicateValues" dxfId="332" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="331" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="330" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22 A36">
+    <cfRule type="duplicateValues" dxfId="329" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="328" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="327" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="326" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="325" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="324" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:A29">
+    <cfRule type="duplicateValues" dxfId="323" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="322" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="321" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="320" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="319" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="duplicateValues" dxfId="318" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="317" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="316" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="315" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="314" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="duplicateValues" dxfId="313" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="312" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="duplicateValues" dxfId="311" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="duplicateValues" dxfId="310" priority="131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="309" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="duplicateValues" dxfId="308" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="307" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="306" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="305" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="304" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="303" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="302" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:A50">
+    <cfRule type="duplicateValues" dxfId="301" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B50">
+    <cfRule type="duplicateValues" dxfId="300" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="duplicateValues" dxfId="299" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="duplicateValues" dxfId="298" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B52">
+    <cfRule type="duplicateValues" dxfId="297" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B52">
+    <cfRule type="duplicateValues" dxfId="296" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B52">
+    <cfRule type="duplicateValues" dxfId="295" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:A59">
+    <cfRule type="duplicateValues" dxfId="294" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:B59">
+    <cfRule type="duplicateValues" dxfId="293" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:B59">
+    <cfRule type="duplicateValues" dxfId="292" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="duplicateValues" dxfId="291" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="290" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="duplicateValues" dxfId="289" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B60">
+    <cfRule type="duplicateValues" dxfId="288" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="duplicateValues" dxfId="287" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="duplicateValues" dxfId="286" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="duplicateValues" dxfId="285" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="duplicateValues" dxfId="284" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="142" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2 A15 A17:A18">
-    <cfRule type="duplicateValues" dxfId="141" priority="144"/>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="282" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2 A15 A17:A18">
-    <cfRule type="duplicateValues" dxfId="140" priority="143"/>
+  <conditionalFormatting sqref="A78 A72:A73 A75:A76">
+    <cfRule type="duplicateValues" dxfId="281" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="139" priority="142"/>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="duplicateValues" dxfId="280" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="138" priority="141"/>
+  <conditionalFormatting sqref="A80:B80">
+    <cfRule type="duplicateValues" dxfId="279" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="137" priority="140"/>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="duplicateValues" dxfId="278" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="136" priority="139"/>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="duplicateValues" dxfId="277" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="135" priority="138"/>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="duplicateValues" dxfId="276" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="134" priority="137"/>
+  <conditionalFormatting sqref="A85:B85 A70:B82">
+    <cfRule type="duplicateValues" dxfId="275" priority="93"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="133" priority="136"/>
+  <conditionalFormatting sqref="A70:B85">
+    <cfRule type="duplicateValues" dxfId="274" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="132" priority="135"/>
+  <conditionalFormatting sqref="A83:A84">
+    <cfRule type="duplicateValues" dxfId="273" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="131" priority="134"/>
+  <conditionalFormatting sqref="A83:B84">
+    <cfRule type="duplicateValues" dxfId="272" priority="102"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="130" priority="133"/>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="duplicateValues" dxfId="271" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="129" priority="132"/>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="duplicateValues" dxfId="270" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="128" priority="131"/>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="duplicateValues" dxfId="269" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="127" priority="130"/>
+  <conditionalFormatting sqref="A88:B88">
+    <cfRule type="duplicateValues" dxfId="268" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="126" priority="129"/>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="267" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="125" priority="128"/>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="266" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="124" priority="127"/>
+  <conditionalFormatting sqref="A99:B99">
+    <cfRule type="duplicateValues" dxfId="265" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="123" priority="126"/>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="duplicateValues" dxfId="264" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="122" priority="125"/>
+  <conditionalFormatting sqref="A93:B100">
+    <cfRule type="duplicateValues" dxfId="263" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="121" priority="124"/>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="duplicateValues" dxfId="262" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="120" priority="123"/>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="261" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="119" priority="122"/>
+  <conditionalFormatting sqref="B104">
+    <cfRule type="duplicateValues" dxfId="259" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="118" priority="121"/>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="duplicateValues" dxfId="258" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B13 A15:B15 A17:B18">
-    <cfRule type="duplicateValues" dxfId="117" priority="120"/>
+  <conditionalFormatting sqref="B105">
+    <cfRule type="duplicateValues" dxfId="256" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B13 A15:B15 A17:B18">
-    <cfRule type="duplicateValues" dxfId="116" priority="119"/>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="duplicateValues" dxfId="255" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="115" priority="118"/>
+  <conditionalFormatting sqref="B106">
+    <cfRule type="duplicateValues" dxfId="253" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="114" priority="117"/>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="duplicateValues" dxfId="252" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="113" priority="116"/>
+  <conditionalFormatting sqref="B107">
+    <cfRule type="duplicateValues" dxfId="250" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="112" priority="115"/>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="duplicateValues" dxfId="249" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B15 B17:B18">
-    <cfRule type="duplicateValues" dxfId="111" priority="114"/>
+  <conditionalFormatting sqref="B108">
+    <cfRule type="duplicateValues" dxfId="247" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="110" priority="113"/>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="duplicateValues" dxfId="246" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="109" priority="112"/>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="duplicateValues" dxfId="244" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 A34">
-    <cfRule type="duplicateValues" dxfId="108" priority="111"/>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="duplicateValues" dxfId="243" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="107" priority="110"/>
+  <conditionalFormatting sqref="B110">
+    <cfRule type="duplicateValues" dxfId="241" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="106" priority="109"/>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="duplicateValues" dxfId="240" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="105" priority="108"/>
+  <conditionalFormatting sqref="B111">
+    <cfRule type="duplicateValues" dxfId="238" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="104" priority="107"/>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="duplicateValues" dxfId="237" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="103" priority="106"/>
+  <conditionalFormatting sqref="B112">
+    <cfRule type="duplicateValues" dxfId="235" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A27">
-    <cfRule type="duplicateValues" dxfId="102" priority="105"/>
+  <conditionalFormatting sqref="A104:B112">
+    <cfRule type="duplicateValues" dxfId="234" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="101" priority="104"/>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="duplicateValues" dxfId="233" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="100" priority="103"/>
+  <conditionalFormatting sqref="B113">
+    <cfRule type="duplicateValues" dxfId="231" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="99" priority="102"/>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="duplicateValues" dxfId="230" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="98" priority="101"/>
+  <conditionalFormatting sqref="B114">
+    <cfRule type="duplicateValues" dxfId="228" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="97" priority="100"/>
+  <conditionalFormatting sqref="A114:B114">
+    <cfRule type="duplicateValues" dxfId="227" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="96" priority="99"/>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="duplicateValues" dxfId="226" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="95" priority="98"/>
+  <conditionalFormatting sqref="B115">
+    <cfRule type="duplicateValues" dxfId="224" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="94" priority="97"/>
+  <conditionalFormatting sqref="B119:B1048576 B68:B88 B1 B3:B62 B91:B115">
+    <cfRule type="duplicateValues" dxfId="223" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="93" priority="96"/>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="duplicateValues" dxfId="222" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="92" priority="95"/>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="duplicateValues" dxfId="221" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="91" priority="94"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="220" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="90" priority="93"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="219" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="89" priority="92"/>
+  <conditionalFormatting sqref="A2:B2">
+    <cfRule type="duplicateValues" dxfId="218" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="88" priority="91"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="217" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="87" priority="90"/>
+  <conditionalFormatting sqref="B116:B117">
+    <cfRule type="duplicateValues" dxfId="216" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="86" priority="89"/>
+  <conditionalFormatting sqref="B116:B117">
+    <cfRule type="duplicateValues" dxfId="215" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="85" priority="88"/>
+  <conditionalFormatting sqref="B116">
+    <cfRule type="duplicateValues" dxfId="214" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
+  <conditionalFormatting sqref="B116">
+    <cfRule type="duplicateValues" dxfId="213" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="83" priority="86"/>
+  <conditionalFormatting sqref="B117">
+    <cfRule type="duplicateValues" dxfId="212" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="82" priority="85"/>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="duplicateValues" dxfId="211" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="81" priority="84"/>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="duplicateValues" dxfId="209" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A48">
-    <cfRule type="duplicateValues" dxfId="80" priority="83"/>
+  <conditionalFormatting sqref="A117">
+    <cfRule type="duplicateValues" dxfId="208" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B48">
-    <cfRule type="duplicateValues" dxfId="79" priority="82"/>
+  <conditionalFormatting sqref="A117">
+    <cfRule type="duplicateValues" dxfId="206" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="78" priority="81"/>
+  <conditionalFormatting sqref="B89:B90">
+    <cfRule type="duplicateValues" dxfId="205" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="77" priority="80"/>
+  <conditionalFormatting sqref="B89:B90">
+    <cfRule type="duplicateValues" dxfId="204" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B50">
-    <cfRule type="duplicateValues" dxfId="76" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B50">
-    <cfRule type="duplicateValues" dxfId="75" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B50">
-    <cfRule type="duplicateValues" dxfId="74" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A57">
-    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B57">
-    <cfRule type="duplicateValues" dxfId="72" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B57">
-    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="duplicateValues" dxfId="70" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="69" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="duplicateValues" dxfId="68" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B58">
-    <cfRule type="duplicateValues" dxfId="67" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="duplicateValues" dxfId="66" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="65" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B60">
-    <cfRule type="duplicateValues" dxfId="63" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="duplicateValues" dxfId="62" priority="65"/>
+  <conditionalFormatting sqref="A89:A90">
+    <cfRule type="duplicateValues" dxfId="203" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="61" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71 A65:A66 A68:A69">
-    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
+  <conditionalFormatting sqref="B64:B66">
+    <cfRule type="duplicateValues" dxfId="201" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="59" priority="59"/>
+  <conditionalFormatting sqref="B64:B66">
+    <cfRule type="duplicateValues" dxfId="200" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:B73">
-    <cfRule type="duplicateValues" dxfId="58" priority="58"/>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="duplicateValues" dxfId="199" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="57" priority="57"/>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="198" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="duplicateValues" dxfId="56" priority="56"/>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="197" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="duplicateValues" dxfId="55" priority="55"/>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="duplicateValues" dxfId="196" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:B78 A63:B75">
-    <cfRule type="duplicateValues" dxfId="54" priority="54"/>
+  <conditionalFormatting sqref="A1:B66 A68:B117 A119:B1048576">
+    <cfRule type="duplicateValues" dxfId="195" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B78">
-    <cfRule type="duplicateValues" dxfId="53" priority="53"/>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="duplicateValues" dxfId="194" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:A77">
-    <cfRule type="duplicateValues" dxfId="52" priority="62"/>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="duplicateValues" dxfId="193" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:B77">
-    <cfRule type="duplicateValues" dxfId="51" priority="63"/>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="duplicateValues" dxfId="192" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="duplicateValues" dxfId="50" priority="52"/>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="191" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="duplicateValues" dxfId="49" priority="51"/>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="190" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="48" priority="50"/>
+  <conditionalFormatting sqref="B118">
+    <cfRule type="duplicateValues" dxfId="189" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:B81">
-    <cfRule type="duplicateValues" dxfId="47" priority="49"/>
+  <conditionalFormatting sqref="B118">
+    <cfRule type="duplicateValues" dxfId="188" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" dxfId="46" priority="48"/>
+  <conditionalFormatting sqref="B118">
+    <cfRule type="duplicateValues" dxfId="187" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" dxfId="45" priority="47"/>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="duplicateValues" dxfId="186" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89:B89">
-    <cfRule type="duplicateValues" dxfId="44" priority="46"/>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="duplicateValues" dxfId="184" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="43" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:B90">
-    <cfRule type="duplicateValues" dxfId="42" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:B101">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B60 B62:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10909,8 +13896,8 @@
   <dimension ref="A1:G988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11271,7 +14258,7 @@
       <c r="A22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>135</v>
       </c>
       <c r="C22" s="4"/>
@@ -11355,7 +14342,7 @@
         <v>145</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="str">
@@ -11455,7 +14442,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="str">
-        <f t="shared" ref="G33:G44" si="1">IF(A33&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A33&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G33:G47" si="1">IF(A33&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A33&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("Suspend");</v>
       </c>
     </row>
@@ -11636,31 +14623,52 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("Upgrade_OK");</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("VFQ_Disconnect");</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("VFQ_LeftScroll");</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
@@ -11682,7 +14690,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -11691,7 +14699,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -11700,7 +14708,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="4"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -11709,7 +14717,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -11768,7 +14776,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="12"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -11821,7 +14829,7 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="12"/>
+      <c r="F65" s="11"/>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11830,43 +14838,43 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="12"/>
+      <c r="F66" s="11"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="12"/>
+      <c r="F67" s="11"/>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="14"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="12"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="12"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="12"/>
+      <c r="F70" s="11"/>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -11875,17 +14883,17 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="12"/>
+      <c r="F71" s="11"/>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="15"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
@@ -11934,13 +14942,64 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+    </row>
     <row r="144" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G144" t="str">
         <f t="shared" ref="G144:G183" si="2">IF(A144&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A144&amp;CHAR(34)&amp;");","")</f>
@@ -17012,164 +20071,227 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A45:A49 A1:A2 A52:A68 A70:A1048576 A16">
-    <cfRule type="duplicateValues" dxfId="291" priority="74"/>
+  <conditionalFormatting sqref="A48:A49 A1:A2 A52:A68 A70:A1048576 A16">
+    <cfRule type="duplicateValues" dxfId="585" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="290" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="289" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="583" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="288" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="287" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="286" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="285" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="284" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="283" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="282" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="281" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="280" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="574" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="279" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="573" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="278" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="572" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="277" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="571" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="276" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="275" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="274" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="568" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="273" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="567" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="272" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="566" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="271" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="565" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="270" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="564" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="269" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="268" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="267" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="561" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="266" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="265" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="264" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="263" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="262" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="261" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A30">
-    <cfRule type="duplicateValues" dxfId="260" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B30">
-    <cfRule type="duplicateValues" dxfId="259" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="553" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="258" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="257" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B32">
-    <cfRule type="duplicateValues" dxfId="256" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B1048576 A1:B32">
-    <cfRule type="duplicateValues" dxfId="255" priority="30"/>
+  <conditionalFormatting sqref="A1:B32 A48:B1048576">
+    <cfRule type="duplicateValues" dxfId="549" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B1048576 B1:B32">
-    <cfRule type="duplicateValues" dxfId="254" priority="21"/>
+  <conditionalFormatting sqref="B1:B32 B48:B1048576">
+    <cfRule type="duplicateValues" dxfId="548" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A39">
-    <cfRule type="duplicateValues" dxfId="253" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B39">
-    <cfRule type="duplicateValues" dxfId="252" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B39">
-    <cfRule type="duplicateValues" dxfId="251" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="545" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="250" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="544" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="249" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="543" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="248" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="duplicateValues" dxfId="247" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="246" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="540" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="245" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="539" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="244" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="538" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="duplicateValues" dxfId="243" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="242" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="536" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="241" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="535" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B43 B45:B1048576">
-    <cfRule type="duplicateValues" dxfId="240" priority="2"/>
+  <conditionalFormatting sqref="B1:B43 B48:B1048576">
+    <cfRule type="duplicateValues" dxfId="534" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="239" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B46 B48:B1048576">
+    <cfRule type="duplicateValues" dxfId="532" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:B76">
+    <cfRule type="duplicateValues" dxfId="531" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:B78">
+    <cfRule type="duplicateValues" dxfId="530" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87 B48:B78 B93">
+    <cfRule type="duplicateValues" dxfId="529" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="duplicateValues" dxfId="528" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:B85">
+    <cfRule type="duplicateValues" dxfId="527" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:B85">
+    <cfRule type="duplicateValues" dxfId="526" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="duplicateValues" dxfId="525" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="duplicateValues" dxfId="524" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="duplicateValues" dxfId="523" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="duplicateValues" dxfId="522" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B46 B48:B1048576">
+    <cfRule type="duplicateValues" dxfId="521" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="duplicateValues" dxfId="520" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="519" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="518" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="517" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="duplicateValues" dxfId="516" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="duplicateValues" dxfId="515" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="duplicateValues" dxfId="514" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="513" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="512" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17179,12 +20301,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G995"/>
+  <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17408,7 +20530,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="str">
-        <f t="shared" ref="G12:G75" si="1">IF(A13&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A13&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A13&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G13:G74" si="1">IF(A13&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A13&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A13&amp;CHAR(34)&amp;"));","")</f>
         <v>Browser.WebEdit.Set("Acc_Add_Address", getdata("Acc_Add_Address"));</v>
       </c>
     </row>
@@ -17525,15 +20647,19 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Promotion_Upgrade", getdata("Promotion_Upgrade"));</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -17562,7 +20688,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -17573,7 +20699,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -17585,7 +20711,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -17597,8 +20723,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -17609,8 +20735,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -17621,7 +20747,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -17645,7 +20771,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -17694,7 +20820,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -17706,7 +20832,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -17718,7 +20844,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -17730,7 +20856,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -17742,7 +20868,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -17754,7 +20880,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -17766,7 +20892,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -17778,7 +20904,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -17790,7 +20916,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -17802,7 +20928,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -17814,7 +20940,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -17826,7 +20952,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -17838,7 +20964,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -17861,8 +20987,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -17873,7 +20999,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -17886,7 +21012,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -17971,10 +21097,6 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
       <c r="G58" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -17989,16 +21111,16 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
       <c r="G60" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
       <c r="G61" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -18006,27 +21128,28 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="B62" s="4"/>
       <c r="G62" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="B63" s="4"/>
       <c r="G63" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
       <c r="G64" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
       <c r="G65" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -18088,18 +21211,18 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G75" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G75:G138" si="2">IF(A75&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A75&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A75&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
       <c r="G76" s="4" t="str">
-        <f t="shared" ref="G76:G139" si="2">IF(A76&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A76&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A76&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D77" s="1"/>
       <c r="G77" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -18118,110 +21241,109 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
       <c r="G80" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G81" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
       <c r="G82" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G83" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G84" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G85" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G86" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G87" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G88" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G89" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G90" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G91" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G92" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G93" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G94" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G95" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G96" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
       <c r="G97" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -18234,6 +21356,7 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
       <c r="G99" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -18475,13 +21598,13 @@
     </row>
     <row r="139" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G139" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G139:G202" si="3">IF(A139&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A139&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A139&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G140" s="4" t="str">
-        <f t="shared" ref="G140:G203" si="3">IF(A140&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A140&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A140&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -18859,13 +21982,13 @@
     </row>
     <row r="203" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G203" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G203:G266" si="4">IF(A203&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A203&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A203&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="204" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G204" s="4" t="str">
-        <f t="shared" ref="G204:G267" si="4">IF(A204&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A204&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A204&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -19243,13 +22366,13 @@
     </row>
     <row r="267" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G267" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G267:G330" si="5">IF(A267&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A267&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A267&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="268" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G268" s="4" t="str">
-        <f t="shared" ref="G268:G331" si="5">IF(A268&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A268&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A268&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -19627,13 +22750,13 @@
     </row>
     <row r="331" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G331" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G331:G394" si="6">IF(A331&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A331&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A331&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="332" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G332" s="4" t="str">
-        <f t="shared" ref="G332:G395" si="6">IF(A332&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A332&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A332&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -20011,13 +23134,13 @@
     </row>
     <row r="395" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G395" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G395:G458" si="7">IF(A395&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A395&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A395&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="396" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G396" s="4" t="str">
-        <f t="shared" ref="G396:G459" si="7">IF(A396&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A396&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A396&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -20395,13 +23518,13 @@
     </row>
     <row r="459" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G459" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G459:G522" si="8">IF(A459&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A459&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A459&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="460" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G460" s="4" t="str">
-        <f t="shared" ref="G460:G523" si="8">IF(A460&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A460&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A460&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -20779,13 +23902,13 @@
     </row>
     <row r="523" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G523" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G523:G586" si="9">IF(A523&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A523&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A523&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="524" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G524" s="4" t="str">
-        <f t="shared" ref="G524:G587" si="9">IF(A524&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A524&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A524&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -21163,13 +24286,13 @@
     </row>
     <row r="587" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G587" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G587:G650" si="10">IF(A587&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A587&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A587&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="588" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G588" s="4" t="str">
-        <f t="shared" ref="G588:G651" si="10">IF(A588&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A588&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A588&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -21547,13 +24670,13 @@
     </row>
     <row r="651" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G651" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G651:G714" si="11">IF(A651&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A651&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A651&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="652" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G652" s="4" t="str">
-        <f t="shared" ref="G652:G715" si="11">IF(A652&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A652&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A652&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -21931,13 +25054,13 @@
     </row>
     <row r="715" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G715" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G715:G778" si="12">IF(A715&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A715&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A715&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="716" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G716" s="4" t="str">
-        <f t="shared" ref="G716:G779" si="12">IF(A716&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A716&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A716&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -22315,13 +25438,13 @@
     </row>
     <row r="779" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G779" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G779:G842" si="13">IF(A779&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A779&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A779&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="780" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G780" s="4" t="str">
-        <f t="shared" ref="G780:G843" si="13">IF(A780&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A780&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A780&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -22699,13 +25822,13 @@
     </row>
     <row r="843" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G843" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G843:G906" si="14">IF(A843&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A843&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A843&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="844" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G844" s="4" t="str">
-        <f t="shared" ref="G844:G907" si="14">IF(A844&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A844&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A844&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -23083,13 +26206,13 @@
     </row>
     <row r="907" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G907" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G907:G970" si="15">IF(A907&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A907&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A907&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="908" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G908" s="4" t="str">
-        <f t="shared" ref="G908:G971" si="15">IF(A908&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A908&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A908&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -23467,13 +26590,13 @@
     </row>
     <row r="971" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G971" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G971:G994" si="16">IF(A971&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A971&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A971&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="972" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G972" s="4" t="str">
-        <f t="shared" ref="G972:G995" si="16">IF(A972&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A972&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A972&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -23609,87 +26732,108 @@
         <v/>
       </c>
     </row>
-    <row r="995" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G995" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A65:A68 A1 A70:A71 A73:A78 A80:A87 A89:A92 A94:A98 A100:A1048576 A21:A23 A30:A33 A55:A59 A35:A53 A61:A63">
-    <cfRule type="duplicateValues" dxfId="238" priority="36"/>
+  <conditionalFormatting sqref="A64:A67 A1 A69:A70 A72:A77 A79:A86 A88:A91 A93:A97 A99:A1048576 A29:A32 A54:A58 A60:A62 A34:A52">
+    <cfRule type="duplicateValues" dxfId="511" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="237" priority="32"/>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="duplicateValues" dxfId="510" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="236" priority="31"/>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="509" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="235" priority="30"/>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="duplicateValues" dxfId="508" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="234" priority="29"/>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="507" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="233" priority="28"/>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="duplicateValues" dxfId="506" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27 A24:A25">
-    <cfRule type="duplicateValues" dxfId="232" priority="26"/>
+  <conditionalFormatting sqref="A26 A23:A24">
+    <cfRule type="duplicateValues" dxfId="505" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="231" priority="25"/>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="504" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="230" priority="23"/>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="503" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B54 B55:B59 B62:B63">
-    <cfRule type="duplicateValues" dxfId="229" priority="22"/>
+  <conditionalFormatting sqref="A53 B56:B61 B64:B65">
+    <cfRule type="duplicateValues" dxfId="502" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="228" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="227" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="226" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="225" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="224" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="223" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="222" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17 A1:B14 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="221" priority="13"/>
+  <conditionalFormatting sqref="A17:B17 A1:B14 A23:B1048576">
+    <cfRule type="duplicateValues" dxfId="494" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B17 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="220" priority="5"/>
+  <conditionalFormatting sqref="A1:B17 A23:B1048576">
+    <cfRule type="duplicateValues" dxfId="493" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="duplicateValues" dxfId="219" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="duplicateValues" dxfId="218" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="217" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="216" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="215" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B20">
-    <cfRule type="duplicateValues" dxfId="214" priority="1"/>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="487" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40 B25:B37 B42">
+    <cfRule type="duplicateValues" dxfId="486" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B40 B42">
+    <cfRule type="duplicateValues" dxfId="485" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B39">
+    <cfRule type="duplicateValues" dxfId="484" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="duplicateValues" dxfId="483" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B44">
+    <cfRule type="duplicateValues" dxfId="482" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="481" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20 B21:B22">
+    <cfRule type="duplicateValues" dxfId="480" priority="371"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22">
+    <cfRule type="duplicateValues" dxfId="479" priority="379"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:A22">
+    <cfRule type="duplicateValues" dxfId="478" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23778,7 +26922,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="213" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23791,7 +26935,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29328,40 +32472,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A14:A29 A1 A31:A44 A46:A50 A52:A110 B14:B17 A112:A1048576">
-    <cfRule type="duplicateValues" dxfId="212" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="211" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="210" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="209" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="208" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A23">
-    <cfRule type="duplicateValues" dxfId="207" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="206" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="205" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="duplicateValues" dxfId="204" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="203" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B1048576 A1:B9">
-    <cfRule type="duplicateValues" dxfId="202" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="201" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -35415,16 +38559,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="200" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="199" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="198" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="197" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -41462,7 +44606,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="196" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41475,7 +44619,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B13"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41585,7 +44729,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="str">
-        <f t="shared" ref="G6:G13" si="0">IF(A6&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G6:G16" si="0">IF(A6&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebTable.getRowCount("Installed_Assert");</v>
       </c>
     </row>
@@ -41702,35 +44846,59 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebTable.getRowCount("Service_Id");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebTable.getRowCount("Promotion_Upgrades");</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebTable.getRowCount("Order_id");</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -41739,7 +44907,6 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -41748,7 +44915,6 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -41757,7 +44923,6 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -41766,7 +44931,6 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -41775,7 +44939,6 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -41784,118 +44947,192 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="195" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A1048576 A1 A16:A22">
-    <cfRule type="duplicateValues" dxfId="194" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="68"/>
+  <conditionalFormatting sqref="A24:A1048576 A1 A17:A22">
+    <cfRule type="duplicateValues" dxfId="458" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B1048576 B1 B16:B22">
-    <cfRule type="duplicateValues" dxfId="192" priority="66"/>
+  <conditionalFormatting sqref="B30:B1048576 B1">
+    <cfRule type="duplicateValues" dxfId="456" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="191" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="453" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="451" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="450" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="448" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="447" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="445" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="444" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="442" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="441" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="439" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="438" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="436" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="435" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="duplicateValues" dxfId="433" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="432" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="duplicateValues" dxfId="430" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="429" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="duplicateValues" dxfId="427" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B10 A17:B1048576">
+    <cfRule type="duplicateValues" dxfId="426" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="425" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="423" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="422" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="duplicateValues" dxfId="420" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12">
+    <cfRule type="duplicateValues" dxfId="419" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="418" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="duplicateValues" dxfId="416" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="duplicateValues" dxfId="415" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B27">
+    <cfRule type="duplicateValues" dxfId="414" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="duplicateValues" dxfId="413" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="412" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="411" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="410" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="duplicateValues" dxfId="409" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="408" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="189" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="188" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="62"/>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="duplicateValues" dxfId="406" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="186" priority="60"/>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="duplicateValues" dxfId="405" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="185" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="59"/>
+  <conditionalFormatting sqref="B17:B27">
+    <cfRule type="duplicateValues" dxfId="404" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="183" priority="57"/>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="duplicateValues" dxfId="403" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="182" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="56"/>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="402" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="180" priority="54"/>
+  <conditionalFormatting sqref="B1:B15 B17:B1048576">
+    <cfRule type="duplicateValues" dxfId="401" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="179" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="44"/>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="400" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="177" priority="42"/>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="399" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="176" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="174" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="173" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="171" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="170" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="168" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="167" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="165" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="164" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="162" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B10 A15:B1048576">
-    <cfRule type="duplicateValues" dxfId="161" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="160" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="158" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="157" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="155" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="154" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="153" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="151" priority="4"/>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="duplicateValues" dxfId="398" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="150" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="148" priority="1"/>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="395" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="394" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="392" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="duplicateValues" dxfId="384" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="duplicateValues" dxfId="382" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="duplicateValues" dxfId="380" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="378" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="374" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47858,7 +51095,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="147" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -851,7 +851,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="624">
+  <dxfs count="419">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2474,197 +2474,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2732,1596 +2544,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6301,53 +4523,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -12307,103 +10482,103 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="618" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A1048576">
-    <cfRule type="duplicateValues" dxfId="617" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="616" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="615" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="614" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="613" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="612" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="611" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="610" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="609" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="608" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="607" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="606" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="605" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="604" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="603" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="602" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="601" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="600" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="599" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="598" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="597" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="596" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="595" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="594" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="593" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="592" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="591" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="590" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="589" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B1048576">
-    <cfRule type="duplicateValues" dxfId="588" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="587" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="586" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -12415,9 +10590,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12449,7 +10624,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="390" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12459,8 +10634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13364,523 +11539,523 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B119:B1048576 B102:B103 B68:B69 B1 B20:B21 B91:B92">
-    <cfRule type="duplicateValues" dxfId="366" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:A1048576 A102:A103 A68:A69 A1 A20:A21 A91:A92">
-    <cfRule type="duplicateValues" dxfId="365" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B1048576 A102:B103 A68:B69 A1:B1 A20:B21 A91:B92">
-    <cfRule type="duplicateValues" dxfId="364" priority="380"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="duplicateValues" dxfId="363" priority="383"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="362" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="361" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="360" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="359" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="358" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="357" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="356" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="355" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="354" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="353" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="352" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="351" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="350" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="349" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="348" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="347" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="346" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="345" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="344" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="343" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="342" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="341" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="340" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="339" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="338" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="337" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="336" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="335" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="334" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="333" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="332" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="331" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="330" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22 A36">
-    <cfRule type="duplicateValues" dxfId="329" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="328" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="327" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="326" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="325" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="324" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="duplicateValues" dxfId="323" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="322" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="321" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="320" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="319" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="318" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="317" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="316" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="315" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="314" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="313" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="312" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="311" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="310" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="309" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="308" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="307" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="306" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="305" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="304" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="303" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="302" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A50">
-    <cfRule type="duplicateValues" dxfId="301" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B50">
-    <cfRule type="duplicateValues" dxfId="300" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="299" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="298" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B52">
-    <cfRule type="duplicateValues" dxfId="297" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B52">
-    <cfRule type="duplicateValues" dxfId="296" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B52">
-    <cfRule type="duplicateValues" dxfId="295" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A59">
-    <cfRule type="duplicateValues" dxfId="294" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:B59">
-    <cfRule type="duplicateValues" dxfId="293" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:B59">
-    <cfRule type="duplicateValues" dxfId="292" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="duplicateValues" dxfId="291" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="290" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="duplicateValues" dxfId="289" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B60">
-    <cfRule type="duplicateValues" dxfId="288" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="duplicateValues" dxfId="287" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="duplicateValues" dxfId="286" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="285" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="duplicateValues" dxfId="284" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="283" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="282" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78 A72:A73 A75:A76">
-    <cfRule type="duplicateValues" dxfId="281" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="duplicateValues" dxfId="280" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:B80">
-    <cfRule type="duplicateValues" dxfId="279" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="278" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="277" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="276" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:B85 A70:B82">
-    <cfRule type="duplicateValues" dxfId="275" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B85">
-    <cfRule type="duplicateValues" dxfId="274" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A84">
-    <cfRule type="duplicateValues" dxfId="273" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:B84">
-    <cfRule type="duplicateValues" dxfId="272" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="271" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="270" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="269" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:B88">
-    <cfRule type="duplicateValues" dxfId="268" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="267" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="266" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B99">
-    <cfRule type="duplicateValues" dxfId="265" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="264" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B100">
-    <cfRule type="duplicateValues" dxfId="263" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="262" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="261" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="260" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="259" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="duplicateValues" dxfId="258" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="257" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="duplicateValues" dxfId="256" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="duplicateValues" dxfId="255" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="254" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="duplicateValues" dxfId="253" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="252" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="251" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="duplicateValues" dxfId="250" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="249" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="248" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="247" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="246" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="245" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="duplicateValues" dxfId="244" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="duplicateValues" dxfId="243" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="242" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="duplicateValues" dxfId="241" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="duplicateValues" dxfId="240" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="239" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111">
-    <cfRule type="duplicateValues" dxfId="238" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" dxfId="237" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="236" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="duplicateValues" dxfId="235" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B112">
-    <cfRule type="duplicateValues" dxfId="234" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="233" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="232" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="duplicateValues" dxfId="231" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="230" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="duplicateValues" dxfId="228" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:B114">
-    <cfRule type="duplicateValues" dxfId="227" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="226" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="duplicateValues" dxfId="224" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:B1048576 B68:B88 B1 B3:B62 B91:B115">
-    <cfRule type="duplicateValues" dxfId="223" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="222" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="221" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="220" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="219" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="218" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="217" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:B117">
-    <cfRule type="duplicateValues" dxfId="216" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:B117">
-    <cfRule type="duplicateValues" dxfId="215" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="214" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="213" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="212" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="211" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="210" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="209" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="208" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="207" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="206" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="205" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="204" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:A90">
-    <cfRule type="duplicateValues" dxfId="203" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="202" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B66">
-    <cfRule type="duplicateValues" dxfId="201" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B66">
-    <cfRule type="duplicateValues" dxfId="200" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="199" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="198" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="197" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="196" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B66 A68:B117 A119:B1048576">
-    <cfRule type="duplicateValues" dxfId="195" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="duplicateValues" dxfId="194" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="duplicateValues" dxfId="193" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="duplicateValues" dxfId="192" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="191" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="190" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="189" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="188" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="187" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="186" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="184" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -20072,226 +18247,226 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A48:A49 A1:A2 A52:A68 A70:A1048576 A16">
-    <cfRule type="duplicateValues" dxfId="585" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="584" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="583" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="582" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="581" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="580" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="579" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="578" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="577" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="576" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="575" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="574" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="573" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="572" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="571" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="570" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="569" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="568" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="567" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="566" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="565" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="564" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="563" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="562" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="561" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="560" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="559" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="558" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="557" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="556" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="555" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A30">
-    <cfRule type="duplicateValues" dxfId="554" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B30">
-    <cfRule type="duplicateValues" dxfId="553" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="552" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="551" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B32">
-    <cfRule type="duplicateValues" dxfId="550" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B32 A48:B1048576">
-    <cfRule type="duplicateValues" dxfId="549" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B32 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="548" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A39">
-    <cfRule type="duplicateValues" dxfId="547" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B39">
-    <cfRule type="duplicateValues" dxfId="546" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B39">
-    <cfRule type="duplicateValues" dxfId="545" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="544" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="543" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="542" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="duplicateValues" dxfId="541" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="540" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="539" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="538" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="duplicateValues" dxfId="537" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="536" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="535" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B43 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="534" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="533" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B46 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="532" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B76">
-    <cfRule type="duplicateValues" dxfId="531" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B78">
-    <cfRule type="duplicateValues" dxfId="530" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87 B48:B78 B93">
-    <cfRule type="duplicateValues" dxfId="529" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="528" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B85">
-    <cfRule type="duplicateValues" dxfId="527" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B85">
-    <cfRule type="duplicateValues" dxfId="526" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="525" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="524" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="523" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="522" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B46 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="521" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="520" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="519" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="518" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="517" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="516" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="515" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="514" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="513" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="512" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26734,106 +24909,106 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A64:A67 A1 A69:A70 A72:A77 A79:A86 A88:A91 A93:A97 A99:A1048576 A29:A32 A54:A58 A60:A62 A34:A52">
-    <cfRule type="duplicateValues" dxfId="511" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="510" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="509" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="508" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="507" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="506" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26 A23:A24">
-    <cfRule type="duplicateValues" dxfId="505" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="504" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="503" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53 B56:B61 B64:B65">
-    <cfRule type="duplicateValues" dxfId="502" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="501" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="500" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="499" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="498" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="497" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="496" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="495" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 A1:B14 A23:B1048576">
-    <cfRule type="duplicateValues" dxfId="494" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B17 A23:B1048576">
-    <cfRule type="duplicateValues" dxfId="493" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="duplicateValues" dxfId="492" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="duplicateValues" dxfId="491" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="490" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="489" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="488" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="487" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40 B25:B37 B42">
-    <cfRule type="duplicateValues" dxfId="486" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B40 B42">
-    <cfRule type="duplicateValues" dxfId="485" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B39">
-    <cfRule type="duplicateValues" dxfId="484" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="483" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B44">
-    <cfRule type="duplicateValues" dxfId="482" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="481" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20 B21:B22">
-    <cfRule type="duplicateValues" dxfId="480" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22">
-    <cfRule type="duplicateValues" dxfId="479" priority="379"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A22">
-    <cfRule type="duplicateValues" dxfId="478" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26922,7 +25097,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="477" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32472,40 +30647,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A14:A29 A1 A31:A44 A46:A50 A52:A110 B14:B17 A112:A1048576">
-    <cfRule type="duplicateValues" dxfId="476" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="475" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="474" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="473" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="472" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A23">
-    <cfRule type="duplicateValues" dxfId="471" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="470" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="469" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="duplicateValues" dxfId="468" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="467" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B1048576 A1:B9">
-    <cfRule type="duplicateValues" dxfId="466" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="465" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -38559,16 +36734,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="464" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="463" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="462" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="461" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -44606,7 +42781,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="460" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44619,7 +42794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:B16"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44947,192 +43122,192 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="459" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A1048576 A1 A17:A22">
-    <cfRule type="duplicateValues" dxfId="458" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="457" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="456" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="455" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="454" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="453" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="452" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="451" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="450" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="449" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="448" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="447" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="446" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="445" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="444" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="443" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="442" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="441" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="440" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="439" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="438" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="437" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="436" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="435" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="434" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="433" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="432" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="431" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="430" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="429" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="428" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="427" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B10 A17:B1048576">
-    <cfRule type="duplicateValues" dxfId="426" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="425" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="424" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="423" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="422" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="421" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="420" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="419" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="418" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="417" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="416" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="415" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="duplicateValues" dxfId="414" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="413" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="412" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="411" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="410" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="409" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="408" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="407" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="406" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="405" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B27">
-    <cfRule type="duplicateValues" dxfId="404" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="403" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="402" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B1048576">
-    <cfRule type="duplicateValues" dxfId="401" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="400" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="399" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="398" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="397" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="396" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="395" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="394" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="393" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="392" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="384" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="382" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="380" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="378" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="377" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="374" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45145,8 +43320,8 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51095,7 +49270,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="391" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -910,7 +910,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="508">
+  <dxfs count="507">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -989,13 +989,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1046,6 +1039,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1066,13 +1066,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1113,6 +1106,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1123,6 +1130,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1150,6 +1164,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1180,6 +1201,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1190,6 +1225,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1200,20 +1242,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1224,13 +1252,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1241,13 +1262,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1258,13 +1272,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1295,20 +1302,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1319,13 +1312,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1426,6 +1412,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1466,6 +1459,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1476,6 +1476,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1553,13 +1560,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1570,13 +1570,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1607,13 +1600,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1664,6 +1650,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1684,6 +1677,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1744,13 +1744,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1771,13 +1764,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2088,6 +2074,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2098,6 +2091,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2108,6 +2115,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2118,6 +2160,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2138,6 +2187,55 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2158,6 +2256,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2168,13 +2280,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2185,20 +2290,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2216,34 +2307,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2254,13 +2317,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2288,48 +2344,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2350,20 +2364,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2374,6 +2374,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2401,6 +2415,97 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2411,6 +2516,97 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2421,6 +2617,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2431,13 +2634,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2448,6 +2644,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2458,6 +2661,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2468,20 +2678,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2509,97 +2705,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2617,90 +2722,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2728,6 +2749,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2772,6 +2800,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2782,6 +2817,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2860,13 +2902,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2901,6 +2936,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2911,13 +2953,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2928,13 +2963,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2945,13 +2973,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2962,13 +2983,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2979,13 +2993,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3006,13 +3013,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3023,20 +3023,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3767,6 +3753,55 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3777,6 +3812,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3787,6 +3836,62 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3854,48 +3959,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3913,13 +3976,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3937,62 +3993,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4223,13 +4223,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11394,118 +11387,118 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21:A1048576">
-    <cfRule type="duplicateValues" dxfId="507" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21:A1048576">
-    <cfRule type="duplicateValues" dxfId="506" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="505" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="504" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="503" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="502" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="501" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="500" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="499" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="498" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="497" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="496" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="495" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="494" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="493" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="492" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="491" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="490" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="489" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="488" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="487" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="486" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="485" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="484" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="483" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="482" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="481" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="480" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="479" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="478" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B18 B21:B1048576">
-    <cfRule type="duplicateValues" dxfId="477" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="476" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="475" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="474" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="473" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="472" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="471" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="470" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -11551,7 +11544,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="236" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12546,648 +12539,648 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B129:B1048576 B110:B111 B73:B74 B1 B22:B23 B99:B100">
-    <cfRule type="duplicateValues" dxfId="235" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:A1048576 A110:A111 A73:A74 A1 A22:A23 A99:A100">
-    <cfRule type="duplicateValues" dxfId="234" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B1048576 A110:B111 A73:B74 A1:B1 A22:B23 A99:B100">
-    <cfRule type="duplicateValues" dxfId="233" priority="422"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="232" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="231" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="230" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="229" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="228" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="227" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="226" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="225" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="224" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="223" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="222" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="221" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="220" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="219" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="218" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="217" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="216" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="215" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="214" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="213" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="212" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="211" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="210" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="209" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="208" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="207" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="206" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="205" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="204" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="203" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="202" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="201" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="200" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="199" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24 A38">
-    <cfRule type="duplicateValues" dxfId="198" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="197" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="196" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="195" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="194" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="193" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:A31">
-    <cfRule type="duplicateValues" dxfId="192" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="191" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="190" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="189" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="188" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="187" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="186" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="185" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="184" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="183" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="182" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="181" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="180" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="179" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="178" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="177" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="176" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="175" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="174" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="173" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="172" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="171" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A52">
-    <cfRule type="duplicateValues" dxfId="170" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B52">
-    <cfRule type="duplicateValues" dxfId="169" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="168" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="167" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B54">
-    <cfRule type="duplicateValues" dxfId="166" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B54">
-    <cfRule type="duplicateValues" dxfId="165" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B54">
-    <cfRule type="duplicateValues" dxfId="164" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A61">
-    <cfRule type="duplicateValues" dxfId="163" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:B61">
-    <cfRule type="duplicateValues" dxfId="162" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:B61">
-    <cfRule type="duplicateValues" dxfId="161" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="duplicateValues" dxfId="160" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="159" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="158" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="duplicateValues" dxfId="157" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="156" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="155" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="154" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="153" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="152" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="151" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83 A77:A78 A80:A81">
-    <cfRule type="duplicateValues" dxfId="150" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="149" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:B85">
-    <cfRule type="duplicateValues" dxfId="148" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="147" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="146" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="145" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:B90 A75:B87">
-    <cfRule type="duplicateValues" dxfId="144" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B90">
-    <cfRule type="duplicateValues" dxfId="143" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A89">
-    <cfRule type="duplicateValues" dxfId="142" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:B89">
-    <cfRule type="duplicateValues" dxfId="141" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="140" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="139" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="138" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="137" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="136" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="135" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:B107">
-    <cfRule type="duplicateValues" dxfId="134" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="133" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B108">
-    <cfRule type="duplicateValues" dxfId="132" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="131" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" dxfId="130" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="duplicateValues" dxfId="128" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="127" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="duplicateValues" dxfId="125" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="124" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="duplicateValues" dxfId="122" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="121" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="duplicateValues" dxfId="119" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="118" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="116" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="115" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="113" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="112" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="110" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="109" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="107" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="106" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="duplicateValues" dxfId="104" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B120">
-    <cfRule type="duplicateValues" dxfId="103" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="102" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
-    <cfRule type="duplicateValues" dxfId="100" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="99" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="97" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="96" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="95" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="93" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129:B1048576 B73:B93 B1 B3:B19 B99:B123 B22:B64">
-    <cfRule type="duplicateValues" dxfId="92" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="91" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="90" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="89" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="88" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="87" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="86" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:B125">
-    <cfRule type="duplicateValues" dxfId="85" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:B125">
-    <cfRule type="duplicateValues" dxfId="84" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="duplicateValues" dxfId="83" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="duplicateValues" dxfId="82" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="81" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="80" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="78" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="77" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="75" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="74" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B68">
-    <cfRule type="duplicateValues" dxfId="73" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B68">
-    <cfRule type="duplicateValues" dxfId="72" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="71" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="70" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="69" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="68" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B1048576 A1:B19 A73:B94 A98:B125 A22:B68">
-    <cfRule type="duplicateValues" dxfId="67" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="66" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="65" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="64" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="63" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="62" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="61" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="58" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="56" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129:B1048576 B1:B19 B98:B126 B73:B94 B22:B69">
-    <cfRule type="duplicateValues" dxfId="55" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:A128">
-    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:B128">
-    <cfRule type="duplicateValues" dxfId="52" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="51" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="50" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B128">
-    <cfRule type="duplicateValues" dxfId="49" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B128">
-    <cfRule type="duplicateValues" dxfId="48" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:B128">
-    <cfRule type="duplicateValues" dxfId="47" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:B128">
-    <cfRule type="duplicateValues" dxfId="45" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B98">
-    <cfRule type="duplicateValues" dxfId="44" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B98">
-    <cfRule type="duplicateValues" dxfId="43" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94 A98">
-    <cfRule type="duplicateValues" dxfId="42" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="41" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:B96">
-    <cfRule type="duplicateValues" dxfId="40" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:B96">
-    <cfRule type="duplicateValues" dxfId="39" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B96">
-    <cfRule type="duplicateValues" dxfId="38" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="35" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="duplicateValues" dxfId="34" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B70">
-    <cfRule type="duplicateValues" dxfId="29" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:A72">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B72">
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B72">
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B72">
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B72">
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B72">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B72">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -19397,265 +19390,265 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A52:A68 A70:A1048576 A16">
-    <cfRule type="duplicateValues" dxfId="469" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="468" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="467" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="466" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="465" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="464" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="463" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="462" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="461" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="460" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="459" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="458" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="457" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="456" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="455" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="454" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="453" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="452" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="451" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="450" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="449" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="448" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="447" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="446" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="445" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="444" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="443" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="442" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="441" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="440" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A30">
-    <cfRule type="duplicateValues" dxfId="439" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B30">
-    <cfRule type="duplicateValues" dxfId="438" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="437" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="436" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B32">
-    <cfRule type="duplicateValues" dxfId="435" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B32 A51:B1048576">
-    <cfRule type="duplicateValues" dxfId="434" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B32 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="433" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A39">
-    <cfRule type="duplicateValues" dxfId="432" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B39">
-    <cfRule type="duplicateValues" dxfId="431" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B39">
-    <cfRule type="duplicateValues" dxfId="430" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="429" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="428" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="427" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="duplicateValues" dxfId="426" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="425" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="424" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="423" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="duplicateValues" dxfId="422" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="421" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="420" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B43 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="419" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="418" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B46 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="417" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B76">
-    <cfRule type="duplicateValues" dxfId="416" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B78">
-    <cfRule type="duplicateValues" dxfId="415" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87 B51:B78 B93">
-    <cfRule type="duplicateValues" dxfId="414" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="413" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B85">
-    <cfRule type="duplicateValues" dxfId="412" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B85">
-    <cfRule type="duplicateValues" dxfId="411" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="410" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="409" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="408" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="407" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B46 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="406" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="405" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="404" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="403" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="402" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="401" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="400" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="399" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="398" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="397" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="396" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B48">
-    <cfRule type="duplicateValues" dxfId="395" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="394" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="393" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="392" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="391" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="390" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A50">
-    <cfRule type="duplicateValues" dxfId="389" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B50">
-    <cfRule type="duplicateValues" dxfId="388" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="387" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="386" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="385" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="384" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="383" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19670,7 +19663,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26110,22 +26103,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A64:A67 A1 A69:A70 A72:A77 A79:A86 A88:A91 A93:A97 A99:A1048576 A29:A32 A54:A58 A60:A62 A34:A52">
-    <cfRule type="duplicateValues" dxfId="382" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="381" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="380" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="379" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="378" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="377" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
     <cfRule type="duplicateValues" dxfId="375" priority="62"/>
@@ -26242,34 +26235,34 @@
     <cfRule type="duplicateValues" dxfId="338" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26358,7 +26351,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="337" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31908,40 +31901,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A14:A29 A1 A31:A44 A46:A50 A52:A110 B14:B17 A112:A1048576">
-    <cfRule type="duplicateValues" dxfId="336" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="335" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="334" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="333" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="332" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A23">
-    <cfRule type="duplicateValues" dxfId="331" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="330" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="329" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="duplicateValues" dxfId="328" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="327" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B1048576 A1:B9">
-    <cfRule type="duplicateValues" dxfId="326" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="325" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -37995,16 +37988,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="324" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="323" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="322" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="321" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -44042,7 +44035,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="320" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44399,212 +44392,212 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="319" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A1048576 A1 A19:A22">
-    <cfRule type="duplicateValues" dxfId="318" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="317" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="316" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="315" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="314" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="313" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="312" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="311" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="310" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="309" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="308" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="307" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="306" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="305" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="304" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="303" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="302" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="301" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="300" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="299" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="298" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="297" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="296" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="295" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="294" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="293" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="292" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="291" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="290" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="289" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="288" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="287" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B10 A19:B1048576">
-    <cfRule type="duplicateValues" dxfId="286" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="285" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="284" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="283" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="282" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="281" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="280" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="279" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="278" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="277" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="276" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="275" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="duplicateValues" dxfId="274" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="273" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="272" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="271" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="270" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="269" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="268" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="267" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B27">
-    <cfRule type="duplicateValues" dxfId="266" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="265" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="264" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B19:B1048576">
-    <cfRule type="duplicateValues" dxfId="263" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="262" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="261" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="260" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="259" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="258" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="257" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="256" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="255" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="254" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="253" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="252" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="251" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="250" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="249" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="248" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="247" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="246" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="245" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="244" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="243" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="242" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="241" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G18">
-    <cfRule type="duplicateValues" dxfId="240" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="239" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G18">
-    <cfRule type="duplicateValues" dxfId="238" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50567,7 +50560,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="237" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -25,11 +25,12 @@
     <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="250">
   <si>
     <t>ObjectName</t>
   </si>
@@ -774,6 +775,12 @@
   <si>
     <t>Browser.WebEdit.Set("Star_Number_purch", getdata("Star_Number_purch"));</t>
   </si>
+  <si>
+    <t>VQ_Home</t>
+  </si>
+  <si>
+    <t>//a[@title='Home']</t>
+  </si>
 </sst>
 </file>
 
@@ -910,7 +917,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="507">
+  <dxfs count="523">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -922,6 +929,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -962,6 +976,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -972,13 +993,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1029,6 +1043,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1039,13 +1060,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1096,6 +1110,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1106,20 +1127,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1130,13 +1137,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1147,13 +1147,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1164,13 +1157,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1191,6 +1177,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1208,13 +1208,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1242,6 +1235,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1272,6 +1272,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1282,6 +1296,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1412,13 +1433,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1459,13 +1473,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1513,13 +1520,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1530,6 +1530,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1540,6 +1547,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1570,6 +1584,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1650,13 +1671,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1677,13 +1691,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1714,6 +1721,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1734,6 +1748,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2074,13 +2095,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2091,20 +2105,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2115,41 +2115,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2160,13 +2125,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2194,48 +2152,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2246,6 +2162,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2270,6 +2200,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2280,6 +2231,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2307,6 +2265,48 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2327,6 +2327,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2337,13 +2351,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2364,6 +2371,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2374,20 +2388,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2415,97 +2415,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2516,97 +2425,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2617,13 +2435,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2634,6 +2445,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2644,13 +2469,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2668,6 +2486,97 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2678,6 +2587,97 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2688,6 +2688,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2698,13 +2705,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2749,13 +2749,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2766,13 +2759,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2902,6 +2888,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2936,13 +2929,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2953,6 +2939,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2963,6 +2956,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2983,6 +2983,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2993,6 +3000,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3753,55 +3774,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3812,20 +3784,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3836,62 +3794,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3922,6 +3824,55 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3932,6 +3883,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3942,6 +3907,62 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3952,13 +3973,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3969,13 +3983,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3986,13 +3993,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4003,13 +4003,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4020,13 +4013,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4054,6 +4040,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4064,6 +4057,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4081,13 +4081,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4115,6 +4108,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4125,13 +4125,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4152,6 +4145,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4169,27 +4176,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4200,13 +4186,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4217,6 +4196,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4227,118 +4213,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4359,6 +4233,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4369,6 +4271,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4389,6 +4298,118 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4399,13 +4420,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4456,6 +4470,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4466,13 +4487,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4483,13 +4497,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4520,13 +4527,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4554,6 +4554,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4584,6 +4591,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4594,6 +4608,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4674,13 +4695,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4691,13 +4705,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4718,20 +4725,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4752,6 +4745,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4789,6 +4789,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4799,13 +4813,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4826,6 +4833,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4836,20 +4850,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4877,97 +4877,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4978,111 +4887,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5103,6 +4907,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5130,6 +4948,97 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5147,6 +5056,104 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5157,6 +5164,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5167,13 +5181,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5184,13 +5191,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5211,6 +5211,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5238,13 +5245,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5289,13 +5289,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5306,13 +5299,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5394,6 +5380,172 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5717,9 +5869,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6063,6 +6215,22 @@
         <v>Browser.WebLink.click("OSM_Submit");</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="str">
+        <f>IF(A21&lt;&gt;"","Browser.WebLink.click("&amp;CHAR(34)&amp;A21&amp;CHAR(34)&amp;");","")</f>
+        <v>Browser.WebLink.click("VQ_Home");</v>
+      </c>
+    </row>
     <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" t="str">
         <f t="shared" ref="G108:G125" si="1">IF(A108&lt;&gt;"","Browser.WebLink.click("&amp;CHAR(34)&amp;A108&amp;CHAR(34)&amp;");","")</f>
@@ -11387,118 +11555,124 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21:A1048576">
-    <cfRule type="duplicateValues" dxfId="506" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21:A1048576">
-    <cfRule type="duplicateValues" dxfId="505" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="504" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="503" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="502" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="501" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="500" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="499" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="498" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="497" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="496" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="495" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="494" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="493" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="492" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="491" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="490" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="489" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="488" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="487" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="486" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="485" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="484" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="483" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="482" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="481" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="480" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="479" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="478" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="477" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B18 B21:B1048576">
-    <cfRule type="duplicateValues" dxfId="476" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="475" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="474" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="473" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="472" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="471" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="470" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="469" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="477" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="476" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -11544,7 +11718,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="226" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11552,10 +11726,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11729,1457 +11903,1490 @@
         <v>244</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>127</v>
+        <v>91</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>197</v>
+        <v>180</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>117</v>
+        <v>152</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>215</v>
+        <v>186</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="4"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="4"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>123</v>
+      <c r="A116" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B118" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B121" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B123" s="5" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B129" s="4" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B129:B1048576 B110:B111 B73:B74 B1 B22:B23 B99:B100">
-    <cfRule type="duplicateValues" dxfId="225" priority="226"/>
+  <conditionalFormatting sqref="B130:B1048576 B111:B112 B74:B75 B1 B24 B100:B101">
+    <cfRule type="duplicateValues" dxfId="232" priority="233"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A129:A1048576 A110:A111 A73:A74 A1 A22:A23 A99:A100">
-    <cfRule type="duplicateValues" dxfId="224" priority="419"/>
+  <conditionalFormatting sqref="A130:A1048576 A111:A112 A74:A75 A1 A24 A100:A101">
+    <cfRule type="duplicateValues" dxfId="231" priority="426"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A129:B1048576 A110:B111 A73:B74 A1:B1 A22:B23 A99:B100">
-    <cfRule type="duplicateValues" dxfId="223" priority="422"/>
+  <conditionalFormatting sqref="A130:B1048576 A111:B112 A74:B75 A1:B1 A24:B24 A100:B101">
+    <cfRule type="duplicateValues" dxfId="230" priority="429"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="222" priority="425"/>
+  <conditionalFormatting sqref="B74:B75">
+    <cfRule type="duplicateValues" dxfId="229" priority="432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
+    <cfRule type="duplicateValues" dxfId="228" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3 A16 A18:A19">
+    <cfRule type="duplicateValues" dxfId="227" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="226" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="225" priority="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="224" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="223" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="222" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="221" priority="225"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3 A16 A18:A19">
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="220" priority="224"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="219" priority="223"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="218" priority="222"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="217" priority="221"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="216" priority="220"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="215" priority="219"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="214" priority="218"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="213" priority="217"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="212" priority="216"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="211" priority="215"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="210" priority="214"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="209" priority="213"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="208" priority="212"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="207" priority="211"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A14">
     <cfRule type="duplicateValues" dxfId="206" priority="210"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+  <conditionalFormatting sqref="A14">
     <cfRule type="duplicateValues" dxfId="205" priority="209"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+  <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
     <cfRule type="duplicateValues" dxfId="204" priority="208"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A3:B14">
     <cfRule type="duplicateValues" dxfId="203" priority="207"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A11:A14">
     <cfRule type="duplicateValues" dxfId="202" priority="206"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="A11:A14">
     <cfRule type="duplicateValues" dxfId="201" priority="205"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="200" priority="204"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
+  <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="199" priority="203"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
+  <conditionalFormatting sqref="B3:B16 B18:B19">
     <cfRule type="duplicateValues" dxfId="198" priority="202"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
+  <conditionalFormatting sqref="A17">
     <cfRule type="duplicateValues" dxfId="197" priority="201"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B14">
+  <conditionalFormatting sqref="A17">
     <cfRule type="duplicateValues" dxfId="196" priority="200"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A14">
+  <conditionalFormatting sqref="A25 A39">
     <cfRule type="duplicateValues" dxfId="195" priority="199"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A14">
+  <conditionalFormatting sqref="A26">
     <cfRule type="duplicateValues" dxfId="194" priority="198"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
+  <conditionalFormatting sqref="A27">
     <cfRule type="duplicateValues" dxfId="193" priority="197"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
+  <conditionalFormatting sqref="A28">
     <cfRule type="duplicateValues" dxfId="192" priority="196"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B16 B18:B19">
+  <conditionalFormatting sqref="A29">
     <cfRule type="duplicateValues" dxfId="191" priority="195"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
+  <conditionalFormatting sqref="A30">
     <cfRule type="duplicateValues" dxfId="190" priority="194"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
+  <conditionalFormatting sqref="A31:A32">
     <cfRule type="duplicateValues" dxfId="189" priority="193"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24 A38">
+  <conditionalFormatting sqref="A33">
     <cfRule type="duplicateValues" dxfId="188" priority="192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="A34">
     <cfRule type="duplicateValues" dxfId="187" priority="191"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A36">
     <cfRule type="duplicateValues" dxfId="186" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A35">
     <cfRule type="duplicateValues" dxfId="185" priority="189"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A37">
     <cfRule type="duplicateValues" dxfId="184" priority="188"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A38">
     <cfRule type="duplicateValues" dxfId="183" priority="187"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A31">
+  <conditionalFormatting sqref="A38">
     <cfRule type="duplicateValues" dxfId="182" priority="186"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A40">
     <cfRule type="duplicateValues" dxfId="181" priority="185"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
+  <conditionalFormatting sqref="A41">
     <cfRule type="duplicateValues" dxfId="180" priority="184"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A42">
     <cfRule type="duplicateValues" dxfId="179" priority="183"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A43">
     <cfRule type="duplicateValues" dxfId="178" priority="182"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A44">
     <cfRule type="duplicateValues" dxfId="177" priority="181"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
+  <conditionalFormatting sqref="A45">
     <cfRule type="duplicateValues" dxfId="176" priority="180"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
+  <conditionalFormatting sqref="A46">
     <cfRule type="duplicateValues" dxfId="175" priority="179"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
+  <conditionalFormatting sqref="A47">
     <cfRule type="duplicateValues" dxfId="174" priority="178"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
+  <conditionalFormatting sqref="A48">
     <cfRule type="duplicateValues" dxfId="173" priority="177"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
+  <conditionalFormatting sqref="A49">
     <cfRule type="duplicateValues" dxfId="172" priority="176"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
+  <conditionalFormatting sqref="A50">
     <cfRule type="duplicateValues" dxfId="171" priority="175"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+  <conditionalFormatting sqref="A51">
     <cfRule type="duplicateValues" dxfId="170" priority="174"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
+  <conditionalFormatting sqref="A52">
     <cfRule type="duplicateValues" dxfId="169" priority="173"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
+  <conditionalFormatting sqref="A53">
     <cfRule type="duplicateValues" dxfId="168" priority="172"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
+  <conditionalFormatting sqref="A41:A53">
     <cfRule type="duplicateValues" dxfId="167" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="B41:B53">
     <cfRule type="duplicateValues" dxfId="166" priority="170"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A54">
     <cfRule type="duplicateValues" dxfId="165" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
+  <conditionalFormatting sqref="A55">
     <cfRule type="duplicateValues" dxfId="164" priority="168"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
+  <conditionalFormatting sqref="B41:B55">
     <cfRule type="duplicateValues" dxfId="163" priority="167"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A25:B55">
     <cfRule type="duplicateValues" dxfId="162" priority="166"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
+  <conditionalFormatting sqref="B25:B55">
     <cfRule type="duplicateValues" dxfId="161" priority="165"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:A52">
+  <conditionalFormatting sqref="A56:A62">
     <cfRule type="duplicateValues" dxfId="160" priority="164"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B52">
+  <conditionalFormatting sqref="B56:B62">
     <cfRule type="duplicateValues" dxfId="159" priority="163"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A56:B62">
     <cfRule type="duplicateValues" dxfId="158" priority="162"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
+  <conditionalFormatting sqref="B62">
     <cfRule type="duplicateValues" dxfId="157" priority="161"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B54">
+  <conditionalFormatting sqref="A63">
     <cfRule type="duplicateValues" dxfId="156" priority="160"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B54">
+  <conditionalFormatting sqref="B63">
     <cfRule type="duplicateValues" dxfId="155" priority="159"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B54">
+  <conditionalFormatting sqref="A63:B63">
     <cfRule type="duplicateValues" dxfId="154" priority="158"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A61">
+  <conditionalFormatting sqref="B63">
     <cfRule type="duplicateValues" dxfId="153" priority="157"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B61">
+  <conditionalFormatting sqref="A64">
     <cfRule type="duplicateValues" dxfId="152" priority="156"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:B61">
+  <conditionalFormatting sqref="A65">
     <cfRule type="duplicateValues" dxfId="151" priority="155"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
+  <conditionalFormatting sqref="A65:B65">
     <cfRule type="duplicateValues" dxfId="150" priority="154"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="B65">
     <cfRule type="duplicateValues" dxfId="149" priority="153"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="148" priority="152"/>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="duplicateValues" dxfId="148" priority="148"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="duplicateValues" dxfId="147" priority="151"/>
+  <conditionalFormatting sqref="A84 A78:A79 A81:A82">
+    <cfRule type="duplicateValues" dxfId="147" priority="149"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="146" priority="150"/>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="duplicateValues" dxfId="146" priority="147"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="145" priority="149"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="144" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="143" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="142" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="141" priority="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83 A77:A78 A80:A81">
-    <cfRule type="duplicateValues" dxfId="140" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="139" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:B85">
-    <cfRule type="duplicateValues" dxfId="138" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="137" priority="138"/>
+  <conditionalFormatting sqref="A86:B86">
+    <cfRule type="duplicateValues" dxfId="145" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="136" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="145"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="135" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:B90 A75:B87">
-    <cfRule type="duplicateValues" dxfId="134" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:B90">
-    <cfRule type="duplicateValues" dxfId="133" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A89">
-    <cfRule type="duplicateValues" dxfId="132" priority="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:B89">
-    <cfRule type="duplicateValues" dxfId="131" priority="144"/>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="duplicateValues" dxfId="143" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="142" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91:B91 A76:B88">
+    <cfRule type="duplicateValues" dxfId="141" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:B91">
+    <cfRule type="duplicateValues" dxfId="140" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89:A90">
+    <cfRule type="duplicateValues" dxfId="139" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89:B90">
+    <cfRule type="duplicateValues" dxfId="138" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="137" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="duplicateValues" dxfId="136" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="135" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:B94">
+    <cfRule type="duplicateValues" dxfId="134" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="duplicateValues" dxfId="133" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="duplicateValues" dxfId="132" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108:B108">
+    <cfRule type="duplicateValues" dxfId="131" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
     <cfRule type="duplicateValues" dxfId="130" priority="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
+  <conditionalFormatting sqref="A102:B109">
     <cfRule type="duplicateValues" dxfId="129" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="128" priority="131"/>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="duplicateValues" dxfId="128" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="127" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+  <conditionalFormatting sqref="A113">
+    <cfRule type="duplicateValues" dxfId="127" priority="128"/>
     <cfRule type="duplicateValues" dxfId="126" priority="129"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="125" priority="128"/>
+  <conditionalFormatting sqref="B113">
+    <cfRule type="duplicateValues" dxfId="125" priority="127"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107:B107">
-    <cfRule type="duplicateValues" dxfId="124" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
+  <conditionalFormatting sqref="A114">
+    <cfRule type="duplicateValues" dxfId="124" priority="125"/>
     <cfRule type="duplicateValues" dxfId="123" priority="126"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:B108">
-    <cfRule type="duplicateValues" dxfId="122" priority="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="121" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" dxfId="120" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112">
-    <cfRule type="duplicateValues" dxfId="118" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="117" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
-    <cfRule type="duplicateValues" dxfId="115" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="114" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="116"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="duplicateValues" dxfId="112" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="111" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="duplicateValues" dxfId="109" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="108" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="106" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="105" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="103" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="102" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
+    <cfRule type="duplicateValues" dxfId="110" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="duplicateValues" dxfId="109" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119">
+    <cfRule type="duplicateValues" dxfId="107" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="duplicateValues" dxfId="106" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120">
+    <cfRule type="duplicateValues" dxfId="104" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="duplicateValues" dxfId="103" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121">
+    <cfRule type="duplicateValues" dxfId="101" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113:B121">
     <cfRule type="duplicateValues" dxfId="100" priority="102"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
+  <conditionalFormatting sqref="A122">
     <cfRule type="duplicateValues" dxfId="99" priority="100"/>
     <cfRule type="duplicateValues" dxfId="98" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B119">
+  <conditionalFormatting sqref="B122">
     <cfRule type="duplicateValues" dxfId="97" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
+  <conditionalFormatting sqref="A123">
     <cfRule type="duplicateValues" dxfId="96" priority="97"/>
     <cfRule type="duplicateValues" dxfId="95" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B120">
+  <conditionalFormatting sqref="B123">
     <cfRule type="duplicateValues" dxfId="94" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112:B120">
+  <conditionalFormatting sqref="A123:B123">
     <cfRule type="duplicateValues" dxfId="93" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
+  <conditionalFormatting sqref="A124">
     <cfRule type="duplicateValues" dxfId="92" priority="93"/>
     <cfRule type="duplicateValues" dxfId="91" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121">
+  <conditionalFormatting sqref="B124">
     <cfRule type="duplicateValues" dxfId="90" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="89" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="91"/>
+  <conditionalFormatting sqref="B130:B1048576 B74:B94 B1 B3:B19 B100:B124 B24:B65">
+    <cfRule type="duplicateValues" dxfId="89" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="88" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
     <cfRule type="duplicateValues" dxfId="87" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="86" priority="88"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="86" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="85" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="85" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
+  <conditionalFormatting sqref="A2:B2">
+    <cfRule type="duplicateValues" dxfId="84" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
     <cfRule type="duplicateValues" dxfId="83" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B129:B1048576 B73:B93 B1 B3:B19 B99:B123 B22:B64">
+  <conditionalFormatting sqref="B125:B126">
     <cfRule type="duplicateValues" dxfId="82" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+  <conditionalFormatting sqref="B125:B126">
     <cfRule type="duplicateValues" dxfId="81" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
+  <conditionalFormatting sqref="B125">
     <cfRule type="duplicateValues" dxfId="80" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="79" priority="79"/>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="79" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
+  <conditionalFormatting sqref="B126">
     <cfRule type="duplicateValues" dxfId="78" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="77" priority="81"/>
+  <conditionalFormatting sqref="A125">
+    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="76" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B125">
+  <conditionalFormatting sqref="A125">
     <cfRule type="duplicateValues" dxfId="75" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B125">
-    <cfRule type="duplicateValues" dxfId="74" priority="76"/>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="duplicateValues" dxfId="73" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
+  <conditionalFormatting sqref="A126">
     <cfRule type="duplicateValues" dxfId="72" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="71" priority="73"/>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="71" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="70" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="72"/>
+  <conditionalFormatting sqref="B67:B69">
+    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="68" priority="70"/>
+  <conditionalFormatting sqref="B67:B69">
+    <cfRule type="duplicateValues" dxfId="69" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="67" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="69"/>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="duplicateValues" dxfId="68" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="65" priority="67"/>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="67" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="66" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="65" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:B1048576 A1:B19 A74:B95 A99:B126 A24:B69">
     <cfRule type="duplicateValues" dxfId="64" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B68">
+  <conditionalFormatting sqref="B70">
     <cfRule type="duplicateValues" dxfId="63" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B68">
+  <conditionalFormatting sqref="B70">
     <cfRule type="duplicateValues" dxfId="62" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
+  <conditionalFormatting sqref="B70">
     <cfRule type="duplicateValues" dxfId="61" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="A70">
     <cfRule type="duplicateValues" dxfId="60" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="A70">
     <cfRule type="duplicateValues" dxfId="59" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
+  <conditionalFormatting sqref="B127">
     <cfRule type="duplicateValues" dxfId="58" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A129:B1048576 A1:B19 A73:B94 A98:B125 A22:B68">
+  <conditionalFormatting sqref="B127">
     <cfRule type="duplicateValues" dxfId="57" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B127">
     <cfRule type="duplicateValues" dxfId="56" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="55" priority="53"/>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="duplicateValues" dxfId="55" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="54" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="A127">
     <cfRule type="duplicateValues" dxfId="53" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="B130:B1048576 B1:B19 B99:B127 B74:B95 B24:B70">
     <cfRule type="duplicateValues" dxfId="52" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="51" priority="49"/>
+  <conditionalFormatting sqref="A128:A129">
+    <cfRule type="duplicateValues" dxfId="51" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="50" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
+  <conditionalFormatting sqref="A128:B129">
     <cfRule type="duplicateValues" dxfId="49" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="48" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="46"/>
+  <conditionalFormatting sqref="B128">
+    <cfRule type="duplicateValues" dxfId="48" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
+  <conditionalFormatting sqref="B129">
+    <cfRule type="duplicateValues" dxfId="47" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:B129">
     <cfRule type="duplicateValues" dxfId="46" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B129:B1048576 B1:B19 B98:B126 B73:B94 B22:B69">
+  <conditionalFormatting sqref="B128:B129">
     <cfRule type="duplicateValues" dxfId="45" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:A128">
+  <conditionalFormatting sqref="A128:B129">
     <cfRule type="duplicateValues" dxfId="44" priority="41"/>
     <cfRule type="duplicateValues" dxfId="43" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:B128">
+  <conditionalFormatting sqref="A128:B129">
     <cfRule type="duplicateValues" dxfId="42" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="41" priority="39"/>
+  <conditionalFormatting sqref="B95 B99">
+    <cfRule type="duplicateValues" dxfId="41" priority="452"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="40" priority="38"/>
+  <conditionalFormatting sqref="B95 B99">
+    <cfRule type="duplicateValues" dxfId="40" priority="454"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B128">
-    <cfRule type="duplicateValues" dxfId="39" priority="37"/>
+  <conditionalFormatting sqref="A95 A99">
+    <cfRule type="duplicateValues" dxfId="39" priority="456"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B128">
-    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:B128">
-    <cfRule type="duplicateValues" dxfId="37" priority="34"/>
+  <conditionalFormatting sqref="A97:B97">
+    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:B97">
     <cfRule type="duplicateValues" dxfId="36" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:B128">
-    <cfRule type="duplicateValues" dxfId="35" priority="33"/>
+  <conditionalFormatting sqref="B96:B97">
+    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94 B98">
-    <cfRule type="duplicateValues" dxfId="34" priority="445"/>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="duplicateValues" dxfId="34" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94 B98">
-    <cfRule type="duplicateValues" dxfId="33" priority="447"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94 A98">
-    <cfRule type="duplicateValues" dxfId="32" priority="449"/>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="duplicateValues" dxfId="33" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
     <cfRule type="duplicateValues" dxfId="31" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96:B96">
-    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96:B96">
-    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B96">
-    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="duplicateValues" dxfId="26" priority="32"/>
+  <conditionalFormatting sqref="A71:B71">
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
+  <conditionalFormatting sqref="B71">
     <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
-    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
+  <conditionalFormatting sqref="B71">
     <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
+  <conditionalFormatting sqref="B71">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A72:A73">
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B70">
+  <conditionalFormatting sqref="A72:B73">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B72:B73">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B72:B73">
     <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B72:B73">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B72:B73">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B72:B73">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A72">
+  <conditionalFormatting sqref="A20:A21">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B72">
+  <conditionalFormatting sqref="A20:A21">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
+  <conditionalFormatting sqref="A20:B21">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
+  <conditionalFormatting sqref="A20:B21">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
+  <conditionalFormatting sqref="B20:B21">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
+  <conditionalFormatting sqref="B24:B1048576 B1:B21">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
+  <conditionalFormatting sqref="A24:A1048576 A1:A21">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A21">
+  <conditionalFormatting sqref="A22:A23">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A21">
+  <conditionalFormatting sqref="A22:A23">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B21">
+  <conditionalFormatting sqref="A22:B23">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B21">
+  <conditionalFormatting sqref="A22:B23">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21">
+  <conditionalFormatting sqref="B22:B23">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="A22:A23">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A22:A23">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19390,265 +19597,265 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A52:A68 A70:A1048576 A16">
-    <cfRule type="duplicateValues" dxfId="468" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="467" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="466" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="465" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="464" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="463" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="462" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="461" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="460" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="459" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="458" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="457" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="456" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="455" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="454" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="453" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="452" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="451" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="450" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="449" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="448" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="447" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="446" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="445" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="444" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="443" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="442" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="441" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="440" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="439" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A30">
-    <cfRule type="duplicateValues" dxfId="438" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B30">
-    <cfRule type="duplicateValues" dxfId="437" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="436" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="435" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B32">
-    <cfRule type="duplicateValues" dxfId="434" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B32 A51:B1048576">
-    <cfRule type="duplicateValues" dxfId="433" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B32 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="432" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A39">
-    <cfRule type="duplicateValues" dxfId="431" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B39">
-    <cfRule type="duplicateValues" dxfId="430" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B39">
-    <cfRule type="duplicateValues" dxfId="429" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="428" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="427" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="426" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="duplicateValues" dxfId="425" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="424" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="423" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="422" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="duplicateValues" dxfId="421" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="420" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="419" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B43 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="418" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="417" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B46 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="416" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B76">
-    <cfRule type="duplicateValues" dxfId="415" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B78">
-    <cfRule type="duplicateValues" dxfId="414" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87 B51:B78 B93">
-    <cfRule type="duplicateValues" dxfId="413" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="412" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B85">
-    <cfRule type="duplicateValues" dxfId="411" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B85">
-    <cfRule type="duplicateValues" dxfId="410" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="409" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="408" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="407" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="406" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B46 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="405" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="404" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="403" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="402" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="401" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="400" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="399" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="398" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="397" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="396" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="395" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B48">
-    <cfRule type="duplicateValues" dxfId="394" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="393" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="392" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="391" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="390" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="389" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A50">
-    <cfRule type="duplicateValues" dxfId="388" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B50">
-    <cfRule type="duplicateValues" dxfId="387" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="386" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="385" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="384" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="383" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="382" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19660,10 +19867,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26103,166 +26310,166 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A64:A67 A1 A69:A70 A72:A77 A79:A86 A88:A91 A93:A97 A99:A1048576 A29:A32 A54:A58 A60:A62 A34:A52">
-    <cfRule type="duplicateValues" dxfId="381" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="380" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="379" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="378" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="377" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="376" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="375" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="374" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53 B56:B61 B64:B65">
-    <cfRule type="duplicateValues" dxfId="373" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="372" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="371" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="370" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="369" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="368" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="367" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="366" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 A1:B14 A27:B1048576">
-    <cfRule type="duplicateValues" dxfId="365" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B17 A27:B1048576">
-    <cfRule type="duplicateValues" dxfId="364" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="duplicateValues" dxfId="363" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="duplicateValues" dxfId="362" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="361" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="360" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="359" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="358" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40 B27:B37 B42">
-    <cfRule type="duplicateValues" dxfId="357" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B40 B42">
-    <cfRule type="duplicateValues" dxfId="356" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B39">
-    <cfRule type="duplicateValues" dxfId="355" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="354" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B44">
-    <cfRule type="duplicateValues" dxfId="353" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B21 B27:B1048576">
-    <cfRule type="duplicateValues" dxfId="352" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20 B21">
-    <cfRule type="duplicateValues" dxfId="351" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="350" priority="400"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="400"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="349" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="348" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="duplicateValues" dxfId="347" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="duplicateValues" dxfId="346" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="345" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="344" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="343" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="342" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="341" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="340" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="339" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="338" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="337" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="336" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="335" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="334" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="333" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="332" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="331" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="330" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="329" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="328" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26351,7 +26558,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="327" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31901,40 +32108,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A14:A29 A1 A31:A44 A46:A50 A52:A110 B14:B17 A112:A1048576">
-    <cfRule type="duplicateValues" dxfId="326" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="325" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="324" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="323" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="322" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A23">
-    <cfRule type="duplicateValues" dxfId="321" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="320" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="319" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="duplicateValues" dxfId="318" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="317" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B1048576 A1:B9">
-    <cfRule type="duplicateValues" dxfId="316" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="315" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -37988,16 +38195,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="314" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="313" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="312" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="311" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -44035,7 +44242,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="310" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44392,212 +44599,212 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="309" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A1048576 A1 A19:A22">
-    <cfRule type="duplicateValues" dxfId="308" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="307" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="306" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="305" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="304" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="303" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="301" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="300" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="299" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="298" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="297" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="296" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="295" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="294" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="293" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="292" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="291" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="290" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="289" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="288" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="287" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="286" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="285" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="284" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="283" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="282" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="281" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="280" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="279" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="278" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="277" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B10 A19:B1048576">
-    <cfRule type="duplicateValues" dxfId="276" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="275" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="274" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="273" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="272" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="271" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="270" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="269" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="268" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="267" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="266" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="265" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="duplicateValues" dxfId="264" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="263" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="262" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="261" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="260" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="259" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="258" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="257" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B27">
-    <cfRule type="duplicateValues" dxfId="256" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="255" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="254" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B19:B1048576">
-    <cfRule type="duplicateValues" dxfId="253" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="252" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="251" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="250" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="249" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="248" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="247" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="246" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="245" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="244" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="243" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="242" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="241" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="240" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="239" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="238" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="237" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="236" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="235" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="234" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="233" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="232" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="231" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G18">
-    <cfRule type="duplicateValues" dxfId="230" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G18">
-    <cfRule type="duplicateValues" dxfId="228" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50560,7 +50767,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="227" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -25,12 +25,11 @@
     <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="252">
   <si>
     <t>ObjectName</t>
   </si>
@@ -781,6 +780,12 @@
   <si>
     <t>//a[@title='Home']</t>
   </si>
+  <si>
+    <t>//input[@class='siebui-ctrl-input ']</t>
+  </si>
+  <si>
+    <t>NumberReservationToken</t>
+  </si>
 </sst>
 </file>
 
@@ -917,7 +922,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="523">
+  <dxfs count="534">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -946,6 +958,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -956,6 +975,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1023,6 +1049,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1043,13 +1076,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1090,6 +1116,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1110,13 +1143,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1157,6 +1183,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1177,20 +1210,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1201,13 +1220,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1218,13 +1230,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1235,13 +1240,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1252,6 +1250,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1262,6 +1274,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1279,13 +1298,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1333,6 +1345,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1343,6 +1369,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1483,13 +1516,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1547,13 +1573,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1601,6 +1620,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1631,6 +1657,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1721,13 +1754,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1748,13 +1774,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1775,6 +1794,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1795,6 +1821,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2145,13 +2178,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2162,20 +2188,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2186,41 +2198,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2231,13 +2208,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2248,6 +2218,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2272,41 +2249,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2317,6 +2259,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2334,13 +2311,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2361,6 +2331,55 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2371,13 +2390,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2388,6 +2400,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2408,13 +2434,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2425,6 +2444,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2445,20 +2471,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2469,6 +2481,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2479,104 +2498,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2587,97 +2508,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2695,6 +2525,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2722,6 +2559,97 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2739,6 +2667,90 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2749,6 +2761,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2803,13 +2822,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2820,13 +2832,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2973,6 +2978,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3007,13 +3019,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3024,6 +3029,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3044,6 +3056,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3054,6 +3073,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3824,55 +3857,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3883,20 +3867,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3907,62 +3877,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3983,6 +3897,55 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3993,6 +3956,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4003,6 +3980,69 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4013,6 +4053,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5503,6 +5550,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5530,6 +5584,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5540,6 +5601,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5550,6 +5618,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5563,6 +5638,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5869,9 +5954,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11555,124 +11640,124 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21:A1048576">
-    <cfRule type="duplicateValues" dxfId="515" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21:A1048576">
-    <cfRule type="duplicateValues" dxfId="514" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="513" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="512" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="511" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="510" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="509" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="508" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="507" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="506" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="505" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="504" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="503" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="502" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="501" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="500" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="499" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="498" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="497" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="496" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="495" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="494" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="493" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="492" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="491" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="490" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="489" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="488" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="487" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="486" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B18 B21:B1048576">
-    <cfRule type="duplicateValues" dxfId="485" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="484" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="483" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="482" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="481" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="480" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="479" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="478" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="477" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="476" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -11718,7 +11803,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="233" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11726,10 +11811,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12502,891 +12587,935 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="4"/>
+      <c r="A99" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="8"/>
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B119" s="5" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B122" s="5" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>217</v>
+      <c r="A125" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B131" s="4" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B130:B1048576 B111:B112 B74:B75 B1 B24 B100:B101">
-    <cfRule type="duplicateValues" dxfId="232" priority="233"/>
+  <conditionalFormatting sqref="B132:B1048576 B113:B114 B74:B75 B1 B24 B103">
+    <cfRule type="duplicateValues" dxfId="240" priority="241"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A130:A1048576 A111:A112 A74:A75 A1 A24 A100:A101">
-    <cfRule type="duplicateValues" dxfId="231" priority="426"/>
+  <conditionalFormatting sqref="A132:A1048576 A113:A114 A74:A75 A1 A24 A103">
+    <cfRule type="duplicateValues" dxfId="239" priority="434"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A130:B1048576 A111:B112 A74:B75 A1:B1 A24:B24 A100:B101">
-    <cfRule type="duplicateValues" dxfId="230" priority="429"/>
+  <conditionalFormatting sqref="A132:B1048576 A113:B114 A74:B75 A1:B1 A24:B24 A103:B103">
+    <cfRule type="duplicateValues" dxfId="238" priority="437"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75">
-    <cfRule type="duplicateValues" dxfId="229" priority="432"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
+    <cfRule type="duplicateValues" dxfId="236" priority="240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3 A16 A18:A19">
+    <cfRule type="duplicateValues" dxfId="235" priority="239"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="234" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="233" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="232" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="231" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="230" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="229" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="228" priority="232"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3 A16 A18:A19">
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="227" priority="231"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="226" priority="230"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="225" priority="229"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="224" priority="228"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="223" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="222" priority="226"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="221" priority="225"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="220" priority="224"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="219" priority="223"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="218" priority="222"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="217" priority="221"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="216" priority="220"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="215" priority="219"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A14">
     <cfRule type="duplicateValues" dxfId="214" priority="218"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A14">
     <cfRule type="duplicateValues" dxfId="213" priority="217"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+  <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
     <cfRule type="duplicateValues" dxfId="212" priority="216"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+  <conditionalFormatting sqref="A3:B14">
     <cfRule type="duplicateValues" dxfId="211" priority="215"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A11:A14">
     <cfRule type="duplicateValues" dxfId="210" priority="214"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A11:A14">
     <cfRule type="duplicateValues" dxfId="209" priority="213"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="208" priority="212"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="207" priority="211"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
+  <conditionalFormatting sqref="B3:B16 B18:B19">
     <cfRule type="duplicateValues" dxfId="206" priority="210"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
+  <conditionalFormatting sqref="A17">
     <cfRule type="duplicateValues" dxfId="205" priority="209"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
+  <conditionalFormatting sqref="A17">
     <cfRule type="duplicateValues" dxfId="204" priority="208"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B14">
+  <conditionalFormatting sqref="A25 A39">
     <cfRule type="duplicateValues" dxfId="203" priority="207"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A14">
+  <conditionalFormatting sqref="A26">
     <cfRule type="duplicateValues" dxfId="202" priority="206"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A14">
+  <conditionalFormatting sqref="A27">
     <cfRule type="duplicateValues" dxfId="201" priority="205"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
+  <conditionalFormatting sqref="A28">
     <cfRule type="duplicateValues" dxfId="200" priority="204"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
+  <conditionalFormatting sqref="A29">
     <cfRule type="duplicateValues" dxfId="199" priority="203"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B16 B18:B19">
+  <conditionalFormatting sqref="A30">
     <cfRule type="duplicateValues" dxfId="198" priority="202"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
+  <conditionalFormatting sqref="A31:A32">
     <cfRule type="duplicateValues" dxfId="197" priority="201"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
+  <conditionalFormatting sqref="A33">
     <cfRule type="duplicateValues" dxfId="196" priority="200"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25 A39">
+  <conditionalFormatting sqref="A34">
     <cfRule type="duplicateValues" dxfId="195" priority="199"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A36">
     <cfRule type="duplicateValues" dxfId="194" priority="198"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A35">
     <cfRule type="duplicateValues" dxfId="193" priority="197"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A37">
     <cfRule type="duplicateValues" dxfId="192" priority="196"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A38">
     <cfRule type="duplicateValues" dxfId="191" priority="195"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A38">
     <cfRule type="duplicateValues" dxfId="190" priority="194"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:A32">
+  <conditionalFormatting sqref="A40">
     <cfRule type="duplicateValues" dxfId="189" priority="193"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
+  <conditionalFormatting sqref="A41">
     <cfRule type="duplicateValues" dxfId="188" priority="192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A42">
     <cfRule type="duplicateValues" dxfId="187" priority="191"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A43">
     <cfRule type="duplicateValues" dxfId="186" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A44">
     <cfRule type="duplicateValues" dxfId="185" priority="189"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
+  <conditionalFormatting sqref="A45">
     <cfRule type="duplicateValues" dxfId="184" priority="188"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A46">
     <cfRule type="duplicateValues" dxfId="183" priority="187"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A47">
     <cfRule type="duplicateValues" dxfId="182" priority="186"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
+  <conditionalFormatting sqref="A48">
     <cfRule type="duplicateValues" dxfId="181" priority="185"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
+  <conditionalFormatting sqref="A49">
     <cfRule type="duplicateValues" dxfId="180" priority="184"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
+  <conditionalFormatting sqref="A50">
     <cfRule type="duplicateValues" dxfId="179" priority="183"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+  <conditionalFormatting sqref="A51">
     <cfRule type="duplicateValues" dxfId="178" priority="182"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
+  <conditionalFormatting sqref="A52">
     <cfRule type="duplicateValues" dxfId="177" priority="181"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
+  <conditionalFormatting sqref="A53">
     <cfRule type="duplicateValues" dxfId="176" priority="180"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
+  <conditionalFormatting sqref="A41:A53">
     <cfRule type="duplicateValues" dxfId="175" priority="179"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="B41:B53">
     <cfRule type="duplicateValues" dxfId="174" priority="178"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A54">
     <cfRule type="duplicateValues" dxfId="173" priority="177"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
+  <conditionalFormatting sqref="A55">
     <cfRule type="duplicateValues" dxfId="172" priority="176"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
+  <conditionalFormatting sqref="B41:B55">
     <cfRule type="duplicateValues" dxfId="171" priority="175"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A25:B55">
     <cfRule type="duplicateValues" dxfId="170" priority="174"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
+  <conditionalFormatting sqref="B25:B55">
     <cfRule type="duplicateValues" dxfId="169" priority="173"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A56:A62">
     <cfRule type="duplicateValues" dxfId="168" priority="172"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A53">
+  <conditionalFormatting sqref="B56:B62">
     <cfRule type="duplicateValues" dxfId="167" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B53">
+  <conditionalFormatting sqref="A56:B62">
     <cfRule type="duplicateValues" dxfId="166" priority="170"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
+  <conditionalFormatting sqref="B62">
     <cfRule type="duplicateValues" dxfId="165" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
+  <conditionalFormatting sqref="A63">
     <cfRule type="duplicateValues" dxfId="164" priority="168"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B55">
+  <conditionalFormatting sqref="B63">
     <cfRule type="duplicateValues" dxfId="163" priority="167"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B55">
+  <conditionalFormatting sqref="A63:B63">
     <cfRule type="duplicateValues" dxfId="162" priority="166"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B55">
+  <conditionalFormatting sqref="B63">
     <cfRule type="duplicateValues" dxfId="161" priority="165"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A62">
+  <conditionalFormatting sqref="A64">
     <cfRule type="duplicateValues" dxfId="160" priority="164"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:B62">
+  <conditionalFormatting sqref="A65">
     <cfRule type="duplicateValues" dxfId="159" priority="163"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B62">
+  <conditionalFormatting sqref="A65:B65">
     <cfRule type="duplicateValues" dxfId="158" priority="162"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
+  <conditionalFormatting sqref="B65">
     <cfRule type="duplicateValues" dxfId="157" priority="161"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="156" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="155" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="duplicateValues" dxfId="154" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="153" priority="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="152" priority="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="151" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:B65">
-    <cfRule type="duplicateValues" dxfId="150" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="149" priority="153"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="148" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84 A78:A79 A81:A82">
-    <cfRule type="duplicateValues" dxfId="147" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="146" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:B86">
-    <cfRule type="duplicateValues" dxfId="145" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="144" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="143" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="142" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:B91 A76:B88">
-    <cfRule type="duplicateValues" dxfId="141" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B91">
-    <cfRule type="duplicateValues" dxfId="140" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:A90">
-    <cfRule type="duplicateValues" dxfId="139" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:B90">
-    <cfRule type="duplicateValues" dxfId="138" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="145" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="duplicateValues" dxfId="144" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="143" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:B94">
+    <cfRule type="duplicateValues" dxfId="142" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="141" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="140" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:B110">
+    <cfRule type="duplicateValues" dxfId="139" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="duplicateValues" dxfId="138" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:B111">
     <cfRule type="duplicateValues" dxfId="137" priority="140"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="136" priority="139"/>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="duplicateValues" dxfId="136" priority="138"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="135" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B94">
+  <conditionalFormatting sqref="A115">
+    <cfRule type="duplicateValues" dxfId="135" priority="136"/>
     <cfRule type="duplicateValues" dxfId="134" priority="137"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="133" priority="136"/>
+  <conditionalFormatting sqref="B115">
+    <cfRule type="duplicateValues" dxfId="133" priority="135"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="132" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A108:B108">
+  <conditionalFormatting sqref="A116">
+    <cfRule type="duplicateValues" dxfId="132" priority="133"/>
     <cfRule type="duplicateValues" dxfId="131" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="130" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102:B109">
-    <cfRule type="duplicateValues" dxfId="129" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="duplicateValues" dxfId="128" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="127" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
-    <cfRule type="duplicateValues" dxfId="125" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="124" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B114">
-    <cfRule type="duplicateValues" dxfId="122" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="121" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B115">
-    <cfRule type="duplicateValues" dxfId="119" priority="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="118" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="120"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="116" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="115" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="113" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="112" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="110" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="109" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="107" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="106" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="duplicateValues" dxfId="104" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="103" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
+    <cfRule type="duplicateValues" dxfId="115" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="duplicateValues" dxfId="114" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="duplicateValues" dxfId="112" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="111" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="duplicateValues" dxfId="109" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115:B123">
+    <cfRule type="duplicateValues" dxfId="108" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124">
+    <cfRule type="duplicateValues" dxfId="107" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="duplicateValues" dxfId="105" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
+    <cfRule type="duplicateValues" dxfId="104" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="102" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:B125">
     <cfRule type="duplicateValues" dxfId="101" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113:B121">
-    <cfRule type="duplicateValues" dxfId="100" priority="102"/>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="duplicateValues" dxfId="100" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="102"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="99" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="101"/>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="duplicateValues" dxfId="98" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
+  <conditionalFormatting sqref="B132:B1048576 B74:B94 B1 B3:B19 B103:B126 B24:B65">
     <cfRule type="duplicateValues" dxfId="97" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="96" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="98"/>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="96" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="94" priority="96"/>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="duplicateValues" dxfId="95" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123:B123">
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="94" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="93" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="92" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="94"/>
+  <conditionalFormatting sqref="A2:B2">
+    <cfRule type="duplicateValues" dxfId="92" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="91" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127:B128">
     <cfRule type="duplicateValues" dxfId="90" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B130:B1048576 B74:B94 B1 B3:B19 B100:B124 B24:B65">
+  <conditionalFormatting sqref="B127:B128">
     <cfRule type="duplicateValues" dxfId="89" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="B127">
     <cfRule type="duplicateValues" dxfId="88" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
+  <conditionalFormatting sqref="B127">
     <cfRule type="duplicateValues" dxfId="87" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="86" priority="86"/>
+  <conditionalFormatting sqref="B128">
+    <cfRule type="duplicateValues" dxfId="86" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="85" priority="87"/>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="duplicateValues" dxfId="85" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="84" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="A127">
     <cfRule type="duplicateValues" dxfId="83" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125:B126">
-    <cfRule type="duplicateValues" dxfId="82" priority="84"/>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="duplicateValues" dxfId="82" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125:B126">
-    <cfRule type="duplicateValues" dxfId="81" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="A128">
     <cfRule type="duplicateValues" dxfId="80" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="79" priority="81"/>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="78" priority="80"/>
+  <conditionalFormatting sqref="B67:B69">
+    <cfRule type="duplicateValues" dxfId="78" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="79"/>
+  <conditionalFormatting sqref="B67:B69">
+    <cfRule type="duplicateValues" dxfId="77" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="75" priority="77"/>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="duplicateValues" dxfId="76" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="75" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="72" priority="74"/>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="74" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="73" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:B1048576 A1:B19 A74:B95 A103:B128 A24:B69">
+    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="duplicateValues" dxfId="71" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B69">
+  <conditionalFormatting sqref="B70">
     <cfRule type="duplicateValues" dxfId="70" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B69">
+  <conditionalFormatting sqref="B70">
     <cfRule type="duplicateValues" dxfId="69" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="A70">
     <cfRule type="duplicateValues" dxfId="68" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="A70">
     <cfRule type="duplicateValues" dxfId="67" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="B129">
     <cfRule type="duplicateValues" dxfId="66" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="B129">
     <cfRule type="duplicateValues" dxfId="65" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A130:B1048576 A1:B19 A74:B95 A99:B126 A24:B69">
+  <conditionalFormatting sqref="B129">
     <cfRule type="duplicateValues" dxfId="64" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
+  <conditionalFormatting sqref="A129">
+    <cfRule type="duplicateValues" dxfId="63" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="A129">
     <cfRule type="duplicateValues" dxfId="61" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="B132:B1048576 B1:B19 B103:B129 B74:B95 B24:B70">
     <cfRule type="duplicateValues" dxfId="60" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="59" priority="57"/>
+  <conditionalFormatting sqref="A130:A131">
+    <cfRule type="duplicateValues" dxfId="59" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="58" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
+  <conditionalFormatting sqref="A130:B131">
     <cfRule type="duplicateValues" dxfId="57" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
+  <conditionalFormatting sqref="B130">
     <cfRule type="duplicateValues" dxfId="56" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="55" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="53"/>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="duplicateValues" dxfId="55" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
+  <conditionalFormatting sqref="B130:B131">
+    <cfRule type="duplicateValues" dxfId="54" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130:B131">
     <cfRule type="duplicateValues" dxfId="53" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B130:B1048576 B1:B19 B99:B127 B74:B95 B24:B70">
-    <cfRule type="duplicateValues" dxfId="52" priority="50"/>
+  <conditionalFormatting sqref="A130:B131">
+    <cfRule type="duplicateValues" dxfId="52" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:A129">
-    <cfRule type="duplicateValues" dxfId="51" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="49"/>
+  <conditionalFormatting sqref="A130:B131">
+    <cfRule type="duplicateValues" dxfId="50" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B129">
-    <cfRule type="duplicateValues" dxfId="49" priority="47"/>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="duplicateValues" dxfId="49" priority="460"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="48" priority="46"/>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="duplicateValues" dxfId="48" priority="462"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="47" priority="45"/>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="duplicateValues" dxfId="47" priority="464"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B129">
-    <cfRule type="duplicateValues" dxfId="46" priority="44"/>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="duplicateValues" dxfId="46" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B129">
-    <cfRule type="duplicateValues" dxfId="45" priority="43"/>
+  <conditionalFormatting sqref="A97:B97">
+    <cfRule type="duplicateValues" dxfId="45" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B129">
-    <cfRule type="duplicateValues" dxfId="44" priority="41"/>
+  <conditionalFormatting sqref="A97:B97">
+    <cfRule type="duplicateValues" dxfId="44" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B97">
     <cfRule type="duplicateValues" dxfId="43" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B129">
-    <cfRule type="duplicateValues" dxfId="42" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95 B99">
-    <cfRule type="duplicateValues" dxfId="41" priority="452"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95 B99">
-    <cfRule type="duplicateValues" dxfId="40" priority="454"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95 A99">
-    <cfRule type="duplicateValues" dxfId="39" priority="456"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:B97">
-    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:B97">
-    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96:B97">
-    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="duplicateValues" dxfId="42" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="duplicateValues" dxfId="34" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
-    <cfRule type="duplicateValues" dxfId="33" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
+    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="duplicateValues" dxfId="39" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="duplicateValues" dxfId="37" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B71">
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
     <cfRule type="duplicateValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
+  <conditionalFormatting sqref="B71">
     <cfRule type="duplicateValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+  <conditionalFormatting sqref="A72:A73">
     <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A72:B73">
     <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B71">
+  <conditionalFormatting sqref="B72:B73">
     <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B72:B73">
     <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B72:B73">
     <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B72:B73">
     <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B72:B73">
     <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="A20:A21">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A73">
+  <conditionalFormatting sqref="A20:A21">
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:B73">
+  <conditionalFormatting sqref="A20:B21">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B73">
+  <conditionalFormatting sqref="A20:B21">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B73">
+  <conditionalFormatting sqref="B20:B21">
     <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B73">
+  <conditionalFormatting sqref="B103:B1048576 B24:B98 B1:B21">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B73">
+  <conditionalFormatting sqref="A103:A1048576 A24:A98 A1:A21">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B73">
+  <conditionalFormatting sqref="A22:A23">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A21">
+  <conditionalFormatting sqref="A22:A23">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A21">
+  <conditionalFormatting sqref="A22:B23">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B21">
+  <conditionalFormatting sqref="A22:B23">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B21">
+  <conditionalFormatting sqref="B22:B23">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21">
+  <conditionalFormatting sqref="A22:A23">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B1048576 B1:B21">
+  <conditionalFormatting sqref="A22:A23">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A1048576 A1:A21">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A23">
+  <conditionalFormatting sqref="B99">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A23">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B23">
+  <conditionalFormatting sqref="A99">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B23">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="B100:B102">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B23">
+  <conditionalFormatting sqref="B100:B102">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A23">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B100:B102">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A23">
+  <conditionalFormatting sqref="A100:A102">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19597,265 +19726,265 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A52:A68 A70:A1048576 A16">
-    <cfRule type="duplicateValues" dxfId="475" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="474" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="473" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="472" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="471" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="470" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="469" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="468" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="467" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="466" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="465" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="464" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="463" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="462" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="461" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="460" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="459" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="458" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="457" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="456" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="455" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="454" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="453" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="452" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="451" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="450" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="449" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="448" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="447" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="446" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A30">
-    <cfRule type="duplicateValues" dxfId="445" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B30">
-    <cfRule type="duplicateValues" dxfId="444" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="443" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="442" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B32">
-    <cfRule type="duplicateValues" dxfId="441" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B32 A51:B1048576">
-    <cfRule type="duplicateValues" dxfId="440" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B32 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="439" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A39">
-    <cfRule type="duplicateValues" dxfId="438" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B39">
-    <cfRule type="duplicateValues" dxfId="437" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B39">
-    <cfRule type="duplicateValues" dxfId="436" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="435" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="434" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="433" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="duplicateValues" dxfId="432" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="431" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="430" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="429" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="duplicateValues" dxfId="428" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="427" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="426" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B43 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="425" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="424" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B46 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="423" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B76">
-    <cfRule type="duplicateValues" dxfId="422" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B78">
-    <cfRule type="duplicateValues" dxfId="421" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87 B51:B78 B93">
-    <cfRule type="duplicateValues" dxfId="420" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="419" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B85">
-    <cfRule type="duplicateValues" dxfId="418" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B85">
-    <cfRule type="duplicateValues" dxfId="417" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="416" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="415" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="414" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="413" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B46 B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="412" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="411" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="410" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="409" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="408" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="407" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="406" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="405" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="404" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="403" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="402" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B48">
-    <cfRule type="duplicateValues" dxfId="401" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="400" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="399" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="398" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="397" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="396" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A50">
-    <cfRule type="duplicateValues" dxfId="395" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B50">
-    <cfRule type="duplicateValues" dxfId="394" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="393" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="392" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="391" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="390" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="duplicateValues" dxfId="389" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19870,7 +19999,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20290,8 +20419,12 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -20299,7 +20432,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -26310,166 +26443,160 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A64:A67 A1 A69:A70 A72:A77 A79:A86 A88:A91 A93:A97 A99:A1048576 A29:A32 A54:A58 A60:A62 A34:A52">
-    <cfRule type="duplicateValues" dxfId="388" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="387" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="386" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="385" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="384" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="383" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="382" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="381" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53 B56:B61 B64:B65">
-    <cfRule type="duplicateValues" dxfId="380" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="379" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="378" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="377" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="376" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="375" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="374" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="373" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17 A1:B14 A27:B1048576">
-    <cfRule type="duplicateValues" dxfId="372" priority="50"/>
+  <conditionalFormatting sqref="A17:B17 A1:B14 A28:B1048576">
+    <cfRule type="duplicateValues" dxfId="378" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B17 A27:B1048576">
-    <cfRule type="duplicateValues" dxfId="371" priority="42"/>
+  <conditionalFormatting sqref="A1:B17 A28:B1048576">
+    <cfRule type="duplicateValues" dxfId="377" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="duplicateValues" dxfId="370" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="duplicateValues" dxfId="369" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="374" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="373" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="372" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="371" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40 B28:B37 B42">
+    <cfRule type="duplicateValues" dxfId="370" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B40 B42">
+    <cfRule type="duplicateValues" dxfId="369" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B39">
     <cfRule type="duplicateValues" dxfId="368" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="367" priority="40"/>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="duplicateValues" dxfId="367" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="366" priority="39"/>
+  <conditionalFormatting sqref="B28:B44">
+    <cfRule type="duplicateValues" dxfId="366" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="365" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40 B27:B37 B42">
-    <cfRule type="duplicateValues" dxfId="364" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B40 B42">
-    <cfRule type="duplicateValues" dxfId="363" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B39">
-    <cfRule type="duplicateValues" dxfId="362" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="361" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B44">
-    <cfRule type="duplicateValues" dxfId="360" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B21 B27:B1048576">
-    <cfRule type="duplicateValues" dxfId="359" priority="31"/>
+  <conditionalFormatting sqref="B1:B21 B28:B1048576">
+    <cfRule type="duplicateValues" dxfId="365" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20 B21">
-    <cfRule type="duplicateValues" dxfId="358" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="396"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="357" priority="400"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="356" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="361" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
+    <cfRule type="duplicateValues" dxfId="360" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
+    <cfRule type="duplicateValues" dxfId="359" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B23">
+    <cfRule type="duplicateValues" dxfId="358" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="357" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="356" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
     <cfRule type="duplicateValues" dxfId="355" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="duplicateValues" dxfId="354" priority="18"/>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="duplicateValues" dxfId="354" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="duplicateValues" dxfId="353" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="352" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="351" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="350" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="349" priority="15"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="348" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="347" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="346" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="345" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="344" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="343" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="342" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="341" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="340" priority="6"/>
+  <conditionalFormatting sqref="B26:B27">
+    <cfRule type="duplicateValues" dxfId="346" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="339" priority="5"/>
+  <conditionalFormatting sqref="B26:B27">
+    <cfRule type="duplicateValues" dxfId="345" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="338" priority="4"/>
+  <conditionalFormatting sqref="B26:B27">
+    <cfRule type="duplicateValues" dxfId="344" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="337" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="336" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="335" priority="1"/>
+  <conditionalFormatting sqref="A26:A27">
+    <cfRule type="duplicateValues" dxfId="343" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26558,7 +26685,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="334" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32108,40 +32235,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A14:A29 A1 A31:A44 A46:A50 A52:A110 B14:B17 A112:A1048576">
-    <cfRule type="duplicateValues" dxfId="333" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="332" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="331" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="330" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="329" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A23">
-    <cfRule type="duplicateValues" dxfId="328" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="327" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="326" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="duplicateValues" dxfId="325" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="324" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B1048576 A1:B9">
-    <cfRule type="duplicateValues" dxfId="323" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="322" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -38195,16 +38322,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="321" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="320" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="319" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="318" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -44242,7 +44369,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="317" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44599,212 +44726,212 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="316" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A1048576 A1 A19:A22">
-    <cfRule type="duplicateValues" dxfId="315" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="314" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="313" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="312" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="311" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="310" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="309" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="308" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="307" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="306" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="305" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="304" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="303" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="302" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="301" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="300" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="299" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="298" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="297" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="296" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="295" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="294" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="293" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="292" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="291" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="290" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="289" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="288" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="287" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="286" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="285" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="284" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B10 A19:B1048576">
-    <cfRule type="duplicateValues" dxfId="283" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="282" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="281" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="280" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="279" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="278" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="277" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="276" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="275" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="274" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="273" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="272" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="duplicateValues" dxfId="271" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="270" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="269" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="268" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="267" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="266" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="265" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="264" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B27">
-    <cfRule type="duplicateValues" dxfId="263" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="262" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="261" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B19:B1048576">
-    <cfRule type="duplicateValues" dxfId="260" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="259" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="258" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="257" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="256" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="255" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="254" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="253" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="252" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="251" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="250" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="249" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="248" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="247" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="246" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="245" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="244" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="243" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="242" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="241" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="240" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="239" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="238" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G18">
-    <cfRule type="duplicateValues" dxfId="237" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="236" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G18">
-    <cfRule type="duplicateValues" dxfId="235" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50767,7 +50894,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="234" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="263">
   <si>
     <t>ObjectName</t>
   </si>
@@ -772,9 +772,6 @@
     <t>Account_Query</t>
   </si>
   <si>
-    <t>//button[@title='Accounts:Query']</t>
-  </si>
-  <si>
     <t>//td[@class="siebui-popup-filter"]//button[@data-display="Go"]</t>
   </si>
   <si>
@@ -786,12 +783,48 @@
   <si>
     <t>PopupQuery_List</t>
   </si>
+  <si>
+    <t>Acc_Summary</t>
+  </si>
+  <si>
+    <t>//table[@class='ui-jqgrid-btable']</t>
+  </si>
+  <si>
+    <t>//button[@title='Account:Query']</t>
+  </si>
+  <si>
+    <t>//button[@title='Account:Go']</t>
+  </si>
+  <si>
+    <t>Account_GO</t>
+  </si>
+  <si>
+    <t>Account_Go</t>
+  </si>
+  <si>
+    <t>Popup_OK</t>
+  </si>
+  <si>
+    <t>PopupQuery</t>
+  </si>
+  <si>
+    <t>//div[@class='AppletStylePopup']//span[@class='siebui-popup-button']//button[.='Query']</t>
+  </si>
+  <si>
+    <t>//div[@class='AppletStylePopup']//span[@class='siebui-popup-button']//button[.='OK']</t>
+  </si>
+  <si>
+    <t>//table[@summary='Billing Profile']</t>
+  </si>
+  <si>
+    <t>Bill_Selection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,6 +850,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -900,7 +940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -918,11 +958,524 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="414">
+  <dxfs count="457">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1044,66 +1597,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4545,52 +5038,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4679,9 +5129,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5227,7 +5680,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5587,6 +6040,22 @@
         <v>Browser.WebLink.click("VQ_Home");</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="str">
+        <f>IF(A22&lt;&gt;"","Browser.WebLink.click("&amp;CHAR(34)&amp;A22&amp;CHAR(34)&amp;");","")</f>
+        <v>Browser.WebLink.click("Acc_Summary");</v>
+      </c>
+    </row>
     <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" t="str">
         <f t="shared" ref="G108:G125" si="1">IF(A108&lt;&gt;"","Browser.WebLink.click("&amp;CHAR(34)&amp;A108&amp;CHAR(34)&amp;");","")</f>
@@ -10910,77 +11379,80 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21:A1048576">
-    <cfRule type="duplicateValues" dxfId="413" priority="46"/>
+  <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A23:A1048576">
+    <cfRule type="duplicateValues" dxfId="456" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21:A1048576">
-    <cfRule type="duplicateValues" dxfId="412" priority="45"/>
+  <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A23:A1048576">
+    <cfRule type="duplicateValues" dxfId="455" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="411" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="410" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="409" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="408" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="407" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="406" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="405" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="404" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="403" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="402" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="401" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="400" priority="22"/>
+  <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A23:B1048576">
+    <cfRule type="duplicateValues" dxfId="443" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B1048576">
-    <cfRule type="duplicateValues" dxfId="399" priority="17"/>
+  <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A23:B1048576">
+    <cfRule type="duplicateValues" dxfId="442" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="398" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="397" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B15 B17:B18 B21:B1048576">
-    <cfRule type="duplicateValues" dxfId="396" priority="10"/>
+  <conditionalFormatting sqref="B1:B15 B17:B18 B21 B23:B1048576">
+    <cfRule type="duplicateValues" dxfId="439" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="395" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="394" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="393" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="392" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="391" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="390" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="432" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -11026,7 +11498,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="185" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11034,10 +11506,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B132"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11220,1355 +11693,1433 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>248</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>120</v>
+        <v>84</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>247</v>
+      <c r="B74" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>201</v>
+      <c r="A75" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>49</v>
+      <c r="A76" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>50</v>
+        <v>257</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>21</v>
+      <c r="A79" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>110</v>
+        <v>51</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>160</v>
+        <v>107</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>180</v>
+        <v>145</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>222</v>
+        <v>109</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>224</v>
+        <v>159</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>242</v>
+        <v>179</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="7"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="7"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="7"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="7"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>112</v>
+      <c r="A121" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B126" s="5" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>216</v>
+      <c r="A128" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B133:B1048576 B112:B113 B74:B75 B1 B24 B102">
-    <cfRule type="duplicateValues" dxfId="184" priority="274"/>
+  <conditionalFormatting sqref="B137:B1048576 B116:B117 B79 B1 B25 B106">
+    <cfRule type="duplicateValues" dxfId="231" priority="299"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A133:B1048576 A112:B113 A74:B75 A1:B1 A24:B24 A102:B102">
-    <cfRule type="duplicateValues" dxfId="183" priority="470"/>
+  <conditionalFormatting sqref="A137:B1048576 A116:B117 A79:B79 A1:B1 A25:B25 A106:B106">
+    <cfRule type="duplicateValues" dxfId="230" priority="495"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B75">
-    <cfRule type="duplicateValues" dxfId="182" priority="473"/>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="duplicateValues" dxfId="229" priority="498"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="181" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="180" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="179" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="178" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="177" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="176" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="175" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="174" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="173" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="281"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="172" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="171" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="170" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="169" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="168" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="167" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="166" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="165" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="164" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="266"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="163" priority="227"/>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="210" priority="252"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:A52">
-    <cfRule type="duplicateValues" dxfId="162" priority="212"/>
+  <conditionalFormatting sqref="A41:A53">
+    <cfRule type="duplicateValues" dxfId="209" priority="237"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B52">
-    <cfRule type="duplicateValues" dxfId="161" priority="211"/>
+  <conditionalFormatting sqref="B41:B53">
+    <cfRule type="duplicateValues" dxfId="208" priority="236"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B54">
-    <cfRule type="duplicateValues" dxfId="160" priority="208"/>
+  <conditionalFormatting sqref="B41:B55">
+    <cfRule type="duplicateValues" dxfId="207" priority="233"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B61">
-    <cfRule type="duplicateValues" dxfId="159" priority="204"/>
+  <conditionalFormatting sqref="B56:B62">
+    <cfRule type="duplicateValues" dxfId="206" priority="229"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:B61">
-    <cfRule type="duplicateValues" dxfId="158" priority="203"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="duplicateValues" dxfId="157" priority="202"/>
+  <conditionalFormatting sqref="A56:B62">
+    <cfRule type="duplicateValues" dxfId="205" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="156" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="duplicateValues" dxfId="155" priority="199"/>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="duplicateValues" dxfId="203" priority="225"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="154" priority="198"/>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="duplicateValues" dxfId="202" priority="224"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="153" priority="195"/>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="duplicateValues" dxfId="201" priority="223"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="152" priority="194"/>
+  <conditionalFormatting sqref="A65:B65">
+    <cfRule type="duplicateValues" dxfId="200" priority="220"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:B91 A76:B84 A86:B88 B85">
-    <cfRule type="duplicateValues" dxfId="151" priority="183"/>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="duplicateValues" dxfId="199" priority="219"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:B84 A86:B91 B85">
-    <cfRule type="duplicateValues" dxfId="150" priority="182"/>
+  <conditionalFormatting sqref="A95:B95 A80:B88 A90:B92 B89">
+    <cfRule type="duplicateValues" dxfId="198" priority="208"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89:B90">
-    <cfRule type="duplicateValues" dxfId="149" priority="192"/>
+  <conditionalFormatting sqref="A80:B88 A90:B95 B89">
+    <cfRule type="duplicateValues" dxfId="197" priority="207"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="148" priority="176"/>
+  <conditionalFormatting sqref="A93:B94">
+    <cfRule type="duplicateValues" dxfId="196" priority="217"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:B107 A109:B110 B108">
-    <cfRule type="duplicateValues" dxfId="147" priority="173"/>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="duplicateValues" dxfId="195" priority="201"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="146" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B114">
-    <cfRule type="duplicateValues" dxfId="144" priority="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="143" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="167"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B115">
-    <cfRule type="duplicateValues" dxfId="141" priority="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="140" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="138" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="137" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="135" priority="159"/>
+  <conditionalFormatting sqref="A107:B111 A113:B114 B112">
+    <cfRule type="duplicateValues" dxfId="194" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="134" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="132" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="131" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="129" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="128" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="duplicateValues" dxfId="126" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="125" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
-    <cfRule type="duplicateValues" dxfId="123" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="122" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="120" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114:B122">
-    <cfRule type="duplicateValues" dxfId="119" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="118" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="116" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="115" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="duplicateValues" dxfId="113" priority="137"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124">
-    <cfRule type="duplicateValues" dxfId="112" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="111" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="109" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="172"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B133:B1048576 B74:B94 B1 B3:B19 B102:B125 B24:B27 B29:B64">
-    <cfRule type="duplicateValues" dxfId="108" priority="132"/>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="duplicateValues" dxfId="169" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="107" priority="130"/>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="duplicateValues" dxfId="167" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:B126">
+    <cfRule type="duplicateValues" dxfId="166" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="duplicateValues" dxfId="165" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="duplicateValues" dxfId="163" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="duplicateValues" dxfId="162" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128">
+    <cfRule type="duplicateValues" dxfId="160" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:B128">
+    <cfRule type="duplicateValues" dxfId="159" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129">
+    <cfRule type="duplicateValues" dxfId="158" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129">
+    <cfRule type="duplicateValues" dxfId="156" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137:B1048576 B79:B98 B1 B3:B19 B106:B129 B25:B28 B30:B65">
+    <cfRule type="duplicateValues" dxfId="155" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="duplicateValues" dxfId="154" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="106" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="105" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="104" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="151"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126:B127">
-    <cfRule type="duplicateValues" dxfId="103" priority="125"/>
+  <conditionalFormatting sqref="B130:B131">
+    <cfRule type="duplicateValues" dxfId="150" priority="150"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126:B127">
-    <cfRule type="duplicateValues" dxfId="102" priority="124"/>
+  <conditionalFormatting sqref="B130:B131">
+    <cfRule type="duplicateValues" dxfId="149" priority="149"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="101" priority="123"/>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="duplicateValues" dxfId="148" priority="148"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="100" priority="122"/>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="duplicateValues" dxfId="147" priority="147"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="99" priority="121"/>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="duplicateValues" dxfId="146" priority="146"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="98" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="120"/>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="duplicateValues" dxfId="145" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="145"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="96" priority="118"/>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="duplicateValues" dxfId="143" priority="143"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="95" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="117"/>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="duplicateValues" dxfId="142" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="142"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="93" priority="115"/>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="duplicateValues" dxfId="140" priority="140"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B68">
-    <cfRule type="duplicateValues" dxfId="92" priority="109"/>
+  <conditionalFormatting sqref="B67:B69">
+    <cfRule type="duplicateValues" dxfId="139" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B68">
-    <cfRule type="duplicateValues" dxfId="91" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="90" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="89" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133:B1048576 A1:B19 A74:B84 A102:B107 A24:B27 A86:B94 B85 A109:B127 B108 A29:B68">
-    <cfRule type="duplicateValues" dxfId="88" priority="103"/>
+  <conditionalFormatting sqref="B67:B69">
+    <cfRule type="duplicateValues" dxfId="138" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="87" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="86" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="85" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="84" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="83" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="82" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="81" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="80" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="78" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B133:B1048576 B1:B19 B102:B128 B24:B27 B74:B94 B29:B69">
-    <cfRule type="duplicateValues" dxfId="77" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:A130">
-    <cfRule type="duplicateValues" dxfId="76" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:B130">
-    <cfRule type="duplicateValues" dxfId="74" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="73" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="duplicateValues" dxfId="72" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:B130">
-    <cfRule type="duplicateValues" dxfId="71" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:B130">
-    <cfRule type="duplicateValues" dxfId="70" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:B130">
-    <cfRule type="duplicateValues" dxfId="69" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:B130">
-    <cfRule type="duplicateValues" dxfId="67" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:B96">
-    <cfRule type="duplicateValues" dxfId="66" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:B96">
-    <cfRule type="duplicateValues" dxfId="65" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B96">
-    <cfRule type="duplicateValues" dxfId="64" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="duplicateValues" dxfId="63" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
-    <cfRule type="duplicateValues" dxfId="62" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
-    <cfRule type="duplicateValues" dxfId="61" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B70">
-    <cfRule type="duplicateValues" dxfId="60" priority="68"/>
+  <conditionalFormatting sqref="A137:B1048576 A1:B19 A79:B88 A106:B111 A25:B28 A90:B98 B89 A113:B131 B112 A30:B69">
+    <cfRule type="duplicateValues" dxfId="135" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="59" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="58" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="57" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="125"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="56" priority="64"/>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="duplicateValues" dxfId="131" priority="123"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="55" priority="63"/>
+  <conditionalFormatting sqref="B132">
+    <cfRule type="duplicateValues" dxfId="130" priority="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B72">
-    <cfRule type="duplicateValues" dxfId="54" priority="61"/>
+  <conditionalFormatting sqref="B132">
+    <cfRule type="duplicateValues" dxfId="129" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
-    <cfRule type="duplicateValues" dxfId="53" priority="60"/>
+  <conditionalFormatting sqref="B132">
+    <cfRule type="duplicateValues" dxfId="128" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
-    <cfRule type="duplicateValues" dxfId="52" priority="59"/>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="duplicateValues" dxfId="127" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="119"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
-    <cfRule type="duplicateValues" dxfId="51" priority="58"/>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="duplicateValues" dxfId="125" priority="117"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
-    <cfRule type="duplicateValues" dxfId="50" priority="57"/>
+  <conditionalFormatting sqref="B137:B1048576 B1:B19 B106:B132 B25:B28 B79:B98 B30:B70">
+    <cfRule type="duplicateValues" dxfId="124" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
-    <cfRule type="duplicateValues" dxfId="49" priority="56"/>
+  <conditionalFormatting sqref="A133:A134">
+    <cfRule type="duplicateValues" dxfId="123" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133:B134">
+    <cfRule type="duplicateValues" dxfId="121" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B133">
+    <cfRule type="duplicateValues" dxfId="120" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134">
+    <cfRule type="duplicateValues" dxfId="119" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B133:B134">
+    <cfRule type="duplicateValues" dxfId="118" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B133:B134">
+    <cfRule type="duplicateValues" dxfId="117" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133:B134">
+    <cfRule type="duplicateValues" dxfId="116" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133:B134">
+    <cfRule type="duplicateValues" dxfId="114" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:B100">
+    <cfRule type="duplicateValues" dxfId="113" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:B100">
+    <cfRule type="duplicateValues" dxfId="112" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99:B100">
+    <cfRule type="duplicateValues" dxfId="111" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="duplicateValues" dxfId="110" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="109" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="108" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B71">
+    <cfRule type="duplicateValues" dxfId="107" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="106" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="105" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="104" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="103" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="102" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:B73">
+    <cfRule type="duplicateValues" dxfId="101" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B73">
+    <cfRule type="duplicateValues" dxfId="100" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B73">
+    <cfRule type="duplicateValues" dxfId="99" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B73">
+    <cfRule type="duplicateValues" dxfId="98" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B73">
+    <cfRule type="duplicateValues" dxfId="97" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B73">
+    <cfRule type="duplicateValues" dxfId="96" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="48" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="47" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="46" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="45" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B130 B24:B27 B1:B21 B133:B1048576 B74:B97 B29:B72">
-    <cfRule type="duplicateValues" dxfId="44" priority="50"/>
+  <conditionalFormatting sqref="B106:B134 B25:B28 B1:B21 B137:B1048576 B79:B101 B30:B73">
+    <cfRule type="duplicateValues" dxfId="91" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A107 A24:A27 A1:A21 A133:A1048576 A74:A84 A86:A97 A109:A130 A29:A72">
-    <cfRule type="duplicateValues" dxfId="43" priority="49"/>
+  <conditionalFormatting sqref="A106:A111 A25:A28 A1:A21 A137:A1048576 A79:A88 A90:A101 A113:A134 A30:A73">
+    <cfRule type="duplicateValues" dxfId="90" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A23">
-    <cfRule type="duplicateValues" dxfId="42" priority="47"/>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="89" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B23">
-    <cfRule type="duplicateValues" dxfId="41" priority="46"/>
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="duplicateValues" dxfId="88" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B23">
-    <cfRule type="duplicateValues" dxfId="40" priority="45"/>
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="duplicateValues" dxfId="87" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="39" priority="44"/>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="86" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A23">
-    <cfRule type="duplicateValues" dxfId="38" priority="42"/>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="85" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
+  <conditionalFormatting sqref="B102">
+    <cfRule type="duplicateValues" dxfId="84" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="36" priority="41"/>
+  <conditionalFormatting sqref="B102">
+    <cfRule type="duplicateValues" dxfId="83" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99:B101">
-    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
+  <conditionalFormatting sqref="B103:B105">
+    <cfRule type="duplicateValues" dxfId="82" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99:B101">
-    <cfRule type="duplicateValues" dxfId="34" priority="37"/>
+  <conditionalFormatting sqref="B103:B105">
+    <cfRule type="duplicateValues" dxfId="81" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="33" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="duplicateValues" dxfId="74" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A132:B132">
-    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
+  <conditionalFormatting sqref="A135:B135">
+    <cfRule type="duplicateValues" dxfId="72" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="30" priority="30"/>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="duplicateValues" dxfId="71" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="duplicateValues" dxfId="70" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="duplicateValues" dxfId="69" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+  <conditionalFormatting sqref="A135:B135">
+    <cfRule type="duplicateValues" dxfId="68" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131:B131">
-    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
+  <conditionalFormatting sqref="A135:B135">
+    <cfRule type="duplicateValues" dxfId="66" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="duplicateValues" dxfId="65" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="duplicateValues" dxfId="64" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="duplicateValues" dxfId="63" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131:B131">
-    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="duplicateValues" dxfId="62" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131:B131">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="duplicateValues" dxfId="61" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:B73">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="60" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="59" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="58" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="57" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="56" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="55" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  <conditionalFormatting sqref="A26:B28 A30:B55">
+    <cfRule type="duplicateValues" dxfId="54" priority="528"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+  <conditionalFormatting sqref="B26:B28 B30:B55">
+    <cfRule type="duplicateValues" dxfId="53" priority="531"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+  <conditionalFormatting sqref="A23:A24">
+    <cfRule type="duplicateValues" dxfId="52" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  <conditionalFormatting sqref="B74:B75 B78">
+    <cfRule type="duplicateValues" dxfId="51" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  <conditionalFormatting sqref="A74:A75 A78">
+    <cfRule type="duplicateValues" dxfId="50" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="B74:B75 B78">
+    <cfRule type="duplicateValues" dxfId="49" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B75 B78">
+    <cfRule type="duplicateValues" dxfId="48" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B75 B78">
+    <cfRule type="duplicateValues" dxfId="47" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B75 B78">
+    <cfRule type="duplicateValues" dxfId="46" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B75 B78">
+    <cfRule type="duplicateValues" dxfId="45" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:B136">
+    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:B77 B76">
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:B77">
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:B77">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:B77">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  <conditionalFormatting sqref="B76:B77">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  <conditionalFormatting sqref="B76:B77">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B27 A29:B54">
-    <cfRule type="duplicateValues" dxfId="1" priority="503"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B27 B29:B54">
-    <cfRule type="duplicateValues" dxfId="0" priority="506"/>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -12580,9 +13131,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12669,10 +13220,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -13111,7 +13662,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="str">
-        <f t="shared" ref="G32:G48" si="1">IF(A32&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A32&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G32:G51" si="1">IF(A32&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A32&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("Suspend");</v>
       </c>
     </row>
@@ -13360,7 +13911,7 @@
         <v>246</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -13372,31 +13923,52 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("Account_Go");</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("PopupQuery");</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("Popup_OK");</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
@@ -18736,197 +19308,185 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A49:A65 A1:A2 A67:A1048576 A15">
-    <cfRule type="duplicateValues" dxfId="389" priority="116"/>
+  <conditionalFormatting sqref="A51:A65 A1:A2 A67:A1048576 A15">
+    <cfRule type="duplicateValues" dxfId="431" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="388" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="387" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="386" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="385" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="384" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="383" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="382" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="381" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="380" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="379" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="378" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="377" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="376" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A29">
-    <cfRule type="duplicateValues" dxfId="375" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B29">
-    <cfRule type="duplicateValues" dxfId="374" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B31">
-    <cfRule type="duplicateValues" dxfId="373" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:B1048576 A1:B31">
-    <cfRule type="duplicateValues" dxfId="372" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B1048576 B1:B31">
-    <cfRule type="duplicateValues" dxfId="371" priority="63"/>
+  <conditionalFormatting sqref="A1:B31 A51:B1048576 B48:B50">
+    <cfRule type="duplicateValues" dxfId="414" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="370" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="369" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="duplicateValues" dxfId="368" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="367" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39">
-    <cfRule type="duplicateValues" dxfId="366" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="365" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B1048576 B1:B40">
-    <cfRule type="duplicateValues" dxfId="364" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B1048576 B1:B43">
-    <cfRule type="duplicateValues" dxfId="363" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B73">
-    <cfRule type="duplicateValues" dxfId="362" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B75">
-    <cfRule type="duplicateValues" dxfId="361" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84 B49:B75 B90">
-    <cfRule type="duplicateValues" dxfId="360" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="359" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B82">
-    <cfRule type="duplicateValues" dxfId="358" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B82">
-    <cfRule type="duplicateValues" dxfId="357" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="duplicateValues" dxfId="356" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="355" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="354" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="353" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B1048576">
-    <cfRule type="duplicateValues" dxfId="352" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="351" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="350" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="349" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="348" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="347" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="346" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B45">
-    <cfRule type="duplicateValues" dxfId="345" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="344" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="343" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="342" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="341" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="340" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B47">
-    <cfRule type="duplicateValues" dxfId="339" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="338" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="337" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="336" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="335" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="334" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B48">
-    <cfRule type="duplicateValues" dxfId="333" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="332" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="331" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="330" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="329" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="328" priority="1"/>
+  <conditionalFormatting sqref="A48:A49">
+    <cfRule type="duplicateValues" dxfId="380" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B36">
-    <cfRule type="duplicateValues" dxfId="327" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="491"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B36">
-    <cfRule type="duplicateValues" dxfId="326" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="493"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B31 B48:B1048576">
+    <cfRule type="duplicateValues" dxfId="377" priority="516"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B40 B48:B1048576">
+    <cfRule type="duplicateValues" dxfId="376" priority="519"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B43 B48:B1048576">
+    <cfRule type="duplicateValues" dxfId="375" priority="522"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84 B90 B48:B75">
+    <cfRule type="duplicateValues" dxfId="374" priority="525"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:B1048576">
+    <cfRule type="duplicateValues" dxfId="373" priority="529"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18939,9 +19499,9 @@
   <dimension ref="A1:G992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:B11"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19123,7 +19683,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>208</v>
@@ -25353,106 +25913,106 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A62:A65 A1 A67:A68 A70:A75 A77:A84 A86:A89 A91:A95 A97:A1048576 A27:A30 A52:A56 A58:A60 A32:A50">
-    <cfRule type="duplicateValues" dxfId="325" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="324" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="323" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="322" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="321" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="320" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="319" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="318" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51 B54:B59 B62:B63">
-    <cfRule type="duplicateValues" dxfId="317" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="316" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="315" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="314" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="313" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="312" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="311" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B1048576 A16:B16 A1:B13">
-    <cfRule type="duplicateValues" dxfId="310" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B1048576 A1:B16">
-    <cfRule type="duplicateValues" dxfId="309" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="308" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38 B26:B35 B40">
-    <cfRule type="duplicateValues" dxfId="307" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38 B40">
-    <cfRule type="duplicateValues" dxfId="306" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="duplicateValues" dxfId="305" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B42">
-    <cfRule type="duplicateValues" dxfId="304" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B1048576 B1:B19">
-    <cfRule type="duplicateValues" dxfId="303" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="302" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="301" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="300" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="299" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="298" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="297" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="296" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="295" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="294" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="293" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="292" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25465,8 +26025,8 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25541,7 +26101,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="291" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25554,7 +26114,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25672,7 +26232,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>59</v>
@@ -31091,31 +31651,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A14:A29 A1 A31:A44 A46:A50 A52:A110 B14:B17 A112:A1048576">
-    <cfRule type="duplicateValues" dxfId="290" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="289" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="288" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="287" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="286" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A23">
-    <cfRule type="duplicateValues" dxfId="285" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="284" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="283" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B1048576 A1:B9">
-    <cfRule type="duplicateValues" dxfId="282" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -37169,16 +37729,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="281" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="280" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="279" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="278" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -43216,7 +43776,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="277" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43227,9 +43787,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43339,7 +43899,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="str">
-        <f t="shared" ref="G6:G19" si="0">IF(A6&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G6:G20" si="0">IF(A6&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebTable.getRowCount("Installed_Assert");</v>
       </c>
     </row>
@@ -43444,7 +44004,7 @@
         <v>193</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -43548,12 +44108,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebTable.getRowCount("Bill_Selection");</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -43581,232 +44149,239 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="276" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A1048576 A1 A20:A22">
-    <cfRule type="duplicateValues" dxfId="275" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="274" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="273" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="272" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="271" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="270" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="269" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="268" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="267" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="266" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="265" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="264" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="263" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="262" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="261" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="260" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="259" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="258" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="257" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="256" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="255" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="254" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="253" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="252" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="251" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="250" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="249" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="248" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="247" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="246" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="245" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="244" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B10 A20:B1048576">
-    <cfRule type="duplicateValues" dxfId="243" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="242" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="241" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="240" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="239" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="238" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="237" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="236" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="235" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="234" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="233" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="232" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="duplicateValues" dxfId="231" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="230" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="229" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="228" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="227" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="226" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="225" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B27">
-    <cfRule type="duplicateValues" dxfId="224" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="223" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="222" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B20:B1048576">
-    <cfRule type="duplicateValues" dxfId="221" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="220" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="219" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="218" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="217" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="216" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="215" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="214" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="213" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="212" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="211" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="210" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="209" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="208" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="207" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="206" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="205" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="203" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="202" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="201" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="200" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="199" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="198" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="196" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="195" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="194" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="duplicateValues" dxfId="193" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="192" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="191" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="190" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F19">
-    <cfRule type="duplicateValues" dxfId="189" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F19">
-    <cfRule type="duplicateValues" dxfId="187" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -49769,7 +50344,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="186" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="265">
   <si>
     <t>ObjectName</t>
   </si>
@@ -819,6 +819,12 @@
   <si>
     <t>Bill_Selection</t>
   </si>
+  <si>
+    <t>//span[@class='siebui-popup-button']//button[.='Query']</t>
+  </si>
+  <si>
+    <t>//span[@class='siebui-popup-button']//button[.='OK']</t>
+  </si>
 </sst>
 </file>
 
@@ -963,14 +969,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="457">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="427">
     <dxf>
       <fill>
         <patternFill>
@@ -1035,73 +1034,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1353,200 +1285,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1597,66 +1335,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4165,6 +3843,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -4469,6 +4177,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11380,79 +11095,79 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A23:A1048576">
-    <cfRule type="duplicateValues" dxfId="456" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A23:A1048576">
-    <cfRule type="duplicateValues" dxfId="455" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="454" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="453" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="452" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="451" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="450" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="449" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="448" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="447" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="446" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="445" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="444" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A23:B1048576">
-    <cfRule type="duplicateValues" dxfId="443" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A23:B1048576">
-    <cfRule type="duplicateValues" dxfId="442" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="441" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="440" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B18 B21 B23:B1048576">
-    <cfRule type="duplicateValues" dxfId="439" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="438" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="437" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="436" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="435" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="434" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="433" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="432" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -11498,7 +11213,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="232" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12570,556 +12285,556 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B137:B1048576 B116:B117 B79 B1 B25 B106">
-    <cfRule type="duplicateValues" dxfId="231" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B1048576 A116:B117 A79:B79 A1:B1 A25:B25 A106:B106">
-    <cfRule type="duplicateValues" dxfId="230" priority="495"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="duplicateValues" dxfId="229" priority="498"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="498"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="228" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="227" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="226" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="225" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="224" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="223" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="222" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="221" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="220" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="281"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="219" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="218" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="217" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="216" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="215" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="214" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="213" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="212" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="211" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="210" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53">
-    <cfRule type="duplicateValues" dxfId="209" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B53">
-    <cfRule type="duplicateValues" dxfId="208" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B55">
-    <cfRule type="duplicateValues" dxfId="207" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:B62">
-    <cfRule type="duplicateValues" dxfId="206" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B62">
-    <cfRule type="duplicateValues" dxfId="205" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="204" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="203" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="duplicateValues" dxfId="202" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="201" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:B65">
-    <cfRule type="duplicateValues" dxfId="200" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="199" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:B95 A80:B88 A90:B92 B89">
-    <cfRule type="duplicateValues" dxfId="198" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:B88 A90:B95 B89">
-    <cfRule type="duplicateValues" dxfId="197" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B94">
-    <cfRule type="duplicateValues" dxfId="196" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="195" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:B111 A113:B114 B112">
-    <cfRule type="duplicateValues" dxfId="194" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="193" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="191" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="190" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="188" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="187" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="duplicateValues" dxfId="185" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="184" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
-    <cfRule type="duplicateValues" dxfId="182" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="181" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="179" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="178" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="176" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="175" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="duplicateValues" dxfId="173" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="172" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="170" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="169" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="167" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:B126">
-    <cfRule type="duplicateValues" dxfId="166" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="165" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="163" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="162" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="160" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="159" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="158" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="156" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B1048576 B79:B98 B1 B3:B19 B106:B129 B25:B28 B30:B65">
-    <cfRule type="duplicateValues" dxfId="155" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="154" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="153" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="152" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="151" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130:B131">
-    <cfRule type="duplicateValues" dxfId="150" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130:B131">
-    <cfRule type="duplicateValues" dxfId="149" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="duplicateValues" dxfId="148" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="duplicateValues" dxfId="147" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="146" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="145" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="143" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="142" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="140" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B69">
-    <cfRule type="duplicateValues" dxfId="139" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B69">
-    <cfRule type="duplicateValues" dxfId="138" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="137" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="136" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B1048576 A1:B19 A79:B88 A106:B111 A25:B28 A90:B98 B89 A113:B131 B112 A30:B69">
-    <cfRule type="duplicateValues" dxfId="135" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="134" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="133" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="132" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="131" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="130" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="129" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="128" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="127" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="125" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B1048576 B1:B19 B106:B132 B25:B28 B79:B98 B30:B70">
-    <cfRule type="duplicateValues" dxfId="124" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:A134">
-    <cfRule type="duplicateValues" dxfId="123" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B134">
-    <cfRule type="duplicateValues" dxfId="121" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="duplicateValues" dxfId="120" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="duplicateValues" dxfId="119" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133:B134">
-    <cfRule type="duplicateValues" dxfId="118" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133:B134">
-    <cfRule type="duplicateValues" dxfId="117" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B134">
-    <cfRule type="duplicateValues" dxfId="116" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B134">
-    <cfRule type="duplicateValues" dxfId="114" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="113" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="112" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B100">
-    <cfRule type="duplicateValues" dxfId="111" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="110" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="109" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="108" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B71">
-    <cfRule type="duplicateValues" dxfId="107" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="106" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="105" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="104" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="103" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="102" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B73">
-    <cfRule type="duplicateValues" dxfId="101" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="100" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="99" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="98" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="97" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="96" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="95" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="94" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="93" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="92" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:B134 B25:B28 B1:B21 B137:B1048576 B79:B101 B30:B73">
-    <cfRule type="duplicateValues" dxfId="91" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A111 A25:A28 A1:A21 A137:A1048576 A79:A88 A90:A101 A113:A134 A30:A73">
-    <cfRule type="duplicateValues" dxfId="90" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="89" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="88" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="87" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="86" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="85" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="84" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="83" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B105">
-    <cfRule type="duplicateValues" dxfId="82" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B105">
-    <cfRule type="duplicateValues" dxfId="81" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="74" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:B135">
-    <cfRule type="duplicateValues" dxfId="72" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="71" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="70" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="69" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:B135">
-    <cfRule type="duplicateValues" dxfId="68" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:B135">
-    <cfRule type="duplicateValues" dxfId="66" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="65" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="64" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="63" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="duplicateValues" dxfId="62" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" dxfId="61" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="60" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="59" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="58" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="57" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="56" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="55" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B28 A30:B55">
-    <cfRule type="duplicateValues" dxfId="54" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28 B30:B55">
-    <cfRule type="duplicateValues" dxfId="53" priority="531"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="531"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A24">
-    <cfRule type="duplicateValues" dxfId="52" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="51" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:A75 A78">
-    <cfRule type="duplicateValues" dxfId="50" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="49" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="48" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="47" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="46" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="45" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:B136">
-    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77 B76">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -13131,9 +12846,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G985"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13943,7 +13658,7 @@
         <v>258</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -13959,7 +13674,7 @@
         <v>257</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -19309,184 +19024,184 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A51:A65 A1:A2 A67:A1048576 A15">
-    <cfRule type="duplicateValues" dxfId="431" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="430" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="429" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="428" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="427" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="426" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="425" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="424" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="423" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="422" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="421" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="420" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="419" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="418" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A29">
-    <cfRule type="duplicateValues" dxfId="417" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B29">
-    <cfRule type="duplicateValues" dxfId="416" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B31">
-    <cfRule type="duplicateValues" dxfId="415" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B31 A51:B1048576 B48:B50">
-    <cfRule type="duplicateValues" dxfId="414" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="413" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="412" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="duplicateValues" dxfId="411" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="410" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39">
-    <cfRule type="duplicateValues" dxfId="409" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="408" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B73">
-    <cfRule type="duplicateValues" dxfId="407" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B75">
-    <cfRule type="duplicateValues" dxfId="406" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="405" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B82">
-    <cfRule type="duplicateValues" dxfId="404" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B82">
-    <cfRule type="duplicateValues" dxfId="403" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="duplicateValues" dxfId="402" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="401" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="400" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="399" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="398" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="397" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="396" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="395" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="394" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="393" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B45">
-    <cfRule type="duplicateValues" dxfId="392" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="391" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="390" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="389" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="388" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="387" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B47">
-    <cfRule type="duplicateValues" dxfId="386" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="385" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="384" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="383" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="382" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="381" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="380" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B36">
-    <cfRule type="duplicateValues" dxfId="379" priority="491"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="491"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B36">
-    <cfRule type="duplicateValues" dxfId="378" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="493"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B31 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="377" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B40 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="376" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B43 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="375" priority="522"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="522"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84 B90 B48:B75">
-    <cfRule type="duplicateValues" dxfId="374" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="373" priority="529"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="529"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25913,106 +25628,106 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A62:A65 A1 A67:A68 A70:A75 A77:A84 A86:A89 A91:A95 A97:A1048576 A27:A30 A52:A56 A58:A60 A32:A50">
-    <cfRule type="duplicateValues" dxfId="372" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="371" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="370" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="369" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="368" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="367" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="366" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="365" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51 B54:B59 B62:B63">
-    <cfRule type="duplicateValues" dxfId="364" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="363" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="362" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="361" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="360" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="359" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="358" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B1048576 A16:B16 A1:B13">
-    <cfRule type="duplicateValues" dxfId="357" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B1048576 A1:B16">
-    <cfRule type="duplicateValues" dxfId="356" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="355" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38 B26:B35 B40">
-    <cfRule type="duplicateValues" dxfId="354" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38 B40">
-    <cfRule type="duplicateValues" dxfId="353" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="duplicateValues" dxfId="352" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B42">
-    <cfRule type="duplicateValues" dxfId="351" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B1048576 B1:B19">
-    <cfRule type="duplicateValues" dxfId="350" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="349" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="348" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="347" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="346" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="345" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="344" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="343" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="342" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="341" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="340" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="339" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26101,7 +25816,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="338" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31651,31 +31366,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A14:A29 A1 A31:A44 A46:A50 A52:A110 B14:B17 A112:A1048576">
-    <cfRule type="duplicateValues" dxfId="337" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="336" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="335" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="334" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="333" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A23">
-    <cfRule type="duplicateValues" dxfId="332" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="331" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="330" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B1048576 A1:B9">
-    <cfRule type="duplicateValues" dxfId="329" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -37729,16 +37444,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="328" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="327" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="326" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="325" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -43776,7 +43491,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="324" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43787,7 +43502,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
@@ -44149,239 +43864,239 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="323" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A1048576 A1 A20:A22">
-    <cfRule type="duplicateValues" dxfId="322" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="321" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="320" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="319" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="318" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="317" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="316" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="315" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="314" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="313" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="312" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="311" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="310" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="309" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="308" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="307" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="306" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="305" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="304" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="303" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="302" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="301" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="300" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="299" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="298" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="297" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="296" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="295" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="294" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="293" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="292" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="291" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B10 A20:B1048576">
-    <cfRule type="duplicateValues" dxfId="290" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="289" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="288" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="287" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="286" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="285" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="284" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="283" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="282" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="281" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="280" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="279" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="duplicateValues" dxfId="278" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="277" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="276" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="275" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="274" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="273" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="272" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B27">
-    <cfRule type="duplicateValues" dxfId="271" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="270" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="269" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B20:B1048576">
-    <cfRule type="duplicateValues" dxfId="268" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="267" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="266" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="265" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="264" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="263" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="262" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="261" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="260" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="259" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="258" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="257" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="256" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="255" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="254" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="253" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="252" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="251" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="250" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="249" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="248" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="247" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="246" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="245" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="244" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="243" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="242" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="241" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="duplicateValues" dxfId="240" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="239" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="238" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="237" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F19">
-    <cfRule type="duplicateValues" dxfId="236" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="235" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F19">
-    <cfRule type="duplicateValues" dxfId="234" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50344,7 +50059,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="233" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="270">
   <si>
     <t>ObjectName</t>
   </si>
@@ -748,9 +748,6 @@
     <t>//a[contains(@name,'Purchased Price')]/..//input</t>
   </si>
   <si>
-    <t>Browser.WebEdit.Set("Star_Number_purch", getdata("Star_Number_purch"));</t>
-  </si>
-  <si>
     <t>VQ_Home</t>
   </si>
   <si>
@@ -824,6 +821,24 @@
   </si>
   <si>
     <t>//span[@class='siebui-popup-button']//button[.='OK']</t>
+  </si>
+  <si>
+    <t>BP_Valid_Name</t>
+  </si>
+  <si>
+    <t>//li[@aria-label='Billing Profile Selected']//a[.='Billing Profile']</t>
+  </si>
+  <si>
+    <t>Order_Valid_Name</t>
+  </si>
+  <si>
+    <t>//div[@class='siebui-applet siebui-collapsible-applet siebui-list Selected siebui-active siebui-applet-active siebui-hilight']//div[.='Orders']</t>
+  </si>
+  <si>
+    <t>Contact_Valid_Name</t>
+  </si>
+  <si>
+    <t>//div[.='Contacts']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +984,181 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="427">
+  <dxfs count="445">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5741,10 +5930,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -5757,7 +5946,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>76</v>
@@ -11095,79 +11284,79 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A23:A1048576">
-    <cfRule type="duplicateValues" dxfId="426" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A23:A1048576">
-    <cfRule type="duplicateValues" dxfId="425" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="424" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="423" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="422" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="421" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="420" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="419" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="418" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="417" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="416" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="415" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="414" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A23:B1048576">
-    <cfRule type="duplicateValues" dxfId="413" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A23:B1048576">
-    <cfRule type="duplicateValues" dxfId="412" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="411" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="410" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B18 B21 B23:B1048576">
-    <cfRule type="duplicateValues" dxfId="409" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="408" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="407" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="406" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="405" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="404" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="403" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="402" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -11213,7 +11402,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="198" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11401,15 +11590,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>76</v>
@@ -11450,10 +11639,10 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -11810,34 +11999,34 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -11923,7 +12112,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>208</v>
@@ -12027,10 +12216,10 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -12096,7 +12285,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>59</v>
@@ -12269,572 +12458,572 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B137:B1048576 B116:B117 B79 B1 B25 B106">
-    <cfRule type="duplicateValues" dxfId="197" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B1048576 A116:B117 A79:B79 A1:B1 A25:B25 A106:B106">
-    <cfRule type="duplicateValues" dxfId="196" priority="495"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="duplicateValues" dxfId="195" priority="498"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="498"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="194" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="193" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="192" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="191" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="190" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="189" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="188" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="187" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="186" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="281"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="185" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="184" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="183" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="182" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="181" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="180" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="179" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="178" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="177" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="176" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53">
-    <cfRule type="duplicateValues" dxfId="175" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B53">
-    <cfRule type="duplicateValues" dxfId="174" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B55">
-    <cfRule type="duplicateValues" dxfId="173" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:B62">
-    <cfRule type="duplicateValues" dxfId="172" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B62">
-    <cfRule type="duplicateValues" dxfId="171" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="170" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="169" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="duplicateValues" dxfId="168" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="167" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:B65">
-    <cfRule type="duplicateValues" dxfId="166" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="165" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:B95 A80:B88 A90:B92 B89">
-    <cfRule type="duplicateValues" dxfId="164" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:B88 A90:B95 B89">
-    <cfRule type="duplicateValues" dxfId="163" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B94">
-    <cfRule type="duplicateValues" dxfId="162" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="161" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:B111 A113:B114 B112">
-    <cfRule type="duplicateValues" dxfId="160" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="159" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="157" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="156" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="154" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="153" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="duplicateValues" dxfId="151" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="150" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
-    <cfRule type="duplicateValues" dxfId="148" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="147" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="145" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="144" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="142" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="141" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="duplicateValues" dxfId="139" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="138" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="136" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="135" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="133" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:B126">
-    <cfRule type="duplicateValues" dxfId="132" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="131" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="129" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="128" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="126" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="125" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="124" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="122" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B1048576 B79:B98 B1 B3:B19 B106:B129 B25:B28 B30:B65">
-    <cfRule type="duplicateValues" dxfId="121" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="120" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="119" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="118" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="117" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130:B131">
-    <cfRule type="duplicateValues" dxfId="116" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130:B131">
-    <cfRule type="duplicateValues" dxfId="115" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="duplicateValues" dxfId="114" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="duplicateValues" dxfId="113" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="112" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="111" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="109" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="108" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="106" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B69">
-    <cfRule type="duplicateValues" dxfId="105" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B69">
-    <cfRule type="duplicateValues" dxfId="104" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="103" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="102" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B1048576 A1:B19 A79:B88 A106:B111 A25:B28 A90:B98 B89 A113:B131 B112 A30:B69">
-    <cfRule type="duplicateValues" dxfId="101" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="100" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="99" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="98" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="97" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="96" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="95" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="94" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="93" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="91" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B1048576 B1:B19 B106:B132 B25:B28 B79:B98 B30:B70">
-    <cfRule type="duplicateValues" dxfId="90" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:A134">
-    <cfRule type="duplicateValues" dxfId="89" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B134">
-    <cfRule type="duplicateValues" dxfId="87" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="duplicateValues" dxfId="86" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="duplicateValues" dxfId="85" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133:B134">
-    <cfRule type="duplicateValues" dxfId="84" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133:B134">
-    <cfRule type="duplicateValues" dxfId="83" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B134">
-    <cfRule type="duplicateValues" dxfId="82" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B134">
-    <cfRule type="duplicateValues" dxfId="80" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="79" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="78" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B100">
-    <cfRule type="duplicateValues" dxfId="77" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="76" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="75" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="74" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B71">
-    <cfRule type="duplicateValues" dxfId="73" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="72" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="71" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="70" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="69" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="68" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B73">
-    <cfRule type="duplicateValues" dxfId="67" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="66" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="65" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="64" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="63" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="62" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="61" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="60" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="59" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="58" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:B134 B25:B28 B1:B21 B137:B1048576 B79:B101 B30:B73">
-    <cfRule type="duplicateValues" dxfId="57" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A111 A25:A28 A1:A21 A137:A1048576 A79:A88 A90:A101 A113:A134 A30:A73">
-    <cfRule type="duplicateValues" dxfId="56" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="55" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="54" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="53" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="52" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="51" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="50" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="49" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B105">
-    <cfRule type="duplicateValues" dxfId="48" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B105">
-    <cfRule type="duplicateValues" dxfId="47" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="46" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:B135">
-    <cfRule type="duplicateValues" dxfId="44" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="43" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="42" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="41" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:B135">
-    <cfRule type="duplicateValues" dxfId="40" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:B135">
-    <cfRule type="duplicateValues" dxfId="38" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="duplicateValues" dxfId="34" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" dxfId="33" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="32" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B28 A30:B55">
-    <cfRule type="duplicateValues" dxfId="26" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28 B30:B55">
-    <cfRule type="duplicateValues" dxfId="25" priority="531"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="531"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A24">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:A75 A78">
-    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="18" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:B136">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77 B76">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -12846,7 +13035,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
@@ -12935,10 +13124,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -13623,10 +13812,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -13639,10 +13828,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -13655,10 +13844,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -13671,10 +13860,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -19024,184 +19213,184 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A51:A65 A1:A2 A67:A1048576 A15">
-    <cfRule type="duplicateValues" dxfId="401" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="400" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="399" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="398" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="397" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="396" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="395" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="394" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="393" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="392" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="391" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="390" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="389" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="388" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A29">
-    <cfRule type="duplicateValues" dxfId="387" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B29">
-    <cfRule type="duplicateValues" dxfId="386" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B31">
-    <cfRule type="duplicateValues" dxfId="385" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B31 A51:B1048576 B48:B50">
-    <cfRule type="duplicateValues" dxfId="384" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="383" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="382" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="duplicateValues" dxfId="381" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="380" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39">
-    <cfRule type="duplicateValues" dxfId="379" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="378" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B73">
-    <cfRule type="duplicateValues" dxfId="377" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B75">
-    <cfRule type="duplicateValues" dxfId="376" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="375" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B82">
-    <cfRule type="duplicateValues" dxfId="374" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B82">
-    <cfRule type="duplicateValues" dxfId="373" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="duplicateValues" dxfId="372" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="371" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="370" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="369" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="368" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="367" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="366" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="365" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="364" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="363" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B45">
-    <cfRule type="duplicateValues" dxfId="362" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="361" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="360" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="359" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="358" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="357" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B47">
-    <cfRule type="duplicateValues" dxfId="356" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="355" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="354" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="353" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="352" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="351" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="350" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B36">
-    <cfRule type="duplicateValues" dxfId="349" priority="491"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="491"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B36">
-    <cfRule type="duplicateValues" dxfId="348" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="493"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B31 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="347" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B40 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="346" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B43 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="345" priority="522"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="522"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84 B90 B48:B75">
-    <cfRule type="duplicateValues" dxfId="344" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="343" priority="529"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="529"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="342" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19213,10 +19402,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19264,7 +19453,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="str">
-        <f t="shared" ref="G2:G11" si="0">IF(A2&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G2:G65" si="0">IF(A2&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;"));","")</f>
         <v>Browser.WebEdit.Set("VQ_Login_User", getdata("VQ_Login_User"));</v>
       </c>
     </row>
@@ -19398,7 +19587,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>208</v>
@@ -19424,7 +19613,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="str">
-        <f>IF(A12&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A12&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A12&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="0"/>
         <v>Browser.WebEdit.Set("CR_Number", getdata("CR_Number"));</v>
       </c>
     </row>
@@ -19440,7 +19629,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="str">
-        <f t="shared" ref="G13:G72" si="1">IF(A13&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A13&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A13&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="0"/>
         <v>Browser.WebEdit.Set("Number_Purchase_Price", getdata("Number_Purchase_Price"));</v>
       </c>
     </row>
@@ -19456,7 +19645,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Browser.WebEdit.Set("Due_Date", getdata("Due_Date"));</v>
       </c>
     </row>
@@ -19472,7 +19661,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Browser.WebEdit.Set("Credit_Limit", getdata("Credit_Limit"));</v>
       </c>
     </row>
@@ -19488,7 +19677,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Browser.WebEdit.Set("Ent_CreditLimit", getdata("Ent_CreditLimit"));</v>
       </c>
     </row>
@@ -19504,7 +19693,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Browser.WebEdit.Set("Account_No", getdata("Account_No"));</v>
       </c>
     </row>
@@ -19520,7 +19709,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Browser.WebEdit.Set("Acc_Name", getdata("Acc_Name"));</v>
       </c>
     </row>
@@ -19536,7 +19725,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Browser.WebEdit.Set("Tier", getdata("Tier"));</v>
       </c>
     </row>
@@ -19552,7 +19741,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Browser.WebEdit.Set("OSM_Login_User", getdata("OSM_Login_User"));</v>
       </c>
     </row>
@@ -19568,7 +19757,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Browser.WebEdit.Set("OSM_Login_Pswd", getdata("OSM_Login_Pswd"));</v>
       </c>
     </row>
@@ -19584,7 +19773,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="str">
-        <f>IF(A22&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A22&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A22&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="0"/>
         <v>Browser.WebEdit.Set("Home_Date", getdata("Home_Date"));</v>
       </c>
     </row>
@@ -19599,68 +19788,84 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>239</v>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebEdit.Set("Star_Number_purch", getdata("Star_Number_purch"));</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Browser.WebEdit.Set("NumberReservationToken", getdata("NumberReservationToken"));</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>Browser.WebEdit.Set("BP_Valid_Name", getdata("BP_Valid_Name"));</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>Browser.WebEdit.Set("Order_Valid_Name", getdata("Order_Valid_Name"));</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>Browser.WebEdit.Set("Contact_Valid_Name", getdata("Contact_Valid_Name"));</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19672,7 +19877,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19684,7 +19889,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19696,7 +19901,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19708,7 +19913,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19720,7 +19925,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19732,7 +19937,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19744,7 +19949,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19756,7 +19961,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19768,7 +19973,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19780,7 +19985,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19792,7 +19997,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19804,7 +20009,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19816,7 +20021,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19828,7 +20033,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19840,7 +20045,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19852,7 +20057,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19864,7 +20069,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19876,7 +20081,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19888,7 +20093,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19900,7 +20105,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19912,7 +20117,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19924,7 +20129,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19936,7 +20141,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19948,7 +20153,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19960,7 +20165,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19972,7 +20177,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19984,7 +20189,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -19992,7 +20197,7 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="G56" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -20000,7 +20205,7 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="G57" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -20008,7 +20213,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="G58" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -20016,7 +20221,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="G59" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -20024,46 +20229,46 @@
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="G60" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="G61" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="G62" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="G63" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G64" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G65" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G66" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G66:G129" si="1">IF(A66&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A66&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A66&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -20105,352 +20310,352 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G73" s="4" t="str">
-        <f t="shared" ref="G73:G136" si="2">IF(A73&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A73&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A73&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G75" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G76" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G77" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G78" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G79" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="G80" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="G97" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G98" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G99" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G100" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G101" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G102" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G103" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G104" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G105" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G106" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G107" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G108" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G109" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G110" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G111" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G112" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G118" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G119" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G120" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G121" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G122" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G123" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G124" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G125" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G126" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G127" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G128" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G129" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G130" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G130:G193" si="2">IF(A130&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A130&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A130&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -20492,349 +20697,349 @@
     </row>
     <row r="137" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G137" s="4" t="str">
-        <f t="shared" ref="G137:G200" si="3">IF(A137&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A137&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A137&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G138" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G139" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G140" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G141" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G142" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G143" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G144" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G145" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G146" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G147" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G148" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G149" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G150" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G151" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G152" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G153" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G154" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G155" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G156" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G157" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G158" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G159" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G160" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G161" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G162" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G163" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G164" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G165" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G166" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G167" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G168" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G169" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G170" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G171" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G172" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G173" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G174" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G175" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G176" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G177" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G178" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G179" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G180" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G181" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G182" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G183" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G184" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G185" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G186" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G187" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G188" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G189" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G190" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G191" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G192" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G193" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G194" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G194:G257" si="3">IF(A194&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A194&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A194&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -20876,349 +21081,349 @@
     </row>
     <row r="201" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G201" s="4" t="str">
-        <f t="shared" ref="G201:G264" si="4">IF(A201&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A201&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A201&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G202" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G203" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G204" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G205" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G206" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G207" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G208" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G209" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G210" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G211" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G212" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G213" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G214" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G215" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G216" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G217" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G218" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G219" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G220" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G221" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G222" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G223" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G224" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G225" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G226" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G227" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G228" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G229" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G230" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G231" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G232" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G233" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G234" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G235" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G236" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G237" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G238" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G239" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G240" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G241" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G242" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G243" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G244" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G245" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G246" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G247" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G248" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G249" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G250" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G251" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G252" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G253" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G254" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G255" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G256" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G257" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G258" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G258:G321" si="4">IF(A258&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A258&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A258&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -21260,349 +21465,349 @@
     </row>
     <row r="265" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G265" s="4" t="str">
-        <f t="shared" ref="G265:G328" si="5">IF(A265&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A265&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A265&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G266" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G267" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G268" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G269" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G270" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G271" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G272" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G273" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G274" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G275" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G276" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G277" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G278" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G279" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G280" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G281" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G282" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G283" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G284" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G285" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G286" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G287" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G288" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G289" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G290" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G291" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G292" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G293" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G294" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G295" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G296" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G297" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G298" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G299" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G300" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G301" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G302" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G303" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G304" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G305" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G306" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G307" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G308" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G309" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G310" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G311" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G312" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G313" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G314" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G315" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G316" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G317" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G318" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G319" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G320" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G321" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G322" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G322:G385" si="5">IF(A322&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A322&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A322&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -21644,349 +21849,349 @@
     </row>
     <row r="329" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G329" s="4" t="str">
-        <f t="shared" ref="G329:G392" si="6">IF(A329&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A329&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A329&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G330" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G331" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G332" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G333" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G334" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G335" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G336" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G337" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G338" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G339" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G340" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G341" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G342" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G343" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G344" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G345" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G346" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G347" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G348" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G349" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G350" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G351" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G352" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G353" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G354" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G355" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G356" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G357" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G358" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G359" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G360" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G361" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G362" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G363" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G364" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G365" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G366" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G367" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G368" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G369" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G370" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G371" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G372" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G373" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G374" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G375" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G376" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G377" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G378" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G379" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G380" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G381" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G382" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G383" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G384" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G385" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G386" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G386:G449" si="6">IF(A386&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A386&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A386&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -22028,349 +22233,349 @@
     </row>
     <row r="393" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G393" s="4" t="str">
-        <f t="shared" ref="G393:G456" si="7">IF(A393&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A393&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A393&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G394" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G395" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G396" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G397" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G398" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G399" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G400" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G401" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G402" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G403" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G404" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G405" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G406" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G407" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G408" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G409" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G410" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G411" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G412" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G413" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G414" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G415" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G416" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G417" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G418" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G419" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G420" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G421" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G422" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G423" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G424" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G425" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G426" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G427" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G428" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G429" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G430" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G431" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G432" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G433" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G434" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G435" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G436" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G437" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G438" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G439" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G440" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G441" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G442" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G443" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G444" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G445" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G446" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G447" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G448" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G449" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G450" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G450:G513" si="7">IF(A450&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A450&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A450&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -22412,349 +22617,349 @@
     </row>
     <row r="457" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G457" s="4" t="str">
-        <f t="shared" ref="G457:G520" si="8">IF(A457&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A457&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A457&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G458" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G459" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G460" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G461" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G462" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G463" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G464" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G465" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G466" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G467" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G468" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G469" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G470" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G471" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G472" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G473" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G474" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G475" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G476" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G477" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G478" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G479" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G480" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G481" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G482" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G483" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G484" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G485" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G486" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G487" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G488" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G489" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G490" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G491" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G492" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G493" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G494" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G495" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G496" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G497" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G498" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G499" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G500" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="501" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G501" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G502" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G503" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="504" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G504" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="505" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G505" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G506" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G507" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G508" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G509" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G510" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G511" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G512" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G513" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G514" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G514:G577" si="8">IF(A514&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A514&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A514&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -22796,349 +23001,349 @@
     </row>
     <row r="521" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G521" s="4" t="str">
-        <f t="shared" ref="G521:G584" si="9">IF(A521&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A521&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A521&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="522" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G522" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="523" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G523" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="524" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G524" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="525" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G525" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="526" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G526" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="527" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G527" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="528" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G528" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="529" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G529" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="530" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G530" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="531" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G531" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="532" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G532" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="533" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G533" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="534" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G534" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="535" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G535" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="536" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G536" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="537" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G537" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="538" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G538" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="539" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G539" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="540" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G540" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="541" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G541" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="542" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G542" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="543" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G543" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="544" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G544" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="545" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G545" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="546" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G546" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="547" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G547" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="548" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G548" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="549" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G549" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="550" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G550" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="551" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G551" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="552" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G552" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="553" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G553" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="554" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G554" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="555" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G555" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="556" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G556" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="557" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G557" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="558" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G558" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="559" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G559" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="560" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G560" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="561" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G561" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="562" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G562" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="563" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G563" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="564" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G564" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="565" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G565" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="566" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G566" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="567" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G567" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="568" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G568" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="569" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G569" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="570" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G570" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="571" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G571" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="572" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G572" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="573" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G573" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="574" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G574" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="575" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G575" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="576" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G576" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="577" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G577" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="578" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G578" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G578:G641" si="9">IF(A578&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A578&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A578&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -23180,349 +23385,349 @@
     </row>
     <row r="585" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G585" s="4" t="str">
-        <f t="shared" ref="G585:G648" si="10">IF(A585&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A585&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A585&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="586" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G586" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="587" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G587" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="588" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G588" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="589" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G589" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="590" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G590" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="591" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G591" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="592" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G592" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="593" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G593" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="594" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G594" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="595" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G595" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="596" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G596" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="597" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G597" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="598" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G598" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="599" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G599" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="600" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G600" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="601" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G601" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="602" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G602" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="603" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G603" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="604" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G604" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="605" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G605" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="606" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G606" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="607" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G607" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="608" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G608" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="609" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G609" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="610" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G610" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="611" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G611" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="612" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G612" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="613" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G613" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="614" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G614" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="615" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G615" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="616" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G616" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="617" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G617" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="618" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G618" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="619" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G619" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="620" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G620" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="621" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G621" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="622" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G622" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="623" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G623" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="624" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G624" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="625" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G625" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="626" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G626" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="627" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G627" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="628" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G628" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="629" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G629" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="630" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G630" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="631" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G631" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="632" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G632" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="633" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G633" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="634" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G634" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="635" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G635" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="636" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G636" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="637" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G637" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="638" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G638" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="639" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G639" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="640" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G640" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="641" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G641" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="642" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G642" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G642:G705" si="10">IF(A642&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A642&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A642&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -23564,349 +23769,349 @@
     </row>
     <row r="649" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G649" s="4" t="str">
-        <f t="shared" ref="G649:G712" si="11">IF(A649&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A649&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A649&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="650" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G650" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="651" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G651" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="652" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G652" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="653" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G653" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="654" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G654" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="655" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G655" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="656" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G656" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="657" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G657" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="658" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G658" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="659" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G659" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="660" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G660" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="661" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G661" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="662" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G662" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="663" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G663" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="664" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G664" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="665" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G665" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="666" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G666" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="667" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G667" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="668" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G668" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="669" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G669" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="670" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G670" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="671" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G671" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="672" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G672" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="673" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G673" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="674" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G674" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="675" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G675" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="676" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G676" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="677" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G677" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="678" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G678" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="679" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G679" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="680" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G680" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="681" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G681" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="682" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G682" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="683" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G683" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="684" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G684" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="685" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G685" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="686" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G686" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="687" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G687" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="688" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G688" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="689" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G689" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="690" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G690" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="691" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G691" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="692" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G692" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="693" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G693" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="694" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G694" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="695" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G695" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="696" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G696" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="697" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G697" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="698" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G698" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="699" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G699" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="700" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G700" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="701" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G701" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="702" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G702" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="703" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G703" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="704" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G704" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="705" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G705" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="706" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G706" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G706:G769" si="11">IF(A706&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A706&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A706&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -23948,349 +24153,349 @@
     </row>
     <row r="713" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G713" s="4" t="str">
-        <f t="shared" ref="G713:G776" si="12">IF(A713&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A713&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A713&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="714" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G714" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="715" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G715" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="716" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G716" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="717" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G717" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="718" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G718" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="719" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G719" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="720" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G720" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="721" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G721" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="722" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G722" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="723" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G723" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="724" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G724" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="725" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G725" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="726" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G726" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="727" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G727" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="728" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G728" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="729" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G729" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="730" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G730" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="731" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G731" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="732" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G732" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="733" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G733" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="734" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G734" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="735" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G735" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="736" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G736" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="737" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G737" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="738" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G738" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="739" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G739" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="740" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G740" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="741" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G741" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="742" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G742" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="743" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G743" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="744" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G744" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="745" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G745" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="746" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G746" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="747" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G747" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="748" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G748" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="749" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G749" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="750" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G750" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="751" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G751" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="752" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G752" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="753" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G753" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="754" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G754" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="755" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G755" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="756" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G756" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="757" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G757" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="758" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G758" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="759" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G759" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="760" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G760" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="761" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G761" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="762" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G762" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="763" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G763" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="764" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G764" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="765" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G765" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="766" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G766" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="767" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G767" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="768" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G768" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="769" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G769" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="770" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G770" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G770:G833" si="12">IF(A770&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A770&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A770&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -24332,349 +24537,349 @@
     </row>
     <row r="777" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G777" s="4" t="str">
-        <f t="shared" ref="G777:G840" si="13">IF(A777&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A777&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A777&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="778" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G778" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="779" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G779" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="780" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G780" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="781" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G781" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="782" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G782" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="783" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G783" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="784" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G784" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="785" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G785" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="786" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G786" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="787" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G787" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="788" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G788" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="789" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G789" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="790" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G790" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="791" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G791" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="792" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G792" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="793" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G793" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="794" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G794" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="795" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G795" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="796" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G796" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="797" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G797" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="798" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G798" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="799" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G799" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="800" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G800" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="801" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G801" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="802" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G802" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="803" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G803" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="804" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G804" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="805" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G805" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="806" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G806" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="807" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G807" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="808" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G808" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="809" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G809" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="810" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G810" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="811" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G811" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="812" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G812" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="813" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G813" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="814" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G814" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="815" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G815" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="816" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G816" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="817" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G817" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="818" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G818" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="819" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G819" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="820" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G820" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="821" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G821" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="822" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G822" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="823" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G823" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="824" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G824" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="825" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G825" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="826" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G826" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="827" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G827" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="828" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G828" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="829" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G829" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="830" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G830" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="831" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G831" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="832" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G832" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="833" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G833" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="834" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G834" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G834:G897" si="13">IF(A834&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A834&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A834&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -24716,349 +24921,349 @@
     </row>
     <row r="841" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G841" s="4" t="str">
-        <f t="shared" ref="G841:G904" si="14">IF(A841&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A841&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A841&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="842" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G842" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="843" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G843" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="844" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G844" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="845" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G845" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="846" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G846" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="847" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G847" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="848" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G848" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="849" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G849" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="850" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G850" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="851" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G851" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="852" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G852" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="853" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G853" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="854" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G854" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="855" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G855" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="856" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G856" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="857" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G857" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="858" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G858" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="859" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G859" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="860" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G860" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="861" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G861" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="862" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G862" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="863" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G863" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="864" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G864" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="865" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G865" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="866" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G866" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="867" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G867" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="868" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G868" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="869" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G869" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="870" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G870" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="871" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G871" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="872" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G872" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="873" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G873" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="874" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G874" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="875" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G875" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="876" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G876" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="877" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G877" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="878" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G878" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="879" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G879" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="880" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G880" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="881" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G881" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="882" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G882" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="883" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G883" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="884" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G884" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="885" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G885" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="886" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G886" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="887" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G887" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="888" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G888" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="889" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G889" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="890" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G890" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="891" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G891" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="892" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G892" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="893" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G893" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="894" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G894" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="895" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G895" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="896" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G896" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="897" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G897" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="898" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G898" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G898:G961" si="14">IF(A898&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A898&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A898&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -25100,349 +25305,349 @@
     </row>
     <row r="905" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G905" s="4" t="str">
-        <f t="shared" ref="G905:G968" si="15">IF(A905&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A905&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A905&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="906" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G906" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="907" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G907" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="908" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G908" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="909" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G909" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="910" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G910" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="911" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G911" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="912" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G912" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="913" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G913" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="914" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G914" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="915" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G915" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="916" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G916" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="917" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G917" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="918" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G918" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="919" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G919" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="920" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G920" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="921" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G921" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="922" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G922" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="923" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G923" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="924" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G924" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="925" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G925" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="926" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G926" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="927" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G927" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="928" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G928" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="929" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G929" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="930" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G930" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="931" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G931" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="932" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G932" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="933" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G933" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="934" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G934" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="935" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G935" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="936" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G936" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="937" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G937" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="938" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G938" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="939" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G939" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="940" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G940" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="941" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G941" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="942" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G942" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="943" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G943" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="944" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G944" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="945" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G945" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="946" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G946" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="947" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G947" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="948" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G948" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="949" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G949" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="950" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G950" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="951" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G951" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="952" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G952" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="953" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G953" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="954" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G954" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="955" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G955" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="956" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G956" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="957" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G957" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="958" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G958" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="959" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G959" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="960" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G960" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="961" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G961" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="962" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G962" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G962:G992" si="15">IF(A962&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A962&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A962&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -25484,250 +25689,268 @@
     </row>
     <row r="969" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G969" s="4" t="str">
-        <f t="shared" ref="G969:G992" si="16">IF(A969&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A969&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A969&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="970" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G970" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="971" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G971" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="972" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G972" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="973" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G973" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="974" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G974" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="975" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G975" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="976" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G976" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="977" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G977" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="978" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G978" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="979" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G979" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="980" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G980" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="981" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G981" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="982" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G982" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="983" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G983" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="984" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G984" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="985" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G985" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="986" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G986" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="987" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G987" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="988" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G988" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="989" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G989" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="990" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G990" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="991" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G991" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="992" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G992" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A62:A65 A1 A67:A68 A70:A75 A77:A84 A86:A89 A91:A95 A97:A1048576 A27:A30 A52:A56 A58:A60 A32:A50">
-    <cfRule type="duplicateValues" dxfId="341" priority="78"/>
+  <conditionalFormatting sqref="A62:A65 A1 A67:A68 A70:A75 A77:A84 A86:A89 A91:A95 A97:A1048576 A29:A30 A52:A56 A58:A60 A32:A50">
+    <cfRule type="duplicateValues" dxfId="359" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="340" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="339" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="338" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="337" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="336" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="335" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="334" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51 B54:B59 B62:B63">
-    <cfRule type="duplicateValues" dxfId="333" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="332" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="331" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="330" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="329" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="328" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="327" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B1048576 A16:B16 A1:B13">
-    <cfRule type="duplicateValues" dxfId="326" priority="55"/>
+  <conditionalFormatting sqref="A29:B1048576 A16:B16 A1:B13">
+    <cfRule type="duplicateValues" dxfId="344" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B1048576 A1:B16">
-    <cfRule type="duplicateValues" dxfId="325" priority="47"/>
+  <conditionalFormatting sqref="A29:B1048576 A1:B16">
+    <cfRule type="duplicateValues" dxfId="343" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="324" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38 B26:B35 B40">
-    <cfRule type="duplicateValues" dxfId="323" priority="40"/>
+  <conditionalFormatting sqref="B38 B29:B35 B40">
+    <cfRule type="duplicateValues" dxfId="341" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B38 B40">
-    <cfRule type="duplicateValues" dxfId="322" priority="39"/>
+  <conditionalFormatting sqref="B29:B38 B40">
+    <cfRule type="duplicateValues" dxfId="340" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="duplicateValues" dxfId="321" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B42">
-    <cfRule type="duplicateValues" dxfId="320" priority="37"/>
+  <conditionalFormatting sqref="B29:B42">
+    <cfRule type="duplicateValues" dxfId="338" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B1048576 B1:B19">
-    <cfRule type="duplicateValues" dxfId="319" priority="36"/>
+  <conditionalFormatting sqref="B29:B1048576 B1:B19">
+    <cfRule type="duplicateValues" dxfId="337" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="318" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="317" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="316" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="315" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="314" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="313" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="312" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="311" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="310" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="309" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="308" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B27">
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B27">
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B28">
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B28">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25816,7 +26039,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="307" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25947,7 +26170,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>59</v>
@@ -31366,31 +31589,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A14:A29 A1 A31:A44 A46:A50 A52:A110 B14:B17 A112:A1048576">
-    <cfRule type="duplicateValues" dxfId="306" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="305" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="304" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="303" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="302" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A23">
-    <cfRule type="duplicateValues" dxfId="301" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="300" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="299" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B1048576 A1:B9">
-    <cfRule type="duplicateValues" dxfId="298" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -37444,16 +37667,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="297" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="296" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="295" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="294" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -43491,7 +43714,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="293" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43719,7 +43942,7 @@
         <v>193</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -43808,10 +44031,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -43824,10 +44047,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -43864,239 +44087,239 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="292" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A1048576 A1 A20:A22">
-    <cfRule type="duplicateValues" dxfId="291" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="290" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="289" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="288" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="287" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="286" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="285" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="284" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="283" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="282" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="281" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="280" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="279" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="278" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="277" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="276" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="275" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="274" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="273" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="272" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="271" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="270" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="269" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="268" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="267" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="266" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="265" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="264" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="263" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="262" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="260" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B10 A20:B1048576">
-    <cfRule type="duplicateValues" dxfId="259" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="258" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="257" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="256" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="255" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="254" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="253" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="252" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="251" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="250" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="249" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="248" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="duplicateValues" dxfId="247" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="246" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="245" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="244" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="243" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="242" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="241" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B27">
-    <cfRule type="duplicateValues" dxfId="240" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="239" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="238" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B20:B1048576">
-    <cfRule type="duplicateValues" dxfId="237" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="236" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="235" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="234" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="233" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="232" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="231" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="230" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="228" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="227" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="226" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="225" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="224" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="222" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="221" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="219" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="218" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="217" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="216" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="215" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="214" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="213" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="212" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="211" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="210" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="duplicateValues" dxfId="209" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="208" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="207" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="206" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F19">
-    <cfRule type="duplicateValues" dxfId="205" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F19">
-    <cfRule type="duplicateValues" dxfId="203" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="202" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="200" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50059,7 +50282,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="199" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="274">
   <si>
     <t>ObjectName</t>
   </si>
@@ -840,6 +840,18 @@
   <si>
     <t>//div[.='Contacts']</t>
   </si>
+  <si>
+    <t>RTB_Valid_Name</t>
+  </si>
+  <si>
+    <t>//div[.='Real Time Balance']</t>
+  </si>
+  <si>
+    <t>//div[.='Balance Summary']</t>
+  </si>
+  <si>
+    <t>Bill_Valid_Name</t>
+  </si>
 </sst>
 </file>
 
@@ -984,171 +996,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="445">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="432">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4468,9 +4316,52 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11284,79 +11175,79 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A23:A1048576">
-    <cfRule type="duplicateValues" dxfId="444" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A23:A1048576">
-    <cfRule type="duplicateValues" dxfId="443" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="442" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="441" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="440" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="439" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="438" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="437" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="436" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="435" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="434" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="433" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="432" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A23:B1048576">
-    <cfRule type="duplicateValues" dxfId="431" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A23:B1048576">
-    <cfRule type="duplicateValues" dxfId="430" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="429" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="428" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B18 B21 B23:B1048576">
-    <cfRule type="duplicateValues" dxfId="427" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="426" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="425" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="424" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="423" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="422" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="421" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="420" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -11402,7 +11293,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="216" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12474,556 +12365,556 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B137:B1048576 B116:B117 B79 B1 B25 B106">
-    <cfRule type="duplicateValues" dxfId="215" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B1048576 A116:B117 A79:B79 A1:B1 A25:B25 A106:B106">
-    <cfRule type="duplicateValues" dxfId="214" priority="495"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="duplicateValues" dxfId="213" priority="498"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="498"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="212" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="211" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="210" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="209" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="208" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="207" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="206" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="205" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="204" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="281"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="203" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="202" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="201" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="200" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="199" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="198" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="197" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="196" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="195" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="194" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53">
-    <cfRule type="duplicateValues" dxfId="193" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B53">
-    <cfRule type="duplicateValues" dxfId="192" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B55">
-    <cfRule type="duplicateValues" dxfId="191" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:B62">
-    <cfRule type="duplicateValues" dxfId="190" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B62">
-    <cfRule type="duplicateValues" dxfId="189" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="188" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="187" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="duplicateValues" dxfId="186" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="185" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:B65">
-    <cfRule type="duplicateValues" dxfId="184" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="183" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:B95 A80:B88 A90:B92 B89">
-    <cfRule type="duplicateValues" dxfId="182" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:B88 A90:B95 B89">
-    <cfRule type="duplicateValues" dxfId="181" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B94">
-    <cfRule type="duplicateValues" dxfId="180" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="179" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:B111 A113:B114 B112">
-    <cfRule type="duplicateValues" dxfId="178" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="177" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="175" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="174" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="172" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="171" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="duplicateValues" dxfId="169" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="168" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
-    <cfRule type="duplicateValues" dxfId="166" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="165" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="163" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="162" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="160" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="159" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="duplicateValues" dxfId="157" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="156" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="154" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="153" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="151" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:B126">
-    <cfRule type="duplicateValues" dxfId="150" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="149" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="147" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="146" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="144" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="143" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="142" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="140" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B1048576 B79:B98 B1 B3:B19 B106:B129 B25:B28 B30:B65">
-    <cfRule type="duplicateValues" dxfId="139" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="138" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="137" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="136" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="135" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130:B131">
-    <cfRule type="duplicateValues" dxfId="134" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130:B131">
-    <cfRule type="duplicateValues" dxfId="133" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="duplicateValues" dxfId="132" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="duplicateValues" dxfId="131" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="130" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="129" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="127" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="126" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="124" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B69">
-    <cfRule type="duplicateValues" dxfId="123" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B69">
-    <cfRule type="duplicateValues" dxfId="122" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="121" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="120" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B1048576 A1:B19 A79:B88 A106:B111 A25:B28 A90:B98 B89 A113:B131 B112 A30:B69">
-    <cfRule type="duplicateValues" dxfId="119" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="118" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="117" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="116" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="115" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="114" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="113" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="112" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="111" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="109" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B1048576 B1:B19 B106:B132 B25:B28 B79:B98 B30:B70">
-    <cfRule type="duplicateValues" dxfId="108" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:A134">
-    <cfRule type="duplicateValues" dxfId="107" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B134">
-    <cfRule type="duplicateValues" dxfId="105" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="duplicateValues" dxfId="104" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="duplicateValues" dxfId="103" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133:B134">
-    <cfRule type="duplicateValues" dxfId="102" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133:B134">
-    <cfRule type="duplicateValues" dxfId="101" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B134">
-    <cfRule type="duplicateValues" dxfId="100" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B134">
-    <cfRule type="duplicateValues" dxfId="98" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="97" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="96" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B100">
-    <cfRule type="duplicateValues" dxfId="95" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="94" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="93" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="92" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B71">
-    <cfRule type="duplicateValues" dxfId="91" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="90" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="89" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="88" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="87" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="86" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B73">
-    <cfRule type="duplicateValues" dxfId="85" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="83" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="82" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="81" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="80" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="79" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="78" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="77" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="76" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:B134 B25:B28 B1:B21 B137:B1048576 B79:B101 B30:B73">
-    <cfRule type="duplicateValues" dxfId="75" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A111 A25:A28 A1:A21 A137:A1048576 A79:A88 A90:A101 A113:A134 A30:A73">
-    <cfRule type="duplicateValues" dxfId="74" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="73" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="72" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="71" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="70" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="69" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="68" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="67" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B105">
-    <cfRule type="duplicateValues" dxfId="66" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B105">
-    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="64" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:B135">
-    <cfRule type="duplicateValues" dxfId="62" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="61" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:B135">
-    <cfRule type="duplicateValues" dxfId="58" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:B135">
-    <cfRule type="duplicateValues" dxfId="56" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="55" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="54" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="53" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="duplicateValues" dxfId="52" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" dxfId="51" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="50" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="49" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="48" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="47" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="46" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="45" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B28 A30:B55">
-    <cfRule type="duplicateValues" dxfId="44" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28 B30:B55">
-    <cfRule type="duplicateValues" dxfId="43" priority="531"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="531"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A24">
-    <cfRule type="duplicateValues" dxfId="42" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="41" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:A75 A78">
-    <cfRule type="duplicateValues" dxfId="40" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="39" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="38" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="37" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75 B78">
-    <cfRule type="duplicateValues" dxfId="35" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:B136">
-    <cfRule type="duplicateValues" dxfId="32" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="29" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77 B76">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -13035,9 +12926,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G985"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13875,8 +13766,12 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -13884,8 +13779,12 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -19212,185 +19111,200 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A51:A65 A1:A2 A67:A1048576 A15">
-    <cfRule type="duplicateValues" dxfId="419" priority="117"/>
+  <conditionalFormatting sqref="A51 A1:A2 A67:A1048576 A15 A54:A65">
+    <cfRule type="duplicateValues" dxfId="406" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="418" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="417" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="416" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="415" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="414" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="413" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="412" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="411" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="410" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="409" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="408" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="407" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="406" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A29">
-    <cfRule type="duplicateValues" dxfId="405" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B29">
-    <cfRule type="duplicateValues" dxfId="404" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B31">
-    <cfRule type="duplicateValues" dxfId="403" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B31 A51:B1048576 B48:B50">
-    <cfRule type="duplicateValues" dxfId="402" priority="73"/>
+  <conditionalFormatting sqref="A1:B31 A51:B51 B48:B50 A54:B1048576">
+    <cfRule type="duplicateValues" dxfId="389" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="401" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="400" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="duplicateValues" dxfId="399" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="398" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39">
-    <cfRule type="duplicateValues" dxfId="397" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="396" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B73">
-    <cfRule type="duplicateValues" dxfId="395" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B75">
-    <cfRule type="duplicateValues" dxfId="394" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="393" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B82">
-    <cfRule type="duplicateValues" dxfId="392" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B82">
-    <cfRule type="duplicateValues" dxfId="391" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="duplicateValues" dxfId="390" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="389" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="388" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="387" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="386" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="385" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="384" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="383" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="382" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="381" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B45">
-    <cfRule type="duplicateValues" dxfId="380" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="379" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="378" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="377" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="376" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="375" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B47">
-    <cfRule type="duplicateValues" dxfId="374" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="373" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="372" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="371" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="370" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="duplicateValues" dxfId="369" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="368" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B36">
-    <cfRule type="duplicateValues" dxfId="367" priority="491"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="496"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B36">
-    <cfRule type="duplicateValues" dxfId="366" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="498"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B31 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="365" priority="516"/>
+  <conditionalFormatting sqref="B1:B31 B48:B51 B54:B1048576">
+    <cfRule type="duplicateValues" dxfId="352" priority="521"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B40 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="364" priority="519"/>
+  <conditionalFormatting sqref="B1:B40 B48:B51 B54:B1048576">
+    <cfRule type="duplicateValues" dxfId="351" priority="524"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B43 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="363" priority="522"/>
+  <conditionalFormatting sqref="B1:B43 B48:B51 B54:B1048576">
+    <cfRule type="duplicateValues" dxfId="350" priority="527"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84 B90 B48:B75">
-    <cfRule type="duplicateValues" dxfId="362" priority="525"/>
+  <conditionalFormatting sqref="B84 B90 B48:B51 B54:B75">
+    <cfRule type="duplicateValues" dxfId="349" priority="530"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="361" priority="529"/>
+  <conditionalFormatting sqref="B48:B51 B54:B1048576">
+    <cfRule type="duplicateValues" dxfId="348" priority="534"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="360" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B53">
+    <cfRule type="duplicateValues" dxfId="346" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B53">
+    <cfRule type="duplicateValues" dxfId="345" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B53">
+    <cfRule type="duplicateValues" dxfId="344" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B53">
+    <cfRule type="duplicateValues" dxfId="343" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B53">
+    <cfRule type="duplicateValues" dxfId="342" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19402,10 +19316,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19453,7 +19367,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="str">
-        <f t="shared" ref="G2:G65" si="0">IF(A2&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G2:G27" si="0">IF(A2&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;"));","")</f>
         <v>Browser.WebEdit.Set("VQ_Login_User", getdata("VQ_Login_User"));</v>
       </c>
     </row>
@@ -19858,26 +19772,24 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(WebButton!A52&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;WebButton!A52&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;WebButton!A52&amp;CHAR(34)&amp;"));","")</f>
+        <v>Browser.WebEdit.Set("RTB_Valid_Name", getdata("RTB_Valid_Name"));</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G29:G65" si="1">IF(A29&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A29&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A29&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
@@ -19889,7 +19801,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19901,7 +19813,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19913,7 +19825,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19925,7 +19837,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19937,7 +19849,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19949,7 +19861,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19961,7 +19873,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19973,7 +19885,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19985,7 +19897,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19997,7 +19909,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20009,7 +19921,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20021,7 +19933,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20033,7 +19945,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20045,7 +19957,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20057,7 +19969,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20069,7 +19981,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20081,7 +19993,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20093,7 +20005,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20105,7 +20017,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20117,7 +20029,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20129,7 +20041,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20141,7 +20053,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20153,7 +20065,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20165,7 +20077,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20177,7 +20089,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20189,7 +20101,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20197,7 +20109,7 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="G56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20205,7 +20117,7 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="G57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20213,7 +20125,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="G58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20221,7 +20133,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="G59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20229,5728 +20141,5707 @@
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="G60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="G61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="G62" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="G63" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G64" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G65" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G66" s="4" t="str">
-        <f t="shared" ref="G66:G129" si="1">IF(A66&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A66&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A66&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G66:G129" si="2">IF(A66&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A66&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A66&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G67" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G68" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G69" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G70" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G71" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G72" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G73" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G75" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G76" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G77" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G78" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G79" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="G80" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="G97" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G98" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G99" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G100" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G101" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G102" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G103" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G104" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G105" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G106" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G107" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G108" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G109" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G110" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G111" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G112" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G118" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G119" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G120" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G121" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G122" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G123" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G124" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G125" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G126" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G127" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G128" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G129" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G130" s="4" t="str">
-        <f t="shared" ref="G130:G193" si="2">IF(A130&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A130&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A130&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G130:G193" si="3">IF(A130&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A130&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A130&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G131" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G132" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G133" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G134" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G135" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G136" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G137" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G138" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G139" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G140" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G141" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G142" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G143" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G144" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G145" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G146" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G147" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G148" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G149" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G150" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G151" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G152" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G153" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G154" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G155" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G156" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G157" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G158" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G159" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G160" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G161" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G162" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G163" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G164" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G165" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G166" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G167" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G168" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G169" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G170" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G171" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G172" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G173" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G174" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G175" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G176" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G177" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G178" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G179" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G180" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G181" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G182" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G183" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G184" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G185" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G186" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G187" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G188" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G189" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G190" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G191" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G192" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G193" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G194" s="4" t="str">
-        <f t="shared" ref="G194:G257" si="3">IF(A194&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A194&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A194&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G194:G257" si="4">IF(A194&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A194&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A194&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G195" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G196" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G197" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G198" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G199" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G200" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G201" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G202" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G203" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G204" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G205" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G206" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G207" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G208" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G209" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G210" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G211" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G212" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G213" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G214" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G215" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G216" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G217" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G218" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G219" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G220" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G221" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G222" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G223" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G224" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G225" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G226" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G227" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G228" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G229" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G230" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G231" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G232" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G233" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G234" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G235" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G236" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G237" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G238" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G239" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G240" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G241" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G242" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G243" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G244" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G245" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G246" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G247" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G248" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G249" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G250" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G251" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G252" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G253" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G254" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G255" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G256" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G257" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G258" s="4" t="str">
-        <f t="shared" ref="G258:G321" si="4">IF(A258&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A258&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A258&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G258:G321" si="5">IF(A258&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A258&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A258&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G259" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G260" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G261" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G262" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G263" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G264" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G265" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G266" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G267" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G268" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G269" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G270" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G271" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G272" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G273" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G274" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G275" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G276" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G277" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G278" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G279" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G280" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G281" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G282" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G283" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G284" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G285" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G286" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G287" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G288" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G289" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G290" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G291" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G292" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G293" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G294" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G295" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G296" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G297" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G298" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G299" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G300" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G301" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G302" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G303" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G304" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G305" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G306" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G307" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G308" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G309" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G310" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G311" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G312" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G313" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G314" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G315" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G316" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G317" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G318" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G319" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G320" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G321" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G322" s="4" t="str">
-        <f t="shared" ref="G322:G385" si="5">IF(A322&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A322&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A322&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G322:G385" si="6">IF(A322&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A322&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A322&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="323" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G323" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G324" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G325" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G326" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G327" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G328" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G329" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G330" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G331" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G332" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G333" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G334" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G335" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G336" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G337" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G338" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G339" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G340" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G341" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G342" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G343" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G344" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G345" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G346" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G347" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G348" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G349" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G350" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G351" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G352" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G353" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G354" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G355" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G356" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G357" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G358" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G359" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G360" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G361" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G362" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G363" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G364" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G365" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G366" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G367" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G368" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G369" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G370" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G371" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G372" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G373" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G374" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G375" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G376" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G377" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G378" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G379" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G380" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G381" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G382" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G383" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G384" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G385" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G386" s="4" t="str">
-        <f t="shared" ref="G386:G449" si="6">IF(A386&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A386&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A386&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G386:G449" si="7">IF(A386&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A386&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A386&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="387" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G387" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G388" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G389" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G390" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G391" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G392" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G393" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G394" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G395" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G396" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G397" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G398" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G399" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G400" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G401" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G402" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G403" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G404" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G405" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G406" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G407" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G408" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G409" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G410" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G411" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G412" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G413" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G414" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G415" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G416" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G417" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G418" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G419" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G420" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G421" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G422" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G423" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G424" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G425" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G426" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G427" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G428" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G429" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G430" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G431" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G432" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G433" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G434" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G435" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G436" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G437" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G438" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G439" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G440" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G441" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G442" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G443" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G444" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G445" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G446" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G447" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G448" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G449" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G450" s="4" t="str">
-        <f t="shared" ref="G450:G513" si="7">IF(A450&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A450&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A450&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G450:G513" si="8">IF(A450&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A450&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A450&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="451" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G451" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G452" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G453" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G454" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G455" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G456" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G457" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G458" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G459" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G460" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G461" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G462" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G463" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G464" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G465" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G466" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G467" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G468" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G469" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G470" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G471" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G472" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G473" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G474" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G475" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G476" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G477" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G478" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G479" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G480" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G481" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G482" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G483" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G484" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G485" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G486" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G487" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G488" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G489" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G490" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G491" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G492" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G493" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G494" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G495" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G496" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G497" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G498" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G499" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G500" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="501" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G501" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G502" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G503" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="504" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G504" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="505" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G505" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G506" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G507" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G508" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G509" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G510" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G511" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G512" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G513" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G514" s="4" t="str">
-        <f t="shared" ref="G514:G577" si="8">IF(A514&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A514&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A514&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G514:G577" si="9">IF(A514&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A514&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A514&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="515" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G515" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="516" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G516" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="517" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G517" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="518" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G518" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="519" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G519" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="520" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G520" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="521" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G521" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="522" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G522" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="523" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G523" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="524" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G524" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="525" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G525" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="526" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G526" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="527" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G527" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="528" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G528" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="529" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G529" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="530" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G530" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="531" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G531" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="532" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G532" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="533" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G533" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="534" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G534" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="535" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G535" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="536" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G536" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="537" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G537" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="538" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G538" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="539" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G539" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="540" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G540" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="541" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G541" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="542" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G542" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="543" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G543" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="544" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G544" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="545" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G545" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="546" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G546" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="547" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G547" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="548" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G548" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="549" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G549" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="550" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G550" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="551" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G551" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="552" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G552" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="553" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G553" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="554" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G554" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="555" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G555" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="556" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G556" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="557" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G557" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="558" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G558" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="559" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G559" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="560" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G560" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="561" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G561" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="562" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G562" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="563" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G563" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="564" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G564" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="565" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G565" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="566" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G566" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="567" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G567" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="568" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G568" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="569" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G569" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="570" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G570" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="571" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G571" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="572" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G572" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="573" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G573" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="574" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G574" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="575" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G575" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="576" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G576" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="577" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G577" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="578" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G578" s="4" t="str">
-        <f t="shared" ref="G578:G641" si="9">IF(A578&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A578&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A578&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G578:G641" si="10">IF(A578&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A578&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A578&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="579" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G579" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="580" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G580" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="581" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G581" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="582" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G582" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="583" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G583" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="584" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G584" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="585" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G585" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="586" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G586" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="587" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G587" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="588" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G588" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="589" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G589" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="590" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G590" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="591" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G591" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="592" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G592" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="593" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G593" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="594" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G594" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="595" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G595" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="596" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G596" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="597" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G597" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="598" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G598" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="599" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G599" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="600" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G600" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="601" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G601" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="602" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G602" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="603" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G603" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="604" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G604" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="605" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G605" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="606" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G606" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="607" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G607" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="608" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G608" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="609" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G609" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="610" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G610" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="611" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G611" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="612" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G612" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="613" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G613" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="614" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G614" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="615" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G615" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="616" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G616" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="617" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G617" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="618" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G618" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="619" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G619" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="620" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G620" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="621" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G621" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="622" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G622" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="623" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G623" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="624" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G624" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="625" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G625" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="626" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G626" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="627" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G627" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="628" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G628" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="629" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G629" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="630" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G630" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="631" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G631" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="632" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G632" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="633" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G633" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="634" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G634" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="635" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G635" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="636" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G636" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="637" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G637" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="638" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G638" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="639" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G639" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="640" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G640" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="641" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G641" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="642" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G642" s="4" t="str">
-        <f t="shared" ref="G642:G705" si="10">IF(A642&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A642&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A642&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G642:G705" si="11">IF(A642&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A642&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A642&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="643" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G643" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="644" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G644" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="645" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G645" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="646" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G646" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="647" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G647" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="648" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G648" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="649" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G649" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="650" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G650" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="651" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G651" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="652" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G652" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="653" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G653" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="654" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G654" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="655" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G655" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="656" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G656" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="657" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G657" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="658" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G658" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="659" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G659" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="660" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G660" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="661" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G661" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="662" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G662" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="663" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G663" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="664" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G664" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="665" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G665" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="666" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G666" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="667" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G667" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="668" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G668" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="669" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G669" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="670" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G670" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="671" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G671" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="672" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G672" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="673" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G673" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="674" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G674" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="675" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G675" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="676" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G676" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="677" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G677" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="678" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G678" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="679" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G679" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="680" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G680" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="681" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G681" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="682" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G682" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="683" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G683" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="684" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G684" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="685" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G685" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="686" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G686" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="687" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G687" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="688" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G688" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="689" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G689" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="690" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G690" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="691" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G691" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="692" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G692" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="693" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G693" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="694" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G694" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="695" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G695" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="696" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G696" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="697" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G697" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="698" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G698" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="699" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G699" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="700" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G700" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="701" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G701" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="702" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G702" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="703" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G703" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="704" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G704" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="705" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G705" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="706" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G706" s="4" t="str">
-        <f t="shared" ref="G706:G769" si="11">IF(A706&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A706&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A706&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G706:G769" si="12">IF(A706&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A706&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A706&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="707" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G707" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="708" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G708" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="709" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G709" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="710" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G710" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="711" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G711" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="712" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G712" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="713" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G713" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="714" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G714" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="715" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G715" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="716" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G716" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="717" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G717" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="718" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G718" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="719" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G719" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="720" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G720" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="721" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G721" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="722" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G722" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="723" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G723" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="724" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G724" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="725" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G725" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="726" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G726" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="727" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G727" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="728" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G728" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="729" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G729" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="730" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G730" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="731" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G731" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="732" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G732" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="733" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G733" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="734" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G734" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="735" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G735" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="736" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G736" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="737" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G737" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="738" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G738" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="739" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G739" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="740" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G740" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="741" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G741" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="742" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G742" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="743" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G743" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="744" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G744" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="745" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G745" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="746" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G746" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="747" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G747" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="748" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G748" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="749" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G749" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="750" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G750" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="751" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G751" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="752" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G752" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="753" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G753" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="754" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G754" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="755" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G755" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="756" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G756" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="757" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G757" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="758" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G758" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="759" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G759" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="760" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G760" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="761" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G761" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="762" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G762" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="763" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G763" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="764" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G764" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="765" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G765" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="766" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G766" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="767" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G767" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="768" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G768" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="769" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G769" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="770" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G770" s="4" t="str">
-        <f t="shared" ref="G770:G833" si="12">IF(A770&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A770&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A770&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G770:G833" si="13">IF(A770&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A770&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A770&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="772" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G772" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="773" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G773" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="774" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G774" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="775" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G775" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="776" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G776" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="777" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G777" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="778" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G778" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="779" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G779" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="780" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G780" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="781" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G781" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="782" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G782" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="783" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G783" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="784" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G784" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="785" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G785" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="786" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G786" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="787" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G787" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="788" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G788" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="789" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G789" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="790" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G790" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="791" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G791" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="792" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G792" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="793" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G793" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="794" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G794" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="795" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G795" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="796" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G796" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="797" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G797" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="798" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G798" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="799" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G799" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="800" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G800" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="801" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G801" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="802" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G802" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="803" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G803" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="804" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G804" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="805" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G805" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="806" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G806" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="807" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G807" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="808" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G808" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="809" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G809" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="810" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G810" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="811" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G811" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="812" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G812" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="813" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G813" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="814" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G814" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="815" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G815" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="816" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G816" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="817" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G817" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="818" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G818" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="819" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G819" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="820" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G820" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="821" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G821" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="822" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G822" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="823" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G823" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="824" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G824" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="825" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G825" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="826" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G826" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="827" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G827" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="828" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G828" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="829" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G829" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="830" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G830" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="831" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G831" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="832" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G832" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="833" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G833" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="834" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G834" s="4" t="str">
-        <f t="shared" ref="G834:G897" si="13">IF(A834&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A834&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A834&amp;CHAR(34)&amp;"));","")</f>
+        <f t="shared" ref="G834:G897" si="14">IF(A834&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A834&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A834&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
     <row r="835" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G835" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="836" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G836" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="837" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G837" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="838" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G838" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="839" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G839" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="840" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G840" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="841" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G841" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="842" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G842" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="843" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G843" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="844" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G844" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="845" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G845" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="846" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G846" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="847" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G847" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="848" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G848" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="849" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G849" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="850" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G850" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="851" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G851" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="852" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G852" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="853" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G853" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="854" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G854" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="855" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G855" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="856" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G856" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="857" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G857" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="858" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G858" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="859" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G859" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="860" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G860" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="861" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G861" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="862" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G862" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="863" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G863" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="864" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G864" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="865" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G865" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="866" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G866" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="867" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G867" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="868" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G868" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="869" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G869" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="870" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G870" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="871" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G871" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="872" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G872" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="873" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G873" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="874" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G874" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="875" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G875" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="876" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G876" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="877" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G877" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="878" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G878" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="879" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G879" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="880" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G880" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="881" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G881" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="882" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G882" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="883" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G883" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="884" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G884" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="885" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G885" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="886" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G886" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="887" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G887" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="888" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G888" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="889" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G889" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="890" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G890" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="891" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G891" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="892" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G892" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="893" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G893" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="894" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G894" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="895" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G895" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="896" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G896" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="897" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G897" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="898" spans="7:7" x14ac:dyDesc